--- a/Aia/Lang/Derotic/Drotic.xlsx
+++ b/Aia/Lang/Derotic/Drotic.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4126A2-2A1C-4254-AA8C-9C5CC0DCACAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="943" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
@@ -17,9 +18,10 @@
     <sheet name="Adjectives" sheetId="3" r:id="rId8"/>
     <sheet name="Adverbs" sheetId="4" r:id="rId9"/>
     <sheet name="Pronouns" sheetId="5" r:id="rId10"/>
-    <sheet name="Prepositions" sheetId="6" r:id="rId11"/>
+    <sheet name="Adpositions" sheetId="6" r:id="rId11"/>
+    <sheet name="Conjunction" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="557">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -885,12 +887,6 @@
     <t xml:space="preserve">there are 4 noun classes </t>
   </si>
   <si>
-    <t>other ending with vowel</t>
-  </si>
-  <si>
-    <t>other ending with consonant</t>
-  </si>
-  <si>
     <t>suffix - /it/</t>
   </si>
   <si>
@@ -907,9 +903,6 @@
   </si>
   <si>
     <t>suffix - /ɣ/</t>
-  </si>
-  <si>
-    <t>nvm</t>
   </si>
   <si>
     <t>singular</t>
@@ -966,9 +959,6 @@
     <t>DEFFINITE</t>
   </si>
   <si>
-    <t>QUESTIONEING/RELATIVE</t>
-  </si>
-  <si>
     <t>INCLUSIVE</t>
   </si>
   <si>
@@ -1098,21 +1088,12 @@
     <t>a˩˥</t>
   </si>
   <si>
-    <t>nɑ:θ</t>
-  </si>
-  <si>
-    <t>nomonative</t>
-  </si>
-  <si>
     <t>accusative</t>
   </si>
   <si>
     <t>dative</t>
   </si>
   <si>
-    <t>ʉB</t>
-  </si>
-  <si>
     <t>past</t>
   </si>
   <si>
@@ -1407,9 +1388,6 @@
     <t>before</t>
   </si>
   <si>
-    <t>trɑ</t>
-  </si>
-  <si>
     <t>ground</t>
   </si>
   <si>
@@ -1425,9 +1403,6 @@
     <t>water</t>
   </si>
   <si>
-    <t>soil</t>
-  </si>
-  <si>
     <t>ʁRai:r</t>
   </si>
   <si>
@@ -1495,13 +1470,427 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>RULES</t>
+  </si>
+  <si>
+    <t>1. the first wowel sets the note of the person</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>i:ɾɛra</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>frontRorfrontThrill</t>
+  </si>
+  <si>
+    <t>rˠ</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>aw ba</t>
+  </si>
+  <si>
+    <t>soil/source</t>
+  </si>
+  <si>
+    <t>ground fire</t>
+  </si>
+  <si>
+    <t>/the desciber is in front</t>
+  </si>
+  <si>
+    <r>
+      <t>Bitð</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ø:ʁ</t>
+    </r>
+  </si>
+  <si>
+    <t>eɾ</t>
+  </si>
+  <si>
+    <t>ɔ˩˥</t>
+  </si>
+  <si>
+    <t>ɔ˥˩</t>
+  </si>
+  <si>
+    <t>Genetiv</t>
+  </si>
+  <si>
+    <t>Normativ</t>
+  </si>
+  <si>
+    <t>Accusativ</t>
+  </si>
+  <si>
+    <t>Dativ</t>
+  </si>
+  <si>
+    <t>Locativ</t>
+  </si>
+  <si>
+    <t>tra</t>
+  </si>
+  <si>
+    <t>ðiar</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>air spirit</t>
+  </si>
+  <si>
+    <t>i:ɾɛðiar</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>wind bottle</t>
+  </si>
+  <si>
+    <t>ɾnai:ɾɛðiar</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>LEXICON OF THE BODY</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>chin</t>
+  </si>
+  <si>
+    <t>cheek</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>eyebrow</t>
+  </si>
+  <si>
+    <t>forehead</t>
+  </si>
+  <si>
+    <t>tinning {svenska}</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>elbow</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>animate</t>
+  </si>
+  <si>
+    <t>autonomous</t>
+  </si>
+  <si>
+    <t>/ɛt/ suffix</t>
+  </si>
+  <si>
+    <t>dead, unchangeable, unmoveable</t>
+  </si>
+  <si>
+    <t>other ending</t>
+  </si>
+  <si>
+    <t>unmoveable</t>
+  </si>
+  <si>
+    <t>ɾɛt</t>
+  </si>
+  <si>
+    <t>{see ɛt ending for nouns}</t>
+  </si>
+  <si>
+    <t>ɛt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negates </t>
+  </si>
+  <si>
+    <t>attributes (adjectives) are etternal and therefore are all the same "declension"</t>
+  </si>
+  <si>
+    <t>LEXICON OF ADJECTIVES</t>
+  </si>
+  <si>
+    <t>LECICON OF CONJUNCTIONS</t>
+  </si>
+  <si>
+    <t>COORDINATING CONJUNCTIONS</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>because, for</t>
+  </si>
+  <si>
+    <t>yet</t>
+  </si>
+  <si>
+    <t>nor is, and neither is</t>
+  </si>
+  <si>
+    <t>yø:</t>
+  </si>
+  <si>
+    <t>nʔ</t>
+  </si>
+  <si>
+    <t>uɾð</t>
+  </si>
+  <si>
+    <t>ʉrt</t>
+  </si>
+  <si>
+    <t>y:ð</t>
+  </si>
+  <si>
+    <t>LEXICON OF ADPOSITIONS</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>truð</t>
+  </si>
+  <si>
+    <t>RELATIVE</t>
+  </si>
+  <si>
+    <t>QUESTIONEING</t>
+  </si>
+  <si>
+    <t>ɔ˩</t>
+  </si>
+  <si>
+    <t>The language is VSO</t>
+  </si>
+  <si>
+    <t>adjectives can come from nouns and verbs</t>
+  </si>
+  <si>
+    <t>make to adjective</t>
+  </si>
+  <si>
+    <t>2. following r sounds melt together into a contineum</t>
+  </si>
+  <si>
+    <t>að - noun</t>
+  </si>
+  <si>
+    <t>aðRa</t>
+  </si>
+  <si>
+    <t>aðyat</t>
+  </si>
+  <si>
+    <t>aθe</t>
+  </si>
+  <si>
+    <t>aðrn</t>
+  </si>
+  <si>
+    <t>aðynt</t>
+  </si>
+  <si>
+    <t>θa</t>
+  </si>
+  <si>
+    <t>aθa</t>
+  </si>
+  <si>
+    <t>nominative</t>
+  </si>
+  <si>
+    <t>iøro</t>
+  </si>
+  <si>
+    <t>iør</t>
+  </si>
+  <si>
+    <t>iørt</t>
+  </si>
+  <si>
+    <t>iart</t>
+  </si>
+  <si>
+    <t>iar</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>ɛto</t>
+  </si>
+  <si>
+    <t>ɛtet</t>
+  </si>
+  <si>
+    <t>instrumentum</t>
+  </si>
+  <si>
+    <t>aw *iø</t>
+  </si>
+  <si>
+    <t>aw *ia</t>
+  </si>
+  <si>
+    <t>aw *ɛt</t>
+  </si>
+  <si>
+    <t>vocative</t>
+  </si>
+  <si>
+    <t>dual</t>
+  </si>
+  <si>
+    <t>indef. Accusative</t>
+  </si>
+  <si>
+    <t>prolative</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>terminative</t>
+  </si>
+  <si>
+    <t>indef. Allative</t>
+  </si>
+  <si>
+    <t>indef. Locative</t>
+  </si>
+  <si>
+    <t>indef. Ablative</t>
+  </si>
+  <si>
+    <t>distributive</t>
+  </si>
+  <si>
+    <t>formal</t>
+  </si>
+  <si>
+    <t>identical</t>
+  </si>
+  <si>
+    <t>orientative</t>
+  </si>
+  <si>
+    <t>revertive</t>
+  </si>
+  <si>
+    <t>translative</t>
+  </si>
+  <si>
+    <t>paucal</t>
+  </si>
+  <si>
+    <t>MY NUMERUS</t>
+  </si>
+  <si>
+    <t>taRe*iø</t>
+  </si>
+  <si>
+    <t>taRe*ia</t>
+  </si>
+  <si>
+    <t>taRe*ɛt</t>
+  </si>
+  <si>
+    <t>locative</t>
+  </si>
+  <si>
+    <t>ɛta</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>mood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1628,6 +2017,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2211,7 +2607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2384,10 +2780,31 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,30 +2825,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -2718,36 +3116,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D7:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9">
       <c r="D7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9">
       <c r="D8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9">
       <c r="D9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9">
       <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9">
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -2758,61 +3159,101 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="D6:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:14">
+      <c r="F6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H6" t="s">
+        <v>440</v>
+      </c>
+      <c r="J6" t="s">
+        <v>442</v>
+      </c>
+      <c r="L6" t="s">
+        <v>443</v>
+      </c>
+      <c r="N6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14">
       <c r="D7" t="s">
         <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="H7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14">
       <c r="D8" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="H8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14">
       <c r="D9" t="s">
         <v>153</v>
       </c>
       <c r="F9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14">
       <c r="D10" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="H10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14">
       <c r="D11" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+      <c r="H11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14">
       <c r="D12" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>518</v>
+      </c>
+      <c r="H12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14">
+      <c r="H13" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -2821,100 +3262,229 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="E21:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="21" spans="5:7" ht="30" customHeight="1">
+      <c r="E21" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" t="s">
+        <v>445</v>
+      </c>
+      <c r="G25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
+        <v>504</v>
+      </c>
+      <c r="G26" t="s">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67A9300-1361-43C6-92B6-4C4F1F38BA30}">
+  <dimension ref="E20:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="20" spans="5:7" ht="30" customHeight="1">
+      <c r="E20" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" t="s">
+        <v>497</v>
+      </c>
+      <c r="G25" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
+        <v>498</v>
+      </c>
+      <c r="G26" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
+        <v>499</v>
+      </c>
+      <c r="G29" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" t="s">
+        <v>500</v>
+      </c>
+      <c r="G30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" t="s">
+        <v>501</v>
+      </c>
+      <c r="G31" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:V78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="E1:V83"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView topLeftCell="E52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="7:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="7:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="7:22" ht="15" customHeight="1"/>
+    <row r="2" spans="7:22" ht="30" customHeight="1" thickBot="1">
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:22" ht="15.75" thickBot="1">
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="136" t="s">
+      <c r="N3" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="147" t="s">
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="147" t="s">
+      <c r="S3" s="137"/>
+      <c r="T3" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="148"/>
+      <c r="U3" s="137"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="140" t="s">
+    <row r="4" spans="7:22" ht="30.75" thickBot="1">
+      <c r="G4" s="147" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="147" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="140" t="s">
+      <c r="K4" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="140" t="s">
+      <c r="L4" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="136" t="s">
+      <c r="N4" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="137"/>
-      <c r="P4" s="136" t="s">
+      <c r="O4" s="141"/>
+      <c r="P4" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="150"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="139"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="141"/>
+    <row r="5" spans="7:22" ht="30.75" thickBot="1">
+      <c r="G5" s="148"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -2941,11 +3511,11 @@
       </c>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="136" t="s">
+    <row r="6" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G6" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="137"/>
+      <c r="H6" s="141"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2980,8 +3550,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="140" t="s">
+    <row r="7" spans="7:22" ht="30.75" thickBot="1">
+      <c r="G7" s="147" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -2998,19 +3568,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="144" t="s">
+      <c r="O7" s="142" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="144" t="s">
+      <c r="Q7" s="142" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="144" t="s">
+      <c r="S7" s="142" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -3019,55 +3589,55 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="141"/>
+    <row r="8" spans="7:22" ht="30.75" thickBot="1">
+      <c r="G8" s="148"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="142" t="s">
+      <c r="I8" s="149" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="142" t="s">
+      <c r="K8" s="149" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
       <c r="N8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="146"/>
+      <c r="O8" s="143"/>
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="146"/>
+      <c r="Q8" s="143"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="146"/>
+      <c r="S8" s="143"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="136" t="s">
+    <row r="9" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G9" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="142" t="s">
+      <c r="H9" s="141"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="144" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="142" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="138"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="139"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="146"/>
       <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
@@ -3077,20 +3647,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="140" t="s">
+    <row r="10" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G10" s="147" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="143"/>
+      <c r="J10" s="150"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="145"/>
-    </row>
-    <row r="11" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="141"/>
+      <c r="L10" s="151"/>
+    </row>
+    <row r="11" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G11" s="148"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3101,26 +3671,26 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="145"/>
-    </row>
-    <row r="12" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="136" t="s">
+      <c r="L11" s="151"/>
+    </row>
+    <row r="12" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G12" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="137"/>
+      <c r="H12" s="141"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="146"/>
+      <c r="L12" s="143"/>
       <c r="O12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="136" t="s">
+    <row r="13" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G13" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="137"/>
+      <c r="H13" s="141"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
@@ -3134,12 +3704,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:22">
       <c r="O14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:22">
       <c r="G15" t="s">
         <v>67</v>
       </c>
@@ -3153,7 +3723,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:22">
       <c r="G16" t="s">
         <v>62</v>
       </c>
@@ -3173,7 +3743,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20">
       <c r="G17" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3766,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20">
       <c r="G18" t="s">
         <v>7</v>
       </c>
@@ -3219,7 +3789,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20">
       <c r="G19" t="s">
         <v>26</v>
       </c>
@@ -3242,7 +3812,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20">
       <c r="G20" t="s">
         <v>27</v>
       </c>
@@ -3265,7 +3835,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20">
       <c r="G21" t="s">
         <v>20</v>
       </c>
@@ -3285,7 +3855,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:20">
       <c r="G22" t="s">
         <v>21</v>
       </c>
@@ -3302,7 +3872,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20">
       <c r="L23" t="s">
         <v>117</v>
       </c>
@@ -3313,7 +3883,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20">
       <c r="L24" t="s">
         <v>108</v>
       </c>
@@ -3321,10 +3891,10 @@
         <v>197</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="7:20">
       <c r="G26" t="s">
         <v>118</v>
       </c>
@@ -3332,7 +3902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20">
       <c r="G27" t="s">
         <v>119</v>
       </c>
@@ -3340,8 +3910,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="7:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="7:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:18" ht="15.75" thickBot="1"/>
+    <row r="38" spans="7:18" ht="23.25" thickBot="1">
       <c r="G38" s="12"/>
       <c r="H38" s="12" t="s">
         <v>9</v>
@@ -3377,7 +3947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:18" ht="27" thickBot="1">
       <c r="G39" s="13" t="s">
         <v>18</v>
       </c>
@@ -3407,7 +3977,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:18" ht="27" thickBot="1">
       <c r="G40" s="13" t="s">
         <v>17</v>
       </c>
@@ -3437,7 +4007,7 @@
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="7:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:18" ht="30" customHeight="1" thickBot="1">
       <c r="G41" s="13" t="s">
         <v>31</v>
       </c>
@@ -3459,7 +4029,7 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:18" ht="27" thickBot="1">
       <c r="G42" s="13" t="s">
         <v>93</v>
       </c>
@@ -3481,7 +4051,7 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:18" ht="27" thickBot="1">
       <c r="G43" s="13" t="s">
         <v>28</v>
       </c>
@@ -3519,7 +4089,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:18" ht="27" thickBot="1">
       <c r="G44" s="13" t="s">
         <v>105</v>
       </c>
@@ -3537,7 +4107,7 @@
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:18" ht="27" thickBot="1">
       <c r="G45" s="13" t="s">
         <v>25</v>
       </c>
@@ -3563,7 +4133,7 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="16"/>
     </row>
-    <row r="46" spans="7:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:18" ht="34.5" thickBot="1">
       <c r="G46" s="17" t="s">
         <v>111</v>
       </c>
@@ -3587,12 +4157,12 @@
       <c r="Q46" s="18"/>
       <c r="R46" s="20"/>
     </row>
-    <row r="52" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:19">
       <c r="G52" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="7:19" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="7:19">
       <c r="G54" t="s">
         <v>67</v>
       </c>
@@ -3600,7 +4170,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:19">
       <c r="G55" t="s">
         <v>62</v>
       </c>
@@ -3617,7 +4187,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:19">
       <c r="G56" t="s">
         <v>6</v>
       </c>
@@ -3631,7 +4201,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:19">
       <c r="G57" t="s">
         <v>7</v>
       </c>
@@ -3646,7 +4216,7 @@
         <v>197</v>
       </c>
       <c r="O57" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P57" t="s">
         <v>200</v>
@@ -3658,7 +4228,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:19">
       <c r="G58" s="30" t="s">
         <v>26</v>
       </c>
@@ -3684,7 +4254,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:19">
       <c r="H59" t="s">
         <v>33</v>
       </c>
@@ -3704,13 +4274,13 @@
         <v>57</v>
       </c>
       <c r="Q59" s="29" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="S59" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:19">
       <c r="G60" s="30" t="s">
         <v>20</v>
       </c>
@@ -3736,10 +4306,10 @@
         <v>214</v>
       </c>
       <c r="S60" s="31" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="61" spans="7:19" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="7:19">
       <c r="G61" t="s">
         <v>21</v>
       </c>
@@ -3762,15 +4332,15 @@
         <v>206</v>
       </c>
       <c r="S61" s="31" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="7:19" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="7:19">
       <c r="S62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:21">
       <c r="G65" t="s">
         <v>118</v>
       </c>
@@ -3778,7 +4348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:21">
       <c r="G66" s="30" t="s">
         <v>119</v>
       </c>
@@ -3786,109 +4356,125 @@
         <v>121</v>
       </c>
       <c r="S66" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="5:21">
       <c r="G67" s="135" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H67" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="5:21">
       <c r="G68" s="30" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H68" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="S68" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="U68" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:21">
       <c r="G69" s="30" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="H69" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="S69" t="s">
         <v>40</v>
       </c>
       <c r="U69" s="100" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="5:21">
+      <c r="G70" s="152" t="s">
+        <v>430</v>
+      </c>
+      <c r="H70" t="s">
+        <v>429</v>
+      </c>
       <c r="S70" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="U70" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="5:21">
+      <c r="G71" s="30"/>
+    </row>
+    <row r="74" spans="5:21">
       <c r="E74" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G74" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="J74" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="5:21">
       <c r="E75" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G75" t="s">
+        <v>323</v>
+      </c>
+      <c r="J75" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="76" spans="5:21">
+      <c r="G76" t="s">
+        <v>325</v>
+      </c>
+      <c r="J76" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="5:21">
+      <c r="G77" t="s">
+        <v>326</v>
+      </c>
+      <c r="J77" t="s">
         <v>330</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K77" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="G76" t="s">
-        <v>332</v>
-      </c>
-      <c r="J76" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="G77" t="s">
-        <v>333</v>
-      </c>
-      <c r="J77" t="s">
-        <v>337</v>
-      </c>
-      <c r="K77" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:21">
       <c r="G78" t="s">
-        <v>334</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -3905,47 +4491,55 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant"/>
-    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
-    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
-    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant"/>
-    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant"/>
-    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant"/>
-    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant"/>
-    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant"/>
-    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant"/>
-    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal"/>
-    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar"/>
-    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant"/>
-    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
-    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop"/>
-    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
-    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
-    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop"/>
-    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
-    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant"/>
-    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative"/>
-    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant"/>
-    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
-    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
-    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative"/>
-    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant"/>
-    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant"/>
-    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant"/>
-    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar"/>
-    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel"/>
-    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel"/>
-    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel"/>
-    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
-    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
-    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel"/>
-    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel"/>
-    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel"/>
-    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel"/>
-    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel"/>
-    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel"/>
+    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId40"/>
@@ -3953,19 +4547,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AF138"/>
   <sheetViews>
-    <sheetView topLeftCell="H120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M131" sqref="M131"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="30" customHeight="1">
       <c r="B1" s="23"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="I7" s="22" t="s">
         <v>122</v>
       </c>
@@ -3973,7 +4567,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="I8" s="22" t="s">
         <v>124</v>
       </c>
@@ -3981,7 +4575,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="I9" s="22" t="s">
         <v>123</v>
       </c>
@@ -3989,7 +4583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="C10" t="s">
         <v>132</v>
       </c>
@@ -4014,7 +4608,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="G11" s="22" t="s">
         <v>126</v>
       </c>
@@ -4037,7 +4631,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="O12" s="24" t="s">
         <v>124</v>
       </c>
@@ -4048,7 +4642,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18">
       <c r="G13" s="25" t="s">
         <v>129</v>
       </c>
@@ -4070,7 +4664,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
@@ -4081,7 +4675,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18">
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25" t="s">
@@ -4090,7 +4684,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18">
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25" t="s">
@@ -4102,16 +4696,16 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11">
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11">
       <c r="C22" t="s">
         <v>186</v>
       </c>
@@ -4119,46 +4713,46 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11">
       <c r="G23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11">
       <c r="G24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11">
       <c r="G25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11">
       <c r="G26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11">
       <c r="G27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" ht="30" customHeight="1">
       <c r="C34" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D34" s="28"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="D38" t="s">
         <v>188</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
       <c r="D39" t="s">
         <v>189</v>
       </c>
@@ -4166,7 +4760,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="D40" t="s">
         <v>211</v>
       </c>
@@ -4174,48 +4768,48 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="D41" t="s">
         <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
       <c r="D42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:31">
       <c r="I55" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="56" spans="6:31" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="6:31">
       <c r="AB56" s="58"/>
     </row>
-    <row r="57" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:31">
       <c r="AB57" s="58"/>
     </row>
-    <row r="58" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:31">
       <c r="T58" s="54" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="U58" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AB58" s="58"/>
       <c r="AE58" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="6:31" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="6:31">
       <c r="J59" s="64" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K59" s="63" t="s">
         <v>116</v>
@@ -4245,7 +4839,7 @@
         <v>61</v>
       </c>
       <c r="T59" s="130" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="U59" s="72" t="s">
         <v>6</v>
@@ -4272,20 +4866,20 @@
         <v>119</v>
       </c>
       <c r="AC59" s="60" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AD59" s="62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:31">
       <c r="F60" s="32" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G60" s="61"/>
       <c r="H60" s="40"/>
       <c r="I60" s="70" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J60" s="75" t="str">
         <f>$I60&amp;J$59</f>
@@ -4372,7 +4966,7 @@
         <v>ਨʔ</v>
       </c>
     </row>
-    <row r="61" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:31">
       <c r="F61" s="32" t="s">
         <v>135</v>
       </c>
@@ -4466,7 +5060,7 @@
         <v>wʔ</v>
       </c>
     </row>
-    <row r="62" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:31">
       <c r="F62" s="34" t="s">
         <v>136</v>
       </c>
@@ -4560,7 +5154,7 @@
         <v>lʔ</v>
       </c>
     </row>
-    <row r="63" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:31">
       <c r="F63" s="57"/>
       <c r="G63" s="58"/>
       <c r="H63" s="58"/>
@@ -4652,7 +5246,7 @@
         <v>rʔ</v>
       </c>
     </row>
-    <row r="64" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:31">
       <c r="F64" s="57"/>
       <c r="G64" s="58"/>
       <c r="H64" s="58"/>
@@ -4744,7 +5338,7 @@
         <v>ɾʔ</v>
       </c>
     </row>
-    <row r="65" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:30">
       <c r="F65" s="57"/>
       <c r="G65" s="58"/>
       <c r="H65" s="58"/>
@@ -4836,7 +5430,7 @@
         <v>ɹʔ</v>
       </c>
     </row>
-    <row r="66" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:30">
       <c r="F66" s="57"/>
       <c r="G66" s="58"/>
       <c r="H66" s="58"/>
@@ -4928,7 +5522,7 @@
         <v>ʀʔ</v>
       </c>
     </row>
-    <row r="67" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:30">
       <c r="F67" s="57"/>
       <c r="G67" s="58"/>
       <c r="H67" s="58"/>
@@ -5020,7 +5614,7 @@
         <v>ʁʔ</v>
       </c>
     </row>
-    <row r="68" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:30">
       <c r="F68" s="57"/>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -5112,7 +5706,7 @@
         <v>ɣʔ</v>
       </c>
     </row>
-    <row r="69" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:30">
       <c r="F69" s="57"/>
       <c r="G69" s="58"/>
       <c r="H69" s="58"/>
@@ -5204,10 +5798,10 @@
         <v>ʙʔ</v>
       </c>
     </row>
-    <row r="70" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:30">
       <c r="E70" s="97"/>
       <c r="I70" s="65" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="J70" s="82" t="str">
         <f t="shared" si="2"/>
@@ -5294,13 +5888,13 @@
         <v>Ȝʔ</v>
       </c>
     </row>
-    <row r="71" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:30">
       <c r="F71" s="34" t="s">
         <v>137</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I71" s="67" t="s">
         <v>6</v>
@@ -5390,11 +5984,11 @@
         <v>mʔ</v>
       </c>
     </row>
-    <row r="72" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:30">
       <c r="F72" s="59"/>
       <c r="G72" s="54"/>
       <c r="H72" s="54" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I72" s="68" t="s">
         <v>7</v>
@@ -5484,7 +6078,7 @@
         <v>nʔ</v>
       </c>
     </row>
-    <row r="73" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:30">
       <c r="F73" s="34" t="s">
         <v>138</v>
       </c>
@@ -5578,7 +6172,7 @@
         <v>θʔ</v>
       </c>
     </row>
-    <row r="74" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:30">
       <c r="F74" s="57"/>
       <c r="G74" s="58"/>
       <c r="H74" s="58"/>
@@ -5670,7 +6264,7 @@
         <v>ðʔ</v>
       </c>
     </row>
-    <row r="75" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:30">
       <c r="F75" s="57"/>
       <c r="G75" s="58"/>
       <c r="H75" s="58"/>
@@ -5762,7 +6356,7 @@
         <v>ʍʔ</v>
       </c>
     </row>
-    <row r="76" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:30">
       <c r="F76" s="34" t="s">
         <v>139</v>
       </c>
@@ -5856,7 +6450,7 @@
         <v>tʔ</v>
       </c>
     </row>
-    <row r="77" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:30">
       <c r="F77" s="57"/>
       <c r="G77" s="58"/>
       <c r="H77" s="97"/>
@@ -5948,7 +6542,7 @@
         <v>bʔ</v>
       </c>
     </row>
-    <row r="78" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:30">
       <c r="F78" s="57"/>
       <c r="I78" s="69" t="s">
         <v>119</v>
@@ -6038,12 +6632,12 @@
         <v>Ћʔ</v>
       </c>
     </row>
-    <row r="79" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:30">
       <c r="F79" s="59"/>
       <c r="G79" s="58"/>
       <c r="H79" s="58"/>
       <c r="I79" s="68" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J79" s="88" t="str">
         <f t="shared" si="5"/>
@@ -6130,9 +6724,9 @@
         <v>ƿʔ</v>
       </c>
     </row>
-    <row r="80" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:30">
       <c r="F80" s="32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -6224,12 +6818,12 @@
         <v>ʔʔ</v>
       </c>
     </row>
-    <row r="81" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:32">
       <c r="H81" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="6:32" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="6:32">
       <c r="F82" s="58"/>
       <c r="G82" s="58"/>
       <c r="H82" s="58"/>
@@ -6257,7 +6851,7 @@
       <c r="AE82" s="58"/>
       <c r="AF82" s="58"/>
     </row>
-    <row r="83" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:32">
       <c r="F83" s="58"/>
       <c r="G83" s="58"/>
       <c r="H83" s="58"/>
@@ -6285,7 +6879,7 @@
       <c r="AE83" s="58"/>
       <c r="AF83" s="58"/>
     </row>
-    <row r="90" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:32">
       <c r="F90" s="125"/>
       <c r="G90" s="125"/>
       <c r="H90" s="125"/>
@@ -6314,7 +6908,7 @@
       <c r="AE90" s="125"/>
       <c r="AF90" s="125"/>
     </row>
-    <row r="91" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:32">
       <c r="F91" s="125"/>
       <c r="G91" s="125"/>
       <c r="H91" s="125"/>
@@ -6343,7 +6937,7 @@
       <c r="AE91" s="126"/>
       <c r="AF91" s="126"/>
     </row>
-    <row r="92" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:32">
       <c r="F92" s="125"/>
       <c r="G92" s="125"/>
       <c r="H92" s="125"/>
@@ -6372,7 +6966,7 @@
       <c r="AE92" s="126"/>
       <c r="AF92" s="126"/>
     </row>
-    <row r="93" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:32">
       <c r="F93" s="125"/>
       <c r="G93" s="125"/>
       <c r="H93" s="125"/>
@@ -6401,7 +6995,7 @@
       <c r="AE93" s="126"/>
       <c r="AF93" s="126"/>
     </row>
-    <row r="94" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:32">
       <c r="F94" s="125"/>
       <c r="G94" s="125"/>
       <c r="H94" s="125"/>
@@ -6430,7 +7024,7 @@
       <c r="AE94" s="126"/>
       <c r="AF94" s="126"/>
     </row>
-    <row r="95" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:32">
       <c r="F95" s="125"/>
       <c r="G95" s="125"/>
       <c r="H95" s="125"/>
@@ -6459,7 +7053,7 @@
       <c r="AE95" s="126"/>
       <c r="AF95" s="126"/>
     </row>
-    <row r="96" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:32">
       <c r="F96" s="125"/>
       <c r="G96" s="125"/>
       <c r="H96" s="125"/>
@@ -6488,7 +7082,7 @@
       <c r="AE96" s="126"/>
       <c r="AF96" s="126"/>
     </row>
-    <row r="97" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:32">
       <c r="F97" s="125"/>
       <c r="G97" s="125"/>
       <c r="H97" s="125"/>
@@ -6517,7 +7111,7 @@
       <c r="AE97" s="126"/>
       <c r="AF97" s="126"/>
     </row>
-    <row r="98" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:32">
       <c r="F98" s="125"/>
       <c r="G98" s="125"/>
       <c r="H98" s="125"/>
@@ -6546,7 +7140,7 @@
       <c r="AE98" s="126"/>
       <c r="AF98" s="126"/>
     </row>
-    <row r="99" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:32">
       <c r="F99" s="125"/>
       <c r="G99" s="125"/>
       <c r="H99" s="125"/>
@@ -6575,7 +7169,7 @@
       <c r="AE99" s="126"/>
       <c r="AF99" s="126"/>
     </row>
-    <row r="100" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:32">
       <c r="F100" s="125"/>
       <c r="G100" s="125"/>
       <c r="H100" s="125"/>
@@ -6604,7 +7198,7 @@
       <c r="AE100" s="126"/>
       <c r="AF100" s="126"/>
     </row>
-    <row r="101" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:32">
       <c r="F101" s="125"/>
       <c r="G101" s="125"/>
       <c r="H101" s="125"/>
@@ -6633,7 +7227,7 @@
       <c r="AE101" s="126"/>
       <c r="AF101" s="126"/>
     </row>
-    <row r="102" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:32">
       <c r="F102" s="125"/>
       <c r="G102" s="125"/>
       <c r="H102" s="125"/>
@@ -6662,7 +7256,7 @@
       <c r="AE102" s="126"/>
       <c r="AF102" s="126"/>
     </row>
-    <row r="103" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:32">
       <c r="F103" s="125"/>
       <c r="G103" s="125"/>
       <c r="H103" s="125"/>
@@ -6691,7 +7285,7 @@
       <c r="AE103" s="126"/>
       <c r="AF103" s="126"/>
     </row>
-    <row r="104" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:32">
       <c r="F104" s="125"/>
       <c r="G104" s="125"/>
       <c r="H104" s="125"/>
@@ -6720,7 +7314,7 @@
       <c r="AE104" s="126"/>
       <c r="AF104" s="126"/>
     </row>
-    <row r="105" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:32">
       <c r="F105" s="125"/>
       <c r="G105" s="125"/>
       <c r="H105" s="125"/>
@@ -6749,7 +7343,7 @@
       <c r="AE105" s="126"/>
       <c r="AF105" s="126"/>
     </row>
-    <row r="106" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:32">
       <c r="F106" s="125"/>
       <c r="G106" s="125"/>
       <c r="H106" s="125"/>
@@ -6778,7 +7372,7 @@
       <c r="AE106" s="126"/>
       <c r="AF106" s="126"/>
     </row>
-    <row r="107" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:32">
       <c r="F107" s="125"/>
       <c r="G107" s="125"/>
       <c r="H107" s="125"/>
@@ -6807,7 +7401,7 @@
       <c r="AE107" s="126"/>
       <c r="AF107" s="126"/>
     </row>
-    <row r="108" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:32">
       <c r="F108" s="125"/>
       <c r="G108" s="125"/>
       <c r="H108" s="125"/>
@@ -6836,7 +7430,7 @@
       <c r="AE108" s="126"/>
       <c r="AF108" s="126"/>
     </row>
-    <row r="109" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:32">
       <c r="F109" s="125"/>
       <c r="G109" s="125"/>
       <c r="H109" s="125"/>
@@ -6865,7 +7459,7 @@
       <c r="AE109" s="126"/>
       <c r="AF109" s="126"/>
     </row>
-    <row r="110" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:32">
       <c r="F110" s="125"/>
       <c r="G110" s="125"/>
       <c r="H110" s="125"/>
@@ -6894,7 +7488,7 @@
       <c r="AE110" s="126"/>
       <c r="AF110" s="126"/>
     </row>
-    <row r="111" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:32">
       <c r="F111" s="125"/>
       <c r="G111" s="125"/>
       <c r="H111" s="125"/>
@@ -6923,7 +7517,7 @@
       <c r="AE111" s="126"/>
       <c r="AF111" s="126"/>
     </row>
-    <row r="112" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:32">
       <c r="F112" s="125"/>
       <c r="G112" s="125"/>
       <c r="H112" s="125"/>
@@ -6952,7 +7546,7 @@
       <c r="AE112" s="126"/>
       <c r="AF112" s="126"/>
     </row>
-    <row r="113" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:32">
       <c r="F113" s="125"/>
       <c r="G113" s="125"/>
       <c r="H113" s="125"/>
@@ -6981,7 +7575,7 @@
       <c r="AE113" s="126"/>
       <c r="AF113" s="126"/>
     </row>
-    <row r="126" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:32">
       <c r="K126" s="70" t="s">
         <v>197</v>
       </c>
@@ -7019,7 +7613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:32">
       <c r="J127" s="98" t="s">
         <v>197</v>
       </c>
@@ -7072,7 +7666,7 @@
         <v>im</v>
       </c>
     </row>
-    <row r="128" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:32">
       <c r="J128" s="66" t="s">
         <v>198</v>
       </c>
@@ -7125,7 +7719,7 @@
         <v>em</v>
       </c>
     </row>
-    <row r="129" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:22">
       <c r="J129" s="69" t="s">
         <v>200</v>
       </c>
@@ -7178,7 +7772,7 @@
         <v>ym</v>
       </c>
     </row>
-    <row r="130" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:22">
       <c r="J130" s="68" t="s">
         <v>194</v>
       </c>
@@ -7231,7 +7825,7 @@
         <v>øm</v>
       </c>
     </row>
-    <row r="131" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:22">
       <c r="J131" s="64" t="s">
         <v>199</v>
       </c>
@@ -7284,7 +7878,7 @@
         <v>ɑm</v>
       </c>
     </row>
-    <row r="132" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:22">
       <c r="J132" s="65" t="s">
         <v>50</v>
       </c>
@@ -7337,7 +7931,7 @@
         <v>ɛm</v>
       </c>
     </row>
-    <row r="133" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:22">
       <c r="J133" s="66" t="s">
         <v>59</v>
       </c>
@@ -7390,7 +7984,7 @@
         <v>am</v>
       </c>
     </row>
-    <row r="134" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:22">
       <c r="J134" s="69" t="s">
         <v>57</v>
       </c>
@@ -7443,7 +8037,7 @@
         <v>ɔm</v>
       </c>
     </row>
-    <row r="135" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:22">
       <c r="J135" s="69" t="s">
         <v>196</v>
       </c>
@@ -7496,7 +8090,7 @@
         <v>ʉm</v>
       </c>
     </row>
-    <row r="136" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:22">
       <c r="J136" s="68" t="s">
         <v>195</v>
       </c>
@@ -7549,7 +8143,7 @@
         <v>um</v>
       </c>
     </row>
-    <row r="137" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:22">
       <c r="J137" s="118" t="s">
         <v>7</v>
       </c>
@@ -7602,7 +8196,7 @@
         <v>nm</v>
       </c>
     </row>
-    <row r="138" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:22">
       <c r="J138" s="119" t="s">
         <v>6</v>
       </c>
@@ -7662,115 +8256,308 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:T96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="D5:AD96"/>
   <sheetViews>
-    <sheetView topLeftCell="C57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:30">
       <c r="D5" t="s">
         <v>159</v>
       </c>
       <c r="F5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J5" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="R5" t="s">
+        <v>316</v>
+      </c>
+      <c r="T5" t="s">
+        <v>520</v>
+      </c>
+      <c r="V5" t="s">
+        <v>295</v>
+      </c>
+      <c r="X5" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>529</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>533</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="4:30">
       <c r="D6" t="s">
         <v>160</v>
       </c>
       <c r="F6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J6" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R6" t="s">
+        <v>522</v>
+      </c>
+      <c r="T6" t="s">
+        <v>218</v>
+      </c>
+      <c r="V6" t="s">
+        <v>523</v>
+      </c>
+      <c r="X6" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>550</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="4:30">
       <c r="D7" t="s">
         <v>161</v>
       </c>
       <c r="F7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J7" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" t="s">
+        <v>476</v>
+      </c>
+      <c r="R7" t="s">
+        <v>525</v>
+      </c>
+      <c r="T7" t="s">
+        <v>526</v>
+      </c>
+      <c r="V7" t="s">
+        <v>524</v>
+      </c>
+      <c r="X7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>551</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="4:30">
       <c r="D8" t="s">
         <v>162</v>
       </c>
       <c r="F8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J8" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" t="s">
+        <v>479</v>
+      </c>
+      <c r="R8" t="s">
+        <v>484</v>
+      </c>
+      <c r="T8" t="s">
+        <v>484</v>
+      </c>
+      <c r="V8" t="s">
+        <v>528</v>
+      </c>
+      <c r="X8" t="s">
+        <v>527</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>552</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="4:30">
       <c r="D9" t="s">
         <v>163</v>
       </c>
       <c r="F9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J9" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="R9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="4:30">
       <c r="D10" t="s">
         <v>169</v>
       </c>
       <c r="F10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="4:30">
       <c r="D11" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="4:30">
       <c r="D12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="4:30">
       <c r="D13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>302</v>
-      </c>
-      <c r="F19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:30">
+      <c r="J15" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="N15" s="153" t="s">
+        <v>535</v>
+      </c>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="4:30">
+      <c r="J16" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="N16" s="153" t="s">
+        <v>536</v>
+      </c>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19">
+      <c r="J17" s="27" t="s">
+        <v>534</v>
+      </c>
+      <c r="N17" s="153" t="s">
+        <v>537</v>
+      </c>
+      <c r="O17" s="153"/>
+      <c r="P17" s="153" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19">
+      <c r="J18" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="N18" s="153" t="s">
+        <v>538</v>
+      </c>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19">
+      <c r="J19" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="N19" s="153" t="s">
+        <v>539</v>
+      </c>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+    </row>
+    <row r="20" spans="4:19">
+      <c r="N20" s="153" t="s">
+        <v>540</v>
+      </c>
+      <c r="O20" s="153"/>
+      <c r="P20" s="153"/>
+    </row>
+    <row r="21" spans="4:19">
+      <c r="N21" s="153" t="s">
+        <v>541</v>
+      </c>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+    </row>
+    <row r="22" spans="4:19">
+      <c r="N22" s="153" t="s">
+        <v>542</v>
+      </c>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+    </row>
+    <row r="23" spans="4:19">
+      <c r="N23" s="153" t="s">
+        <v>543</v>
+      </c>
+      <c r="O23" s="153"/>
+      <c r="P23" s="153"/>
+    </row>
+    <row r="26" spans="4:19">
       <c r="D26" s="27"/>
       <c r="F26" s="27"/>
       <c r="J26" s="97"/>
@@ -7790,12 +8577,9 @@
       <c r="R26" s="102"/>
       <c r="S26" s="102"/>
     </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:19">
       <c r="D27" t="s">
         <v>147</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>237</v>
       </c>
       <c r="J27" s="97"/>
       <c r="K27" s="40" t="s">
@@ -7814,12 +8598,9 @@
       <c r="R27" s="40"/>
       <c r="S27" s="40"/>
     </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:19">
       <c r="D28" t="s">
         <v>149</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>235</v>
       </c>
       <c r="J28" s="97"/>
       <c r="K28" s="40" t="s">
@@ -7838,12 +8619,9 @@
       <c r="R28" s="40"/>
       <c r="S28" s="40"/>
     </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:19">
       <c r="D29" t="s">
         <v>150</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>236</v>
       </c>
       <c r="J29" s="97"/>
       <c r="K29" s="40" t="s">
@@ -7857,17 +8635,14 @@
       <c r="O29" s="40"/>
       <c r="P29" s="33"/>
       <c r="Q29" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
     </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:19">
       <c r="D30" t="s">
         <v>176</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>238</v>
       </c>
       <c r="J30" s="97"/>
       <c r="K30" s="40" t="s">
@@ -7881,17 +8656,14 @@
       <c r="O30" s="40"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="40" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="R30" s="40"/>
       <c r="S30" s="40"/>
     </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:19">
       <c r="D31" t="s">
         <v>148</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>239</v>
       </c>
       <c r="J31" s="97"/>
       <c r="K31" s="40" t="s">
@@ -7905,17 +8677,14 @@
       <c r="O31" s="40"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="R31" s="40"/>
       <c r="S31" s="40"/>
     </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:19">
       <c r="D32" t="s">
         <v>177</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>246</v>
       </c>
       <c r="J32" s="97"/>
       <c r="K32" s="40" t="s">
@@ -7929,12 +8698,12 @@
       <c r="O32" s="40"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R32" s="40"/>
       <c r="S32" s="40"/>
     </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:26">
       <c r="D33" t="s">
         <v>178</v>
       </c>
@@ -7950,12 +8719,12 @@
       <c r="O33" s="40"/>
       <c r="P33" s="33"/>
       <c r="Q33" s="40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="R33" s="40"/>
       <c r="S33" s="40"/>
     </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:26">
       <c r="D34" t="s">
         <v>179</v>
       </c>
@@ -7974,7 +8743,7 @@
       <c r="R34" s="40"/>
       <c r="S34" s="40"/>
     </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:26">
       <c r="D35" t="s">
         <v>151</v>
       </c>
@@ -7990,38 +8759,38 @@
       <c r="O35" s="41"/>
       <c r="P35" s="35"/>
       <c r="Q35" s="41" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="R35" s="41"/>
       <c r="S35" s="41"/>
     </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:26">
       <c r="D40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="4:19" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26">
       <c r="D41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E41" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="4:19" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26">
       <c r="D42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="47" spans="4:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" ht="30" customHeight="1">
       <c r="D47" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -8029,48 +8798,76 @@
         <v>182</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="Q47" s="28"/>
       <c r="R47" s="28"/>
       <c r="S47" s="28"/>
-    </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="X47" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+    </row>
+    <row r="50" spans="4:26">
+      <c r="I50" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="4:26">
       <c r="D51" s="26" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J51" s="26"/>
       <c r="K51" s="26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="52" spans="4:20" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="X51" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z51" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="4:26">
       <c r="K52" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="P52" s="27"/>
       <c r="R52" s="26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="4:26">
       <c r="D53" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
+        <v>303</v>
+      </c>
+      <c r="I53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
+        <v>405</v>
+      </c>
+      <c r="M53" t="s">
+        <v>434</v>
       </c>
       <c r="P53" t="s">
         <v>147</v>
@@ -8079,60 +8876,90 @@
         <v>155</v>
       </c>
       <c r="T53" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="4:20" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="4:26">
       <c r="D54" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>304</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="K54" t="s">
+        <v>447</v>
+      </c>
+      <c r="M54" t="s">
+        <v>449</v>
       </c>
       <c r="P54" t="s">
         <v>149</v>
       </c>
       <c r="R54" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="T54" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="55" spans="4:26">
       <c r="D55" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F55" t="s">
-        <v>312</v>
+        <v>305</v>
+      </c>
+      <c r="I55" t="s">
+        <v>453</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="M55" t="s">
+        <v>452</v>
       </c>
       <c r="P55" t="s">
         <v>150</v>
       </c>
       <c r="R55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56" spans="4:26">
       <c r="D56" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F56" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P56" t="s">
         <v>176</v>
       </c>
       <c r="R56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="4:26">
       <c r="D57" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F57" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P57" t="s">
         <v>148</v>
@@ -8140,30 +8967,42 @@
       <c r="R57" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="T57" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58" spans="4:26">
       <c r="D58" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F58" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P58" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="4:26">
       <c r="D59" t="s">
         <v>220</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P59" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="60" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z59" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="60" spans="4:26">
       <c r="D60" t="s">
         <v>157</v>
       </c>
@@ -8173,13 +9012,16 @@
       <c r="P60" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61" spans="4:26">
       <c r="D61" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="F61" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="P61" t="s">
         <v>151</v>
@@ -8187,46 +9029,49 @@
       <c r="R61" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="62" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62" spans="4:26">
       <c r="D62" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F62" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="63" spans="4:20" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="4:26">
       <c r="D63" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F63" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="64" spans="4:20" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="4:26">
       <c r="D64" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F64" t="s">
-        <v>405</v>
-      </c>
-      <c r="I64" t="s">
-        <v>402</v>
-      </c>
-      <c r="K64" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="R64" s="26" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z64" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65" spans="4:26">
       <c r="D65" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F65" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P65" t="s">
         <v>147</v>
@@ -8237,13 +9082,16 @@
       <c r="T65" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z65" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66" spans="4:26">
       <c r="D66" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F66" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="P66" t="s">
         <v>149</v>
@@ -8254,13 +9102,16 @@
       <c r="T66" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="67" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z66" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="4:26" ht="15" customHeight="1">
       <c r="D67" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F67" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="P67" t="s">
         <v>150</v>
@@ -8268,77 +9119,124 @@
       <c r="R67" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="68" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z67" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="4:26">
       <c r="F68" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P68" t="s">
         <v>176</v>
       </c>
       <c r="R68" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="T68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="4:20" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="69" spans="4:26">
       <c r="D69" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F69" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="P69" t="s">
         <v>148</v>
       </c>
       <c r="R69" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="T69" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="70" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F70" t="s">
-        <v>414</v>
-      </c>
+      <c r="Z69" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="70" spans="4:26">
       <c r="P70" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="71" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71" spans="4:26">
       <c r="D71" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F71" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P71" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z71" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="72" spans="4:26">
       <c r="D72" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F72" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="P72" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="Z72" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="73" spans="4:26">
       <c r="P73" t="s">
         <v>151</v>
       </c>
       <c r="R73" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="4:26">
+      <c r="D75" t="s">
+        <v>426</v>
+      </c>
+      <c r="F75" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="76" spans="4:26">
+      <c r="D76" t="s">
+        <v>428</v>
+      </c>
+      <c r="F76" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="4:26">
+      <c r="D77" t="s">
+        <v>432</v>
+      </c>
+      <c r="F77" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78" spans="4:26">
+      <c r="D78" t="s">
+        <v>446</v>
+      </c>
+      <c r="F78" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6">
       <c r="F96" s="26"/>
     </row>
   </sheetData>
@@ -8348,108 +9246,124 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:AP49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="D6:AP63"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:42">
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="4:42" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="4:42">
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="4:42" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="4:42">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="4:42">
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="4:42">
       <c r="X11" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12" spans="4:42" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="4:42">
       <c r="X12" s="58"/>
     </row>
-    <row r="13" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:42">
       <c r="G13" s="95" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H13" s="96"/>
       <c r="I13" s="95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J13" s="96"/>
       <c r="K13" s="95" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L13" s="96"/>
       <c r="M13" s="95" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="N13" s="96"/>
       <c r="O13" s="95" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P13" s="96"/>
       <c r="Q13" s="95" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="R13" s="96"/>
       <c r="W13" s="58"/>
       <c r="X13" s="109"/>
       <c r="Y13" s="95" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Z13" s="108"/>
       <c r="AA13" s="96"/>
       <c r="AB13" s="95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AC13" s="108"/>
       <c r="AD13" s="96"/>
       <c r="AE13" s="95" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AF13" s="108"/>
       <c r="AG13" s="96"/>
       <c r="AH13" s="95" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AI13" s="108"/>
       <c r="AJ13" s="96"/>
       <c r="AK13" s="95" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AL13" s="108"/>
       <c r="AM13" s="96"/>
       <c r="AN13" s="95" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AO13" s="108"/>
       <c r="AP13" s="96"/>
     </row>
-    <row r="14" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:42">
       <c r="E14" s="70" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F14" s="56"/>
       <c r="G14" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="32" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="32" t="s">
@@ -8461,7 +9375,7 @@
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="107" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P14" s="33"/>
       <c r="Q14" s="32" t="s">
@@ -8469,10 +9383,10 @@
       </c>
       <c r="R14" s="33"/>
       <c r="X14" s="106" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Y14" s="106" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
@@ -8492,17 +9406,17 @@
       <c r="AO14" s="35"/>
       <c r="AP14" s="35"/>
     </row>
-    <row r="15" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:42">
       <c r="E15" s="70" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="40" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="32" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="32" t="s">
@@ -8514,7 +9428,7 @@
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="107" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P15" s="33"/>
       <c r="Q15" s="40" t="s">
@@ -8522,7 +9436,7 @@
       </c>
       <c r="R15" s="33"/>
       <c r="X15" s="104" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="Y15" s="104"/>
       <c r="Z15" s="97"/>
@@ -8543,17 +9457,17 @@
       <c r="AO15" s="33"/>
       <c r="AP15" s="33"/>
     </row>
-    <row r="16" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:42">
       <c r="E16" s="70" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="32" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="32" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="32" t="s">
@@ -8565,15 +9479,15 @@
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="107" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="P16" s="33"/>
       <c r="Q16" s="40" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="R16" s="33"/>
       <c r="X16" s="106" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="Y16" s="106"/>
       <c r="Z16" s="33"/>
@@ -8594,9 +9508,9 @@
       <c r="AO16" s="97"/>
       <c r="AP16" s="97"/>
     </row>
-    <row r="17" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:42">
       <c r="E17" s="110" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F17" s="99"/>
       <c r="G17" s="59"/>
@@ -8612,10 +9526,10 @@
       <c r="Q17" s="54"/>
       <c r="R17" s="74"/>
       <c r="X17" s="104" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="Y17" s="104" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="Z17" s="97"/>
       <c r="AA17" s="97"/>
@@ -8635,9 +9549,9 @@
       <c r="AO17" s="33"/>
       <c r="AP17" s="33"/>
     </row>
-    <row r="18" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:42">
       <c r="X18" s="106" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Y18" s="106"/>
       <c r="Z18" s="33"/>
@@ -8658,9 +9572,9 @@
       <c r="AO18" s="33"/>
       <c r="AP18" s="33"/>
     </row>
-    <row r="19" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:42">
       <c r="X19" s="105" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Y19" s="105"/>
       <c r="Z19" s="74"/>
@@ -8681,41 +9595,41 @@
       <c r="AO19" s="74"/>
       <c r="AP19" s="74"/>
     </row>
-    <row r="20" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:42">
       <c r="F20" s="94" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G20" s="95" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H20" s="96"/>
       <c r="I20" s="95" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J20" s="96"/>
       <c r="K20" s="95" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L20" s="96"/>
       <c r="M20" s="95" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="N20" s="96"/>
       <c r="O20" s="95" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P20" s="96"/>
       <c r="Q20" s="95" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="R20" s="96"/>
     </row>
-    <row r="21" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:42">
       <c r="F21" s="106" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
@@ -8729,9 +9643,9 @@
       <c r="Q21" s="41"/>
       <c r="R21" s="35"/>
     </row>
-    <row r="22" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:42">
       <c r="F22" s="104" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G22" s="58"/>
       <c r="H22" s="97"/>
@@ -8746,9 +9660,9 @@
       <c r="Q22" s="40"/>
       <c r="R22" s="33"/>
     </row>
-    <row r="23" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:42">
       <c r="F23" s="106" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="33"/>
@@ -8763,12 +9677,12 @@
       <c r="Q23" s="58"/>
       <c r="R23" s="97"/>
     </row>
-    <row r="24" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:42">
       <c r="F24" s="104" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H24" s="97"/>
       <c r="I24" s="32"/>
@@ -8782,9 +9696,9 @@
       <c r="Q24" s="40"/>
       <c r="R24" s="33"/>
     </row>
-    <row r="25" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:42">
       <c r="F25" s="106" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="33"/>
@@ -8799,9 +9713,9 @@
       <c r="Q25" s="40"/>
       <c r="R25" s="33"/>
     </row>
-    <row r="26" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:42">
       <c r="F26" s="105" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G26" s="54"/>
       <c r="H26" s="74"/>
@@ -8816,94 +9730,117 @@
       <c r="Q26" s="54"/>
       <c r="R26" s="74"/>
     </row>
-    <row r="32" spans="5:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="1" t="s">
+    <row r="45" spans="6:14" ht="30" customHeight="1">
+      <c r="F45" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="48" spans="6:14">
+      <c r="F48" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="N48" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="49" spans="6:15">
+      <c r="F49" t="s">
+        <v>410</v>
+      </c>
+      <c r="H49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="6:15">
+      <c r="H50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="6:15">
+      <c r="N51" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="O51" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52" spans="6:15">
+      <c r="F52" t="s">
+        <v>356</v>
+      </c>
+      <c r="H52" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="53" spans="6:15">
+      <c r="H53" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="6:15">
+      <c r="H54" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>419</v>
-      </c>
-      <c r="H35" t="s">
+    <row r="55" spans="6:15">
+      <c r="H55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="6:15">
+      <c r="H56" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="6:15">
+      <c r="H57" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
+    <row r="58" spans="6:15">
+      <c r="H58" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>363</v>
-      </c>
-      <c r="H38" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H39" t="s">
+    <row r="59" spans="6:15">
+      <c r="H59" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="6:15">
+      <c r="H60" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
+    <row r="61" spans="6:15">
+      <c r="F61" t="s">
+        <v>370</v>
+      </c>
+      <c r="H61" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="6:15">
+      <c r="H62" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H43" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>377</v>
-      </c>
-      <c r="H47" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>422</v>
-      </c>
-      <c r="H49" t="s">
-        <v>420</v>
-      </c>
-      <c r="J49" t="s">
-        <v>421</v>
+    <row r="63" spans="6:15">
+      <c r="F63" t="s">
+        <v>413</v>
+      </c>
+      <c r="H63" t="s">
+        <v>411</v>
+      </c>
+      <c r="J63" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8913,96 +9850,110 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:R32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B5:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:20">
       <c r="D5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="4:20">
       <c r="D6" s="93" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="4:20">
       <c r="G16" t="s">
+        <v>267</v>
+      </c>
+      <c r="I16" t="s">
+        <v>268</v>
+      </c>
+      <c r="M16" t="s">
+        <v>270</v>
+      </c>
+      <c r="O16" t="s">
         <v>271</v>
       </c>
-      <c r="I16" t="s">
+      <c r="Q16" t="s">
         <v>272</v>
       </c>
-      <c r="K16" t="s">
-        <v>274</v>
-      </c>
-      <c r="M16" t="s">
-        <v>275</v>
-      </c>
-      <c r="O16" t="s">
-        <v>276</v>
-      </c>
-      <c r="R16" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20">
       <c r="G17" s="38" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="38" t="s">
-        <v>259</v>
+        <v>506</v>
       </c>
       <c r="J17" s="39"/>
       <c r="K17" s="38" t="s">
-        <v>258</v>
+        <v>505</v>
       </c>
       <c r="L17" s="39"/>
       <c r="M17" s="38" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="N17" s="39"/>
       <c r="O17" s="38" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P17" s="39"/>
-      <c r="R17" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="R17" s="39"/>
+      <c r="T17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="15.75" thickBot="1">
       <c r="F18" s="74"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="34" t="s">
+        <v>438</v>
+      </c>
       <c r="H18" s="35"/>
-      <c r="I18" s="41"/>
+      <c r="I18" s="41" t="s">
+        <v>437</v>
+      </c>
       <c r="J18" s="35"/>
-      <c r="K18" s="41"/>
+      <c r="K18" s="41" t="s">
+        <v>507</v>
+      </c>
       <c r="L18" s="35"/>
       <c r="M18" s="41" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
       <c r="N18" s="35"/>
       <c r="O18" s="41" t="s">
-        <v>425</v>
+        <v>294</v>
       </c>
       <c r="P18" s="35"/>
-      <c r="R18" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="R18" s="35"/>
+      <c r="T18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20">
       <c r="B19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E19" s="91"/>
       <c r="F19" s="48"/>
@@ -9013,19 +9964,21 @@
       <c r="K19" s="44"/>
       <c r="L19" s="43"/>
       <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="46"/>
-      <c r="R19" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="46"/>
+      <c r="T19" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20">
       <c r="B20" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="48"/>
@@ -9036,16 +9989,18 @@
       <c r="K20" s="40"/>
       <c r="L20" s="33"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="48"/>
-      <c r="R20" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N20" s="33"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="48"/>
+      <c r="T20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20">
       <c r="D21" s="36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="48"/>
@@ -9056,13 +10011,15 @@
       <c r="K21" s="40"/>
       <c r="L21" s="33"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="48"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N21" s="33"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="48"/>
+    </row>
+    <row r="22" spans="2:20">
       <c r="D22" s="36" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="48"/>
@@ -9073,13 +10030,15 @@
       <c r="K22" s="40"/>
       <c r="L22" s="33"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="48"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N22" s="33"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="48"/>
+    </row>
+    <row r="23" spans="2:20">
       <c r="D23" s="36" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="48"/>
@@ -9090,13 +10049,15 @@
       <c r="K23" s="40"/>
       <c r="L23" s="33"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="48"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N23" s="33"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="48"/>
+    </row>
+    <row r="24" spans="2:20">
       <c r="D24" s="36" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="48"/>
@@ -9107,13 +10068,15 @@
       <c r="K24" s="40"/>
       <c r="L24" s="33"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="48"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N24" s="33"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="48"/>
+    </row>
+    <row r="25" spans="2:20">
       <c r="D25" s="36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E25" s="91"/>
       <c r="F25" s="48"/>
@@ -9124,13 +10087,15 @@
       <c r="K25" s="40"/>
       <c r="L25" s="33"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="48"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N25" s="33"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="48"/>
+    </row>
+    <row r="26" spans="2:20">
       <c r="D26" s="36" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E26" s="91"/>
       <c r="F26" s="48"/>
@@ -9141,13 +10106,15 @@
       <c r="K26" s="40"/>
       <c r="L26" s="33"/>
       <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="48"/>
-    </row>
-    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="33"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="48"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1">
       <c r="D27" s="37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E27" s="92"/>
       <c r="F27" s="90"/>
@@ -9158,23 +10125,25 @@
       <c r="K27" s="51"/>
       <c r="L27" s="50"/>
       <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="53"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="N27" s="50"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="53"/>
+    </row>
+    <row r="31" spans="2:20">
       <c r="D31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
       <c r="D32" s="100" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
@@ -9182,26 +10151,73 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="D12:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="12" spans="4:14" ht="30" customHeight="1">
+      <c r="D12" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="N12" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14">
+      <c r="N15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14">
+      <c r="N16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15">
+      <c r="N17" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15">
+      <c r="D19" t="s">
+        <v>482</v>
+      </c>
+      <c r="F19" t="s">
+        <v>481</v>
+      </c>
+      <c r="H19" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15">
+      <c r="N20" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="O20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aia/Lang/Derotic/Drotic.xlsx
+++ b/Aia/Lang/Derotic/Drotic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4126A2-2A1C-4254-AA8C-9C5CC0DCACAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1F28ED-E68F-4D2F-BACF-4D4C5839FD1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="943" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,14 +12,15 @@
     <sheet name="Sounds" sheetId="7" r:id="rId2"/>
     <sheet name="Phonotactics" sheetId="9" r:id="rId3"/>
     <sheet name="Orthography" sheetId="11" r:id="rId4"/>
-    <sheet name="Nouns" sheetId="1" r:id="rId5"/>
-    <sheet name="Verbs" sheetId="2" r:id="rId6"/>
-    <sheet name="Correlative" sheetId="10" r:id="rId7"/>
-    <sheet name="Adjectives" sheetId="3" r:id="rId8"/>
-    <sheet name="Adverbs" sheetId="4" r:id="rId9"/>
-    <sheet name="Pronouns" sheetId="5" r:id="rId10"/>
-    <sheet name="Adpositions" sheetId="6" r:id="rId11"/>
-    <sheet name="Conjunction" sheetId="13" r:id="rId12"/>
+    <sheet name="Grammar" sheetId="14" r:id="rId5"/>
+    <sheet name="Nouns" sheetId="1" r:id="rId6"/>
+    <sheet name="Verbs" sheetId="2" r:id="rId7"/>
+    <sheet name="Correlative" sheetId="10" r:id="rId8"/>
+    <sheet name="Adjectives" sheetId="3" r:id="rId9"/>
+    <sheet name="Adverbs" sheetId="4" r:id="rId10"/>
+    <sheet name="Pronouns" sheetId="5" r:id="rId11"/>
+    <sheet name="Adpositions" sheetId="6" r:id="rId12"/>
+    <sheet name="Conjunction" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="558">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -1884,6 +1885,9 @@
   </si>
   <si>
     <t>mood</t>
+  </si>
+  <si>
+    <t>Drotic has some ergative for ɛt nouns</t>
   </si>
 </sst>
 </file>
@@ -2780,31 +2784,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2825,11 +2810,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -3159,6 +3163,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="D6:N13"/>
   <sheetViews>
@@ -3261,7 +3279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="E21:G26"/>
   <sheetViews>
@@ -3308,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67A9300-1361-43C6-92B6-4C4F1F38BA30}">
   <dimension ref="E20:G31"/>
   <sheetViews>
@@ -3425,66 +3443,66 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="136" t="s">
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="137"/>
-      <c r="T3" s="136" t="s">
+      <c r="S3" s="150"/>
+      <c r="T3" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="137"/>
+      <c r="U3" s="150"/>
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="7:22" ht="30.75" thickBot="1">
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="142" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="142" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="147" t="s">
+      <c r="L4" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="140" t="s">
+      <c r="N4" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="141"/>
-      <c r="P4" s="140" t="s">
+      <c r="O4" s="139"/>
+      <c r="P4" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="152"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="152"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="7:22" ht="30.75" thickBot="1">
-      <c r="G5" s="148"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="148"/>
+      <c r="I5" s="143"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -3512,10 +3530,10 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="141"/>
+      <c r="H6" s="139"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3551,7 +3569,7 @@
       </c>
     </row>
     <row r="7" spans="7:22" ht="30.75" thickBot="1">
-      <c r="G7" s="147" t="s">
+      <c r="G7" s="142" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -3568,19 +3586,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="142" t="s">
+      <c r="O7" s="146" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="142" t="s">
+      <c r="Q7" s="146" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="142" t="s">
+      <c r="S7" s="146" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -3590,28 +3608,28 @@
       </c>
     </row>
     <row r="8" spans="7:22" ht="30.75" thickBot="1">
-      <c r="G8" s="148"/>
+      <c r="G8" s="143"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="149" t="s">
+      <c r="I8" s="144" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="149" t="s">
+      <c r="K8" s="144" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
       <c r="N8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="143"/>
+      <c r="O8" s="148"/>
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="143"/>
+      <c r="Q8" s="148"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="143"/>
+      <c r="S8" s="148"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
         <v>57</v>
@@ -3619,25 +3637,25 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="149" t="s">
+      <c r="H9" s="139"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="142" t="s">
+      <c r="K9" s="145"/>
+      <c r="L9" s="146" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="145"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="146"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="141"/>
       <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
@@ -3648,19 +3666,19 @@
       </c>
     </row>
     <row r="10" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G10" s="147" t="s">
+      <c r="G10" s="142" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="150"/>
+      <c r="J10" s="145"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="151"/>
+      <c r="L10" s="147"/>
     </row>
     <row r="11" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G11" s="148"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3671,26 +3689,26 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="151"/>
+      <c r="L11" s="147"/>
     </row>
     <row r="12" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="141"/>
+      <c r="H12" s="139"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="143"/>
+      <c r="L12" s="148"/>
       <c r="O12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G13" s="140" t="s">
+      <c r="G13" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="141"/>
+      <c r="H13" s="139"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
@@ -4396,7 +4414,7 @@
       </c>
     </row>
     <row r="70" spans="5:21">
-      <c r="G70" s="152" t="s">
+      <c r="G70" s="136" t="s">
         <v>430</v>
       </c>
       <c r="H70" t="s">
@@ -4475,6 +4493,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -4491,14 +4517,6 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -8268,10 +8286,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28B22DC-A96D-43C5-AAC2-EE0AB37489AE}">
+  <dimension ref="E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D5:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
@@ -8475,11 +8513,11 @@
       <c r="J15" s="27" t="s">
         <v>549</v>
       </c>
-      <c r="N15" s="153" t="s">
+      <c r="N15" s="137" t="s">
         <v>535</v>
       </c>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153" t="s">
+      <c r="O15" s="137"/>
+      <c r="P15" s="137" t="s">
         <v>544</v>
       </c>
     </row>
@@ -8487,11 +8525,11 @@
       <c r="J16" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="N16" s="153" t="s">
+      <c r="N16" s="137" t="s">
         <v>536</v>
       </c>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153" t="s">
+      <c r="O16" s="137"/>
+      <c r="P16" s="137" t="s">
         <v>545</v>
       </c>
     </row>
@@ -8499,11 +8537,11 @@
       <c r="J17" s="27" t="s">
         <v>534</v>
       </c>
-      <c r="N17" s="153" t="s">
+      <c r="N17" s="137" t="s">
         <v>537</v>
       </c>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153" t="s">
+      <c r="O17" s="137"/>
+      <c r="P17" s="137" t="s">
         <v>546</v>
       </c>
     </row>
@@ -8511,11 +8549,11 @@
       <c r="J18" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="N18" s="153" t="s">
+      <c r="N18" s="137" t="s">
         <v>538</v>
       </c>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153" t="s">
+      <c r="O18" s="137"/>
+      <c r="P18" s="137" t="s">
         <v>547</v>
       </c>
     </row>
@@ -8523,39 +8561,39 @@
       <c r="J19" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="N19" s="153" t="s">
+      <c r="N19" s="137" t="s">
         <v>539</v>
       </c>
-      <c r="O19" s="153"/>
-      <c r="P19" s="153"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="N20" s="153" t="s">
+      <c r="N20" s="137" t="s">
         <v>540</v>
       </c>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
     </row>
     <row r="21" spans="4:19">
-      <c r="N21" s="153" t="s">
+      <c r="N21" s="137" t="s">
         <v>541</v>
       </c>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
     </row>
     <row r="22" spans="4:19">
-      <c r="N22" s="153" t="s">
+      <c r="N22" s="137" t="s">
         <v>542</v>
       </c>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
     </row>
     <row r="23" spans="4:19">
-      <c r="N23" s="153" t="s">
+      <c r="N23" s="137" t="s">
         <v>543</v>
       </c>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
     </row>
     <row r="26" spans="4:19">
       <c r="D26" s="27"/>
@@ -9245,7 +9283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D6:AP63"/>
   <sheetViews>
@@ -9849,7 +9887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B5:T32"/>
   <sheetViews>
@@ -10150,7 +10188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D12:O20"/>
   <sheetViews>
@@ -10207,18 +10245,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Aia/Lang/Derotic/Drotic.xlsx
+++ b/Aia/Lang/Derotic/Drotic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="433">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -1368,9 +1368,6 @@
     <t>FULL</t>
   </si>
   <si>
-    <t>propositum</t>
-  </si>
-  <si>
     <t>LEXICON OF MORPHEMS</t>
   </si>
   <si>
@@ -1495,6 +1492,12 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>propositum??</t>
+  </si>
+  <si>
+    <t>a:d</t>
   </si>
 </sst>
 </file>
@@ -2347,7 +2350,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2358,7 +2360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2384,6 +2385,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2836,7 +2839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:V78"/>
   <sheetViews>
-    <sheetView topLeftCell="B53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B59" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
@@ -3790,7 +3793,7 @@
       </c>
     </row>
     <row r="67" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="G67" s="135" t="s">
+      <c r="G67" s="133" t="s">
         <v>279</v>
       </c>
       <c r="H67" t="s">
@@ -3799,7 +3802,7 @@
     </row>
     <row r="68" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G68" s="30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H68" t="s">
         <v>329</v>
@@ -3813,15 +3816,15 @@
     </row>
     <row r="69" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G69" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S69" t="s">
         <v>40</v>
       </c>
-      <c r="U69" s="100" t="s">
+      <c r="U69" s="99" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4203,10 +4206,10 @@
     </row>
     <row r="58" spans="6:31" x14ac:dyDescent="0.25">
       <c r="T58" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB58" s="58"/>
       <c r="AE58" t="s">
@@ -4244,8 +4247,8 @@
       <c r="S59" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="T59" s="130" t="s">
-        <v>398</v>
+      <c r="T59" s="128" t="s">
+        <v>397</v>
       </c>
       <c r="U59" s="72" t="s">
         <v>6</v>
@@ -4272,7 +4275,7 @@
         <v>119</v>
       </c>
       <c r="AC59" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AD59" s="62" t="s">
         <v>73</v>
@@ -4295,7 +4298,7 @@
         <f t="shared" ref="K60:T70" si="0">$I60&amp;K$59</f>
         <v>ਨw</v>
       </c>
-      <c r="L60" s="134" t="str">
+      <c r="L60" s="132" t="str">
         <f t="shared" si="0"/>
         <v>ਨl</v>
       </c>
@@ -4483,7 +4486,7 @@
         <f t="shared" si="2"/>
         <v>lw</v>
       </c>
-      <c r="L62" s="124" t="str">
+      <c r="L62" s="122" t="str">
         <f t="shared" si="2"/>
         <v>ll</v>
       </c>
@@ -4511,7 +4514,7 @@
         <f t="shared" si="0"/>
         <v>lɣ</v>
       </c>
-      <c r="S62" s="122" t="str">
+      <c r="S62" s="120" t="str">
         <f t="shared" si="0"/>
         <v>lʙ</v>
       </c>
@@ -4539,15 +4542,15 @@
         <f t="shared" si="1"/>
         <v>lʍ</v>
       </c>
-      <c r="Z62" s="133" t="str">
+      <c r="Z62" s="131" t="str">
         <f t="shared" si="1"/>
         <v>lt</v>
       </c>
-      <c r="AA62" s="122" t="str">
+      <c r="AA62" s="120" t="str">
         <f t="shared" si="1"/>
         <v>lb</v>
       </c>
-      <c r="AB62" s="122" t="str">
+      <c r="AB62" s="120" t="str">
         <f t="shared" si="1"/>
         <v>lЋ</v>
       </c>
@@ -4579,7 +4582,7 @@
         <f t="shared" si="2"/>
         <v>rl</v>
       </c>
-      <c r="M63" s="124" t="str">
+      <c r="M63" s="122" t="str">
         <f t="shared" si="2"/>
         <v>rr</v>
       </c>
@@ -4603,7 +4606,7 @@
         <f t="shared" si="0"/>
         <v>rɣ</v>
       </c>
-      <c r="S63" s="124" t="str">
+      <c r="S63" s="122" t="str">
         <f t="shared" si="0"/>
         <v>rʙ</v>
       </c>
@@ -4631,15 +4634,15 @@
         <f t="shared" si="1"/>
         <v>rʍ</v>
       </c>
-      <c r="Z63" s="133" t="str">
+      <c r="Z63" s="131" t="str">
         <f t="shared" si="1"/>
         <v>rt</v>
       </c>
-      <c r="AA63" s="124" t="str">
+      <c r="AA63" s="122" t="str">
         <f t="shared" si="1"/>
         <v>rb</v>
       </c>
-      <c r="AB63" s="124" t="str">
+      <c r="AB63" s="122" t="str">
         <f t="shared" si="1"/>
         <v>rЋ</v>
       </c>
@@ -4675,7 +4678,7 @@
         <f t="shared" si="2"/>
         <v>ɾr</v>
       </c>
-      <c r="N64" s="124" t="str">
+      <c r="N64" s="122" t="str">
         <f t="shared" si="2"/>
         <v>ɾɾ</v>
       </c>
@@ -4695,7 +4698,7 @@
         <f t="shared" si="0"/>
         <v>ɾɣ</v>
       </c>
-      <c r="S64" s="124" t="str">
+      <c r="S64" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ɾʙ</v>
       </c>
@@ -4723,15 +4726,15 @@
         <f t="shared" si="1"/>
         <v>ɾʍ</v>
       </c>
-      <c r="Z64" s="133" t="str">
+      <c r="Z64" s="131" t="str">
         <f t="shared" si="1"/>
         <v>ɾt</v>
       </c>
-      <c r="AA64" s="124" t="str">
+      <c r="AA64" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ɾb</v>
       </c>
-      <c r="AB64" s="124" t="str">
+      <c r="AB64" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ɾЋ</v>
       </c>
@@ -4771,7 +4774,7 @@
         <f t="shared" si="2"/>
         <v>ɹɾ</v>
       </c>
-      <c r="O65" s="124" t="str">
+      <c r="O65" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ɹɹ</v>
       </c>
@@ -4787,7 +4790,7 @@
         <f t="shared" si="0"/>
         <v>ɹɣ</v>
       </c>
-      <c r="S65" s="124" t="str">
+      <c r="S65" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ɹʙ</v>
       </c>
@@ -4815,15 +4818,15 @@
         <f t="shared" si="1"/>
         <v>ɹʍ</v>
       </c>
-      <c r="Z65" s="133" t="str">
+      <c r="Z65" s="131" t="str">
         <f t="shared" si="1"/>
         <v>ɹt</v>
       </c>
-      <c r="AA65" s="124" t="str">
+      <c r="AA65" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ɹb</v>
       </c>
-      <c r="AB65" s="124" t="str">
+      <c r="AB65" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ɹЋ</v>
       </c>
@@ -4867,7 +4870,7 @@
         <f t="shared" si="0"/>
         <v>ʀɹ</v>
       </c>
-      <c r="P66" s="124" t="str">
+      <c r="P66" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ʀʀ</v>
       </c>
@@ -4879,7 +4882,7 @@
         <f t="shared" si="0"/>
         <v>ʀɣ</v>
       </c>
-      <c r="S66" s="124" t="str">
+      <c r="S66" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ʀʙ</v>
       </c>
@@ -4907,15 +4910,15 @@
         <f t="shared" si="1"/>
         <v>ʀʍ</v>
       </c>
-      <c r="Z66" s="133" t="str">
+      <c r="Z66" s="131" t="str">
         <f t="shared" si="1"/>
         <v>ʀt</v>
       </c>
-      <c r="AA66" s="124" t="str">
+      <c r="AA66" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʀb</v>
       </c>
-      <c r="AB66" s="124" t="str">
+      <c r="AB66" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʀЋ</v>
       </c>
@@ -4963,7 +4966,7 @@
         <f t="shared" si="0"/>
         <v>ʁʀ</v>
       </c>
-      <c r="Q67" s="124" t="str">
+      <c r="Q67" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ʁʁ</v>
       </c>
@@ -4971,7 +4974,7 @@
         <f t="shared" si="0"/>
         <v>ʁɣ</v>
       </c>
-      <c r="S67" s="124" t="str">
+      <c r="S67" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ʁʙ</v>
       </c>
@@ -4999,15 +5002,15 @@
         <f t="shared" si="1"/>
         <v>ʁʍ</v>
       </c>
-      <c r="Z67" s="133" t="str">
+      <c r="Z67" s="131" t="str">
         <f t="shared" si="1"/>
         <v>ʁt</v>
       </c>
-      <c r="AA67" s="124" t="str">
+      <c r="AA67" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʁb</v>
       </c>
-      <c r="AB67" s="124" t="str">
+      <c r="AB67" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʁЋ</v>
       </c>
@@ -5059,11 +5062,11 @@
         <f t="shared" si="0"/>
         <v>ɣʁ</v>
       </c>
-      <c r="R68" s="124" t="str">
+      <c r="R68" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ɣɣ</v>
       </c>
-      <c r="S68" s="124" t="str">
+      <c r="S68" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ɣʙ</v>
       </c>
@@ -5091,15 +5094,15 @@
         <f t="shared" si="1"/>
         <v>ɣʍ</v>
       </c>
-      <c r="Z68" s="133" t="str">
+      <c r="Z68" s="131" t="str">
         <f t="shared" si="1"/>
         <v>ɣt</v>
       </c>
-      <c r="AA68" s="124" t="str">
+      <c r="AA68" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ɣb</v>
       </c>
-      <c r="AB68" s="124" t="str">
+      <c r="AB68" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ɣЋ</v>
       </c>
@@ -5127,35 +5130,35 @@
         <f t="shared" si="2"/>
         <v>ʙw</v>
       </c>
-      <c r="L69" s="123" t="str">
+      <c r="L69" s="121" t="str">
         <f t="shared" si="2"/>
         <v>ʙl</v>
       </c>
-      <c r="M69" s="123" t="str">
+      <c r="M69" s="121" t="str">
         <f t="shared" si="2"/>
         <v>ʙr</v>
       </c>
-      <c r="N69" s="124" t="str">
+      <c r="N69" s="122" t="str">
         <f t="shared" si="2"/>
         <v>ʙɾ</v>
       </c>
-      <c r="O69" s="124" t="str">
+      <c r="O69" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ʙɹ</v>
       </c>
-      <c r="P69" s="123" t="str">
+      <c r="P69" s="121" t="str">
         <f t="shared" si="0"/>
         <v>ʙʀ</v>
       </c>
-      <c r="Q69" s="124" t="str">
+      <c r="Q69" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ʙʁ</v>
       </c>
-      <c r="R69" s="124" t="str">
+      <c r="R69" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ʙɣ</v>
       </c>
-      <c r="S69" s="124" t="str">
+      <c r="S69" s="122" t="str">
         <f t="shared" si="0"/>
         <v>ʙʙ</v>
       </c>
@@ -5163,7 +5166,7 @@
         <f t="shared" si="0"/>
         <v>ʙȜ</v>
       </c>
-      <c r="U69" s="124" t="str">
+      <c r="U69" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʙm</v>
       </c>
@@ -5171,27 +5174,27 @@
         <f t="shared" si="1"/>
         <v>ʙn</v>
       </c>
-      <c r="W69" s="124" t="str">
+      <c r="W69" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʙθ</v>
       </c>
-      <c r="X69" s="124" t="str">
+      <c r="X69" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʙð</v>
       </c>
-      <c r="Y69" s="124" t="str">
+      <c r="Y69" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʙʍ</v>
       </c>
-      <c r="Z69" s="133" t="str">
+      <c r="Z69" s="131" t="str">
         <f t="shared" si="1"/>
         <v>ʙt</v>
       </c>
-      <c r="AA69" s="124" t="str">
+      <c r="AA69" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʙb</v>
       </c>
-      <c r="AB69" s="124" t="str">
+      <c r="AB69" s="122" t="str">
         <f t="shared" si="1"/>
         <v>ʙЋ</v>
       </c>
@@ -5207,7 +5210,7 @@
     <row r="70" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E70" s="97"/>
       <c r="I70" s="65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J70" s="82" t="str">
         <f t="shared" si="2"/>
@@ -5217,11 +5220,11 @@
         <f t="shared" si="2"/>
         <v>Ȝw</v>
       </c>
-      <c r="L70" s="120" t="str">
+      <c r="L70" s="118" t="str">
         <f t="shared" si="2"/>
         <v>Ȝl</v>
       </c>
-      <c r="M70" s="120" t="str">
+      <c r="M70" s="118" t="str">
         <f t="shared" si="2"/>
         <v>Ȝr</v>
       </c>
@@ -5233,7 +5236,7 @@
         <f t="shared" si="0"/>
         <v>Ȝɹ</v>
       </c>
-      <c r="P70" s="128" t="str">
+      <c r="P70" s="126" t="str">
         <f t="shared" si="0"/>
         <v>Ȝʀ</v>
       </c>
@@ -5261,27 +5264,27 @@
         <f t="shared" si="3"/>
         <v>Ȝn</v>
       </c>
-      <c r="W70" s="124" t="str">
+      <c r="W70" s="122" t="str">
         <f t="shared" si="3"/>
         <v>Ȝθ</v>
       </c>
-      <c r="X70" s="124" t="str">
+      <c r="X70" s="122" t="str">
         <f t="shared" si="3"/>
         <v>Ȝð</v>
       </c>
-      <c r="Y70" s="124" t="str">
+      <c r="Y70" s="122" t="str">
         <f t="shared" si="3"/>
         <v>Ȝʍ</v>
       </c>
-      <c r="Z70" s="133" t="str">
+      <c r="Z70" s="131" t="str">
         <f t="shared" si="3"/>
         <v>Ȝt</v>
       </c>
-      <c r="AA70" s="124" t="str">
+      <c r="AA70" s="122" t="str">
         <f t="shared" si="3"/>
         <v>Ȝb</v>
       </c>
-      <c r="AB70" s="124" t="str">
+      <c r="AB70" s="122" t="str">
         <f t="shared" si="3"/>
         <v>ȜЋ</v>
       </c>
@@ -5300,7 +5303,7 @@
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I71" s="67" t="s">
         <v>6</v>
@@ -5313,35 +5316,35 @@
         <f t="shared" si="4"/>
         <v>mw</v>
       </c>
-      <c r="L71" s="124" t="str">
+      <c r="L71" s="122" t="str">
         <f t="shared" si="4"/>
         <v>ml</v>
       </c>
-      <c r="M71" s="124" t="str">
+      <c r="M71" s="122" t="str">
         <f t="shared" si="4"/>
         <v>mr</v>
       </c>
-      <c r="N71" s="124" t="str">
+      <c r="N71" s="122" t="str">
         <f t="shared" si="4"/>
         <v>mɾ</v>
       </c>
-      <c r="O71" s="124" t="str">
+      <c r="O71" s="122" t="str">
         <f t="shared" si="4"/>
         <v>mɹ</v>
       </c>
-      <c r="P71" s="124" t="str">
+      <c r="P71" s="122" t="str">
         <f t="shared" si="4"/>
         <v>mʀ</v>
       </c>
-      <c r="Q71" s="124" t="str">
+      <c r="Q71" s="122" t="str">
         <f t="shared" si="4"/>
         <v>mʁ</v>
       </c>
-      <c r="R71" s="124" t="str">
+      <c r="R71" s="122" t="str">
         <f t="shared" si="4"/>
         <v>mɣ</v>
       </c>
-      <c r="S71" s="124" t="str">
+      <c r="S71" s="122" t="str">
         <f t="shared" si="4"/>
         <v>mʙ</v>
       </c>
@@ -5349,7 +5352,7 @@
         <f t="shared" si="4"/>
         <v>mȜ</v>
       </c>
-      <c r="U71" s="124" t="str">
+      <c r="U71" s="122" t="str">
         <f t="shared" si="3"/>
         <v>mm</v>
       </c>
@@ -5357,27 +5360,27 @@
         <f t="shared" si="3"/>
         <v>mn</v>
       </c>
-      <c r="W71" s="122" t="str">
+      <c r="W71" s="120" t="str">
         <f t="shared" si="3"/>
         <v>mθ</v>
       </c>
-      <c r="X71" s="122" t="str">
+      <c r="X71" s="120" t="str">
         <f t="shared" si="3"/>
         <v>mð</v>
       </c>
-      <c r="Y71" s="122" t="str">
+      <c r="Y71" s="120" t="str">
         <f t="shared" si="3"/>
         <v>mʍ</v>
       </c>
-      <c r="Z71" s="132" t="str">
+      <c r="Z71" s="130" t="str">
         <f t="shared" si="3"/>
         <v>mt</v>
       </c>
-      <c r="AA71" s="122" t="str">
+      <c r="AA71" s="120" t="str">
         <f t="shared" si="3"/>
         <v>mb</v>
       </c>
-      <c r="AB71" s="122" t="str">
+      <c r="AB71" s="120" t="str">
         <f t="shared" si="3"/>
         <v>mЋ</v>
       </c>
@@ -5394,7 +5397,7 @@
       <c r="F72" s="59"/>
       <c r="G72" s="54"/>
       <c r="H72" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I72" s="68" t="s">
         <v>7</v>
@@ -5463,7 +5466,7 @@
         <f t="shared" si="3"/>
         <v>nʍ</v>
       </c>
-      <c r="Z72" s="131" t="str">
+      <c r="Z72" s="129" t="str">
         <f t="shared" si="3"/>
         <v>nt</v>
       </c>
@@ -5529,7 +5532,7 @@
         <f t="shared" si="4"/>
         <v>θɣ</v>
       </c>
-      <c r="S73" s="124" t="str">
+      <c r="S73" s="122" t="str">
         <f t="shared" si="4"/>
         <v>θʙ</v>
       </c>
@@ -5545,7 +5548,7 @@
         <f t="shared" si="3"/>
         <v>θn</v>
       </c>
-      <c r="W73" s="124" t="str">
+      <c r="W73" s="122" t="str">
         <f t="shared" si="3"/>
         <v>θθ</v>
       </c>
@@ -5557,15 +5560,15 @@
         <f t="shared" si="3"/>
         <v>θʍ</v>
       </c>
-      <c r="Z73" s="133" t="str">
+      <c r="Z73" s="131" t="str">
         <f t="shared" si="3"/>
         <v>θt</v>
       </c>
-      <c r="AA73" s="124" t="str">
+      <c r="AA73" s="122" t="str">
         <f t="shared" si="3"/>
         <v>θb</v>
       </c>
-      <c r="AB73" s="124" t="str">
+      <c r="AB73" s="122" t="str">
         <f t="shared" si="3"/>
         <v>θЋ</v>
       </c>
@@ -5621,7 +5624,7 @@
         <f t="shared" si="4"/>
         <v>ðɣ</v>
       </c>
-      <c r="S74" s="124" t="str">
+      <c r="S74" s="122" t="str">
         <f t="shared" si="4"/>
         <v>ðʙ</v>
       </c>
@@ -5641,7 +5644,7 @@
         <f t="shared" si="3"/>
         <v>ðθ</v>
       </c>
-      <c r="X74" s="124" t="str">
+      <c r="X74" s="122" t="str">
         <f t="shared" si="3"/>
         <v>ðð</v>
       </c>
@@ -5649,15 +5652,15 @@
         <f t="shared" si="3"/>
         <v>ðʍ</v>
       </c>
-      <c r="Z74" s="133" t="str">
+      <c r="Z74" s="131" t="str">
         <f t="shared" si="3"/>
         <v>ðt</v>
       </c>
-      <c r="AA74" s="124" t="str">
+      <c r="AA74" s="122" t="str">
         <f t="shared" si="3"/>
         <v>ðb</v>
       </c>
-      <c r="AB74" s="124" t="str">
+      <c r="AB74" s="122" t="str">
         <f t="shared" si="3"/>
         <v>ðЋ</v>
       </c>
@@ -5741,7 +5744,7 @@
         <f t="shared" si="3"/>
         <v>ʍʍ</v>
       </c>
-      <c r="Z75" s="131" t="str">
+      <c r="Z75" s="129" t="str">
         <f t="shared" si="3"/>
         <v>ʍt</v>
       </c>
@@ -5771,7 +5774,7 @@
       <c r="I76" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="J76" s="121" t="str">
+      <c r="J76" s="119" t="str">
         <f t="shared" si="4"/>
         <v>tਨ</v>
       </c>
@@ -5807,7 +5810,7 @@
         <f t="shared" si="4"/>
         <v>tɣ</v>
       </c>
-      <c r="S76" s="124" t="str">
+      <c r="S76" s="122" t="str">
         <f t="shared" si="4"/>
         <v>tʙ</v>
       </c>
@@ -5835,15 +5838,15 @@
         <f t="shared" si="3"/>
         <v>tʍ</v>
       </c>
-      <c r="Z76" s="133" t="str">
+      <c r="Z76" s="131" t="str">
         <f t="shared" si="3"/>
         <v>tt</v>
       </c>
-      <c r="AA76" s="124" t="str">
+      <c r="AA76" s="122" t="str">
         <f t="shared" si="3"/>
         <v>tb</v>
       </c>
-      <c r="AB76" s="124" t="str">
+      <c r="AB76" s="122" t="str">
         <f t="shared" si="3"/>
         <v>tЋ</v>
       </c>
@@ -5863,7 +5866,7 @@
       <c r="I77" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="J77" s="121" t="str">
+      <c r="J77" s="119" t="str">
         <f t="shared" si="4"/>
         <v>bਨ</v>
       </c>
@@ -5899,7 +5902,7 @@
         <f t="shared" si="4"/>
         <v>bɣ</v>
       </c>
-      <c r="S77" s="124" t="str">
+      <c r="S77" s="122" t="str">
         <f t="shared" si="4"/>
         <v>bʙ</v>
       </c>
@@ -5927,19 +5930,19 @@
         <f t="shared" si="3"/>
         <v>bʍ</v>
       </c>
-      <c r="Z77" s="133" t="str">
+      <c r="Z77" s="131" t="str">
         <f t="shared" si="3"/>
         <v>bt</v>
       </c>
-      <c r="AA77" s="124" t="str">
+      <c r="AA77" s="122" t="str">
         <f t="shared" si="3"/>
         <v>bb</v>
       </c>
-      <c r="AB77" s="124" t="str">
+      <c r="AB77" s="122" t="str">
         <f t="shared" si="3"/>
         <v>bЋ</v>
       </c>
-      <c r="AC77" s="124" t="str">
+      <c r="AC77" s="122" t="str">
         <f t="shared" si="3"/>
         <v>bƿ</v>
       </c>
@@ -5989,7 +5992,7 @@
         <f t="shared" si="5"/>
         <v>Ћɣ</v>
       </c>
-      <c r="S78" s="124" t="str">
+      <c r="S78" s="122" t="str">
         <f t="shared" si="5"/>
         <v>Ћʙ</v>
       </c>
@@ -6017,19 +6020,19 @@
         <f t="shared" si="5"/>
         <v>Ћʍ</v>
       </c>
-      <c r="Z78" s="133" t="str">
+      <c r="Z78" s="131" t="str">
         <f t="shared" ref="Z78:AD80" si="6">$I78&amp;Z$59</f>
         <v>Ћt</v>
       </c>
-      <c r="AA78" s="124" t="str">
+      <c r="AA78" s="122" t="str">
         <f t="shared" si="6"/>
         <v>Ћb</v>
       </c>
-      <c r="AB78" s="124" t="str">
+      <c r="AB78" s="122" t="str">
         <f t="shared" si="6"/>
         <v>ЋЋ</v>
       </c>
-      <c r="AC78" s="124" t="str">
+      <c r="AC78" s="122" t="str">
         <f t="shared" si="6"/>
         <v>Ћƿ</v>
       </c>
@@ -6043,7 +6046,7 @@
       <c r="G79" s="58"/>
       <c r="H79" s="58"/>
       <c r="I79" s="68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J79" s="88" t="str">
         <f t="shared" si="5"/>
@@ -6081,7 +6084,7 @@
         <f t="shared" si="5"/>
         <v>ƿɣ</v>
       </c>
-      <c r="S79" s="124" t="str">
+      <c r="S79" s="122" t="str">
         <f t="shared" si="5"/>
         <v>ƿʙ</v>
       </c>
@@ -6109,19 +6112,19 @@
         <f t="shared" si="5"/>
         <v>ƿʍ</v>
       </c>
-      <c r="Z79" s="133" t="str">
+      <c r="Z79" s="131" t="str">
         <f t="shared" si="6"/>
         <v>ƿt</v>
       </c>
-      <c r="AA79" s="124" t="str">
+      <c r="AA79" s="122" t="str">
         <f t="shared" si="6"/>
         <v>ƿb</v>
       </c>
-      <c r="AB79" s="124" t="str">
+      <c r="AB79" s="122" t="str">
         <f t="shared" si="6"/>
         <v>ƿЋ</v>
       </c>
-      <c r="AC79" s="124" t="str">
+      <c r="AC79" s="122" t="str">
         <f t="shared" si="6"/>
         <v>ƿƿ</v>
       </c>
@@ -6219,7 +6222,7 @@
         <f t="shared" si="6"/>
         <v>ʔƿ</v>
       </c>
-      <c r="AD80" s="129" t="str">
+      <c r="AD80" s="127" t="str">
         <f t="shared" si="6"/>
         <v>ʔʔ</v>
       </c>
@@ -6286,700 +6289,700 @@
       <c r="AF83" s="58"/>
     </row>
     <row r="90" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F90" s="125"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="125"/>
-      <c r="I90" s="125"/>
-      <c r="J90" s="125"/>
-      <c r="K90" s="125"/>
-      <c r="L90" s="125"/>
-      <c r="M90" s="125"/>
-      <c r="N90" s="125"/>
-      <c r="O90" s="125"/>
-      <c r="P90" s="125"/>
-      <c r="Q90" s="125"/>
-      <c r="R90" s="125"/>
-      <c r="S90" s="125"/>
-      <c r="T90" s="125"/>
-      <c r="U90" s="125"/>
-      <c r="V90" s="125"/>
-      <c r="W90" s="125"/>
-      <c r="X90" s="125"/>
-      <c r="Y90" s="125"/>
-      <c r="Z90" s="125"/>
-      <c r="AA90" s="125"/>
-      <c r="AB90" s="125"/>
-      <c r="AC90" s="125"/>
-      <c r="AD90" s="125"/>
-      <c r="AE90" s="125"/>
-      <c r="AF90" s="125"/>
+      <c r="F90" s="123"/>
+      <c r="G90" s="123"/>
+      <c r="H90" s="123"/>
+      <c r="I90" s="123"/>
+      <c r="J90" s="123"/>
+      <c r="K90" s="123"/>
+      <c r="L90" s="123"/>
+      <c r="M90" s="123"/>
+      <c r="N90" s="123"/>
+      <c r="O90" s="123"/>
+      <c r="P90" s="123"/>
+      <c r="Q90" s="123"/>
+      <c r="R90" s="123"/>
+      <c r="S90" s="123"/>
+      <c r="T90" s="123"/>
+      <c r="U90" s="123"/>
+      <c r="V90" s="123"/>
+      <c r="W90" s="123"/>
+      <c r="X90" s="123"/>
+      <c r="Y90" s="123"/>
+      <c r="Z90" s="123"/>
+      <c r="AA90" s="123"/>
+      <c r="AB90" s="123"/>
+      <c r="AC90" s="123"/>
+      <c r="AD90" s="123"/>
+      <c r="AE90" s="123"/>
+      <c r="AF90" s="123"/>
     </row>
     <row r="91" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F91" s="125"/>
-      <c r="G91" s="125"/>
-      <c r="H91" s="125"/>
-      <c r="I91" s="125"/>
-      <c r="J91" s="126"/>
-      <c r="K91" s="126"/>
-      <c r="L91" s="126"/>
-      <c r="M91" s="126"/>
-      <c r="N91" s="126"/>
-      <c r="O91" s="126"/>
-      <c r="P91" s="126"/>
-      <c r="Q91" s="126"/>
-      <c r="R91" s="126"/>
-      <c r="S91" s="126"/>
-      <c r="T91" s="126"/>
-      <c r="U91" s="126"/>
-      <c r="V91" s="126"/>
-      <c r="W91" s="126"/>
-      <c r="X91" s="126"/>
-      <c r="Y91" s="126"/>
-      <c r="Z91" s="126"/>
-      <c r="AA91" s="126"/>
-      <c r="AB91" s="126"/>
-      <c r="AC91" s="126"/>
-      <c r="AD91" s="126"/>
-      <c r="AE91" s="126"/>
-      <c r="AF91" s="126"/>
+      <c r="F91" s="123"/>
+      <c r="G91" s="123"/>
+      <c r="H91" s="123"/>
+      <c r="I91" s="123"/>
+      <c r="J91" s="124"/>
+      <c r="K91" s="124"/>
+      <c r="L91" s="124"/>
+      <c r="M91" s="124"/>
+      <c r="N91" s="124"/>
+      <c r="O91" s="124"/>
+      <c r="P91" s="124"/>
+      <c r="Q91" s="124"/>
+      <c r="R91" s="124"/>
+      <c r="S91" s="124"/>
+      <c r="T91" s="124"/>
+      <c r="U91" s="124"/>
+      <c r="V91" s="124"/>
+      <c r="W91" s="124"/>
+      <c r="X91" s="124"/>
+      <c r="Y91" s="124"/>
+      <c r="Z91" s="124"/>
+      <c r="AA91" s="124"/>
+      <c r="AB91" s="124"/>
+      <c r="AC91" s="124"/>
+      <c r="AD91" s="124"/>
+      <c r="AE91" s="124"/>
+      <c r="AF91" s="124"/>
     </row>
     <row r="92" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F92" s="125"/>
-      <c r="G92" s="125"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="125"/>
-      <c r="J92" s="126"/>
-      <c r="K92" s="126"/>
-      <c r="L92" s="126"/>
-      <c r="M92" s="126"/>
-      <c r="N92" s="126"/>
-      <c r="O92" s="126"/>
-      <c r="P92" s="126"/>
-      <c r="Q92" s="126"/>
-      <c r="R92" s="126"/>
-      <c r="S92" s="126"/>
-      <c r="T92" s="126"/>
-      <c r="U92" s="126"/>
-      <c r="V92" s="126"/>
-      <c r="W92" s="126"/>
-      <c r="X92" s="126"/>
-      <c r="Y92" s="126"/>
-      <c r="Z92" s="126"/>
-      <c r="AA92" s="126"/>
-      <c r="AB92" s="126"/>
-      <c r="AC92" s="126"/>
-      <c r="AD92" s="126"/>
-      <c r="AE92" s="126"/>
-      <c r="AF92" s="126"/>
+      <c r="F92" s="123"/>
+      <c r="G92" s="123"/>
+      <c r="H92" s="123"/>
+      <c r="I92" s="123"/>
+      <c r="J92" s="124"/>
+      <c r="K92" s="124"/>
+      <c r="L92" s="124"/>
+      <c r="M92" s="124"/>
+      <c r="N92" s="124"/>
+      <c r="O92" s="124"/>
+      <c r="P92" s="124"/>
+      <c r="Q92" s="124"/>
+      <c r="R92" s="124"/>
+      <c r="S92" s="124"/>
+      <c r="T92" s="124"/>
+      <c r="U92" s="124"/>
+      <c r="V92" s="124"/>
+      <c r="W92" s="124"/>
+      <c r="X92" s="124"/>
+      <c r="Y92" s="124"/>
+      <c r="Z92" s="124"/>
+      <c r="AA92" s="124"/>
+      <c r="AB92" s="124"/>
+      <c r="AC92" s="124"/>
+      <c r="AD92" s="124"/>
+      <c r="AE92" s="124"/>
+      <c r="AF92" s="124"/>
     </row>
     <row r="93" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="125"/>
-      <c r="J93" s="126"/>
-      <c r="K93" s="126"/>
-      <c r="L93" s="126"/>
-      <c r="M93" s="126"/>
-      <c r="N93" s="126"/>
-      <c r="O93" s="126"/>
-      <c r="P93" s="126"/>
-      <c r="Q93" s="126"/>
-      <c r="R93" s="126"/>
-      <c r="S93" s="126"/>
-      <c r="T93" s="126"/>
-      <c r="U93" s="126"/>
-      <c r="V93" s="126"/>
-      <c r="W93" s="126"/>
-      <c r="X93" s="126"/>
-      <c r="Y93" s="126"/>
-      <c r="Z93" s="126"/>
-      <c r="AA93" s="126"/>
-      <c r="AB93" s="126"/>
-      <c r="AC93" s="126"/>
-      <c r="AD93" s="126"/>
-      <c r="AE93" s="126"/>
-      <c r="AF93" s="126"/>
+      <c r="F93" s="123"/>
+      <c r="G93" s="123"/>
+      <c r="H93" s="123"/>
+      <c r="I93" s="123"/>
+      <c r="J93" s="124"/>
+      <c r="K93" s="124"/>
+      <c r="L93" s="124"/>
+      <c r="M93" s="124"/>
+      <c r="N93" s="124"/>
+      <c r="O93" s="124"/>
+      <c r="P93" s="124"/>
+      <c r="Q93" s="124"/>
+      <c r="R93" s="124"/>
+      <c r="S93" s="124"/>
+      <c r="T93" s="124"/>
+      <c r="U93" s="124"/>
+      <c r="V93" s="124"/>
+      <c r="W93" s="124"/>
+      <c r="X93" s="124"/>
+      <c r="Y93" s="124"/>
+      <c r="Z93" s="124"/>
+      <c r="AA93" s="124"/>
+      <c r="AB93" s="124"/>
+      <c r="AC93" s="124"/>
+      <c r="AD93" s="124"/>
+      <c r="AE93" s="124"/>
+      <c r="AF93" s="124"/>
     </row>
     <row r="94" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F94" s="125"/>
-      <c r="G94" s="125"/>
-      <c r="H94" s="125"/>
-      <c r="I94" s="125"/>
-      <c r="J94" s="127"/>
-      <c r="K94" s="126"/>
-      <c r="L94" s="126"/>
-      <c r="M94" s="126"/>
-      <c r="N94" s="126"/>
-      <c r="O94" s="126"/>
-      <c r="P94" s="126"/>
-      <c r="Q94" s="126"/>
-      <c r="R94" s="126"/>
-      <c r="S94" s="126"/>
-      <c r="T94" s="126"/>
-      <c r="U94" s="126"/>
-      <c r="V94" s="126"/>
-      <c r="W94" s="126"/>
-      <c r="X94" s="126"/>
-      <c r="Y94" s="126"/>
-      <c r="Z94" s="126"/>
-      <c r="AA94" s="126"/>
-      <c r="AB94" s="126"/>
-      <c r="AC94" s="126"/>
-      <c r="AD94" s="126"/>
-      <c r="AE94" s="126"/>
-      <c r="AF94" s="126"/>
+      <c r="F94" s="123"/>
+      <c r="G94" s="123"/>
+      <c r="H94" s="123"/>
+      <c r="I94" s="123"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="124"/>
+      <c r="L94" s="124"/>
+      <c r="M94" s="124"/>
+      <c r="N94" s="124"/>
+      <c r="O94" s="124"/>
+      <c r="P94" s="124"/>
+      <c r="Q94" s="124"/>
+      <c r="R94" s="124"/>
+      <c r="S94" s="124"/>
+      <c r="T94" s="124"/>
+      <c r="U94" s="124"/>
+      <c r="V94" s="124"/>
+      <c r="W94" s="124"/>
+      <c r="X94" s="124"/>
+      <c r="Y94" s="124"/>
+      <c r="Z94" s="124"/>
+      <c r="AA94" s="124"/>
+      <c r="AB94" s="124"/>
+      <c r="AC94" s="124"/>
+      <c r="AD94" s="124"/>
+      <c r="AE94" s="124"/>
+      <c r="AF94" s="124"/>
     </row>
     <row r="95" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F95" s="125"/>
-      <c r="G95" s="125"/>
-      <c r="H95" s="125"/>
-      <c r="I95" s="125"/>
-      <c r="J95" s="126"/>
-      <c r="K95" s="126"/>
-      <c r="L95" s="126"/>
-      <c r="M95" s="126"/>
-      <c r="N95" s="126"/>
-      <c r="O95" s="126"/>
-      <c r="P95" s="126"/>
-      <c r="Q95" s="126"/>
-      <c r="R95" s="126"/>
-      <c r="S95" s="126"/>
-      <c r="T95" s="126"/>
-      <c r="U95" s="126"/>
-      <c r="V95" s="126"/>
-      <c r="W95" s="126"/>
-      <c r="X95" s="126"/>
-      <c r="Y95" s="126"/>
-      <c r="Z95" s="126"/>
-      <c r="AA95" s="126"/>
-      <c r="AB95" s="126"/>
-      <c r="AC95" s="126"/>
-      <c r="AD95" s="126"/>
-      <c r="AE95" s="126"/>
-      <c r="AF95" s="126"/>
+      <c r="F95" s="123"/>
+      <c r="G95" s="123"/>
+      <c r="H95" s="123"/>
+      <c r="I95" s="123"/>
+      <c r="J95" s="124"/>
+      <c r="K95" s="124"/>
+      <c r="L95" s="124"/>
+      <c r="M95" s="124"/>
+      <c r="N95" s="124"/>
+      <c r="O95" s="124"/>
+      <c r="P95" s="124"/>
+      <c r="Q95" s="124"/>
+      <c r="R95" s="124"/>
+      <c r="S95" s="124"/>
+      <c r="T95" s="124"/>
+      <c r="U95" s="124"/>
+      <c r="V95" s="124"/>
+      <c r="W95" s="124"/>
+      <c r="X95" s="124"/>
+      <c r="Y95" s="124"/>
+      <c r="Z95" s="124"/>
+      <c r="AA95" s="124"/>
+      <c r="AB95" s="124"/>
+      <c r="AC95" s="124"/>
+      <c r="AD95" s="124"/>
+      <c r="AE95" s="124"/>
+      <c r="AF95" s="124"/>
     </row>
     <row r="96" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F96" s="125"/>
-      <c r="G96" s="125"/>
-      <c r="H96" s="125"/>
-      <c r="I96" s="125"/>
-      <c r="J96" s="126"/>
-      <c r="K96" s="126"/>
-      <c r="L96" s="126"/>
-      <c r="M96" s="126"/>
-      <c r="N96" s="126"/>
-      <c r="O96" s="126"/>
-      <c r="P96" s="126"/>
-      <c r="Q96" s="126"/>
-      <c r="R96" s="126"/>
-      <c r="S96" s="126"/>
-      <c r="T96" s="126"/>
-      <c r="U96" s="126"/>
-      <c r="V96" s="126"/>
-      <c r="W96" s="126"/>
-      <c r="X96" s="126"/>
-      <c r="Y96" s="126"/>
-      <c r="Z96" s="126"/>
-      <c r="AA96" s="126"/>
-      <c r="AB96" s="126"/>
-      <c r="AC96" s="126"/>
-      <c r="AD96" s="126"/>
-      <c r="AE96" s="126"/>
-      <c r="AF96" s="126"/>
+      <c r="F96" s="123"/>
+      <c r="G96" s="123"/>
+      <c r="H96" s="123"/>
+      <c r="I96" s="123"/>
+      <c r="J96" s="124"/>
+      <c r="K96" s="124"/>
+      <c r="L96" s="124"/>
+      <c r="M96" s="124"/>
+      <c r="N96" s="124"/>
+      <c r="O96" s="124"/>
+      <c r="P96" s="124"/>
+      <c r="Q96" s="124"/>
+      <c r="R96" s="124"/>
+      <c r="S96" s="124"/>
+      <c r="T96" s="124"/>
+      <c r="U96" s="124"/>
+      <c r="V96" s="124"/>
+      <c r="W96" s="124"/>
+      <c r="X96" s="124"/>
+      <c r="Y96" s="124"/>
+      <c r="Z96" s="124"/>
+      <c r="AA96" s="124"/>
+      <c r="AB96" s="124"/>
+      <c r="AC96" s="124"/>
+      <c r="AD96" s="124"/>
+      <c r="AE96" s="124"/>
+      <c r="AF96" s="124"/>
     </row>
     <row r="97" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F97" s="125"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="125"/>
-      <c r="J97" s="126"/>
-      <c r="K97" s="126"/>
-      <c r="L97" s="126"/>
-      <c r="M97" s="126"/>
-      <c r="N97" s="126"/>
-      <c r="O97" s="126"/>
-      <c r="P97" s="126"/>
-      <c r="Q97" s="126"/>
-      <c r="R97" s="126"/>
-      <c r="S97" s="126"/>
-      <c r="T97" s="126"/>
-      <c r="U97" s="126"/>
-      <c r="V97" s="126"/>
-      <c r="W97" s="126"/>
-      <c r="X97" s="126"/>
-      <c r="Y97" s="126"/>
-      <c r="Z97" s="126"/>
-      <c r="AA97" s="126"/>
-      <c r="AB97" s="126"/>
-      <c r="AC97" s="126"/>
-      <c r="AD97" s="126"/>
-      <c r="AE97" s="126"/>
-      <c r="AF97" s="126"/>
+      <c r="F97" s="123"/>
+      <c r="G97" s="123"/>
+      <c r="H97" s="123"/>
+      <c r="I97" s="123"/>
+      <c r="J97" s="124"/>
+      <c r="K97" s="124"/>
+      <c r="L97" s="124"/>
+      <c r="M97" s="124"/>
+      <c r="N97" s="124"/>
+      <c r="O97" s="124"/>
+      <c r="P97" s="124"/>
+      <c r="Q97" s="124"/>
+      <c r="R97" s="124"/>
+      <c r="S97" s="124"/>
+      <c r="T97" s="124"/>
+      <c r="U97" s="124"/>
+      <c r="V97" s="124"/>
+      <c r="W97" s="124"/>
+      <c r="X97" s="124"/>
+      <c r="Y97" s="124"/>
+      <c r="Z97" s="124"/>
+      <c r="AA97" s="124"/>
+      <c r="AB97" s="124"/>
+      <c r="AC97" s="124"/>
+      <c r="AD97" s="124"/>
+      <c r="AE97" s="124"/>
+      <c r="AF97" s="124"/>
     </row>
     <row r="98" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F98" s="125"/>
-      <c r="G98" s="125"/>
-      <c r="H98" s="125"/>
-      <c r="I98" s="125"/>
-      <c r="J98" s="126"/>
-      <c r="K98" s="126"/>
-      <c r="L98" s="126"/>
-      <c r="M98" s="126"/>
-      <c r="N98" s="126"/>
-      <c r="O98" s="126"/>
-      <c r="P98" s="126"/>
-      <c r="Q98" s="126"/>
-      <c r="R98" s="126"/>
-      <c r="S98" s="126"/>
-      <c r="T98" s="126"/>
-      <c r="U98" s="126"/>
-      <c r="V98" s="126"/>
-      <c r="W98" s="126"/>
-      <c r="X98" s="126"/>
-      <c r="Y98" s="126"/>
-      <c r="Z98" s="126"/>
-      <c r="AA98" s="126"/>
-      <c r="AB98" s="126"/>
-      <c r="AC98" s="126"/>
-      <c r="AD98" s="126"/>
-      <c r="AE98" s="126"/>
-      <c r="AF98" s="126"/>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
+      <c r="H98" s="123"/>
+      <c r="I98" s="123"/>
+      <c r="J98" s="124"/>
+      <c r="K98" s="124"/>
+      <c r="L98" s="124"/>
+      <c r="M98" s="124"/>
+      <c r="N98" s="124"/>
+      <c r="O98" s="124"/>
+      <c r="P98" s="124"/>
+      <c r="Q98" s="124"/>
+      <c r="R98" s="124"/>
+      <c r="S98" s="124"/>
+      <c r="T98" s="124"/>
+      <c r="U98" s="124"/>
+      <c r="V98" s="124"/>
+      <c r="W98" s="124"/>
+      <c r="X98" s="124"/>
+      <c r="Y98" s="124"/>
+      <c r="Z98" s="124"/>
+      <c r="AA98" s="124"/>
+      <c r="AB98" s="124"/>
+      <c r="AC98" s="124"/>
+      <c r="AD98" s="124"/>
+      <c r="AE98" s="124"/>
+      <c r="AF98" s="124"/>
     </row>
     <row r="99" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F99" s="125"/>
-      <c r="G99" s="125"/>
-      <c r="H99" s="125"/>
-      <c r="I99" s="125"/>
-      <c r="J99" s="126"/>
-      <c r="K99" s="126"/>
-      <c r="L99" s="126"/>
-      <c r="M99" s="126"/>
-      <c r="N99" s="126"/>
-      <c r="O99" s="126"/>
-      <c r="P99" s="126"/>
-      <c r="Q99" s="126"/>
-      <c r="R99" s="126"/>
-      <c r="S99" s="126"/>
-      <c r="T99" s="126"/>
-      <c r="U99" s="126"/>
-      <c r="V99" s="126"/>
-      <c r="W99" s="126"/>
-      <c r="X99" s="126"/>
-      <c r="Y99" s="126"/>
-      <c r="Z99" s="126"/>
-      <c r="AA99" s="126"/>
-      <c r="AB99" s="126"/>
-      <c r="AC99" s="126"/>
-      <c r="AD99" s="126"/>
-      <c r="AE99" s="126"/>
-      <c r="AF99" s="126"/>
+      <c r="F99" s="123"/>
+      <c r="G99" s="123"/>
+      <c r="H99" s="123"/>
+      <c r="I99" s="123"/>
+      <c r="J99" s="124"/>
+      <c r="K99" s="124"/>
+      <c r="L99" s="124"/>
+      <c r="M99" s="124"/>
+      <c r="N99" s="124"/>
+      <c r="O99" s="124"/>
+      <c r="P99" s="124"/>
+      <c r="Q99" s="124"/>
+      <c r="R99" s="124"/>
+      <c r="S99" s="124"/>
+      <c r="T99" s="124"/>
+      <c r="U99" s="124"/>
+      <c r="V99" s="124"/>
+      <c r="W99" s="124"/>
+      <c r="X99" s="124"/>
+      <c r="Y99" s="124"/>
+      <c r="Z99" s="124"/>
+      <c r="AA99" s="124"/>
+      <c r="AB99" s="124"/>
+      <c r="AC99" s="124"/>
+      <c r="AD99" s="124"/>
+      <c r="AE99" s="124"/>
+      <c r="AF99" s="124"/>
     </row>
     <row r="100" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F100" s="125"/>
-      <c r="G100" s="125"/>
-      <c r="H100" s="125"/>
-      <c r="I100" s="125"/>
-      <c r="J100" s="126"/>
-      <c r="K100" s="126"/>
-      <c r="L100" s="126"/>
-      <c r="M100" s="126"/>
-      <c r="N100" s="126"/>
-      <c r="O100" s="126"/>
-      <c r="P100" s="126"/>
-      <c r="Q100" s="126"/>
-      <c r="R100" s="126"/>
-      <c r="S100" s="126"/>
-      <c r="T100" s="126"/>
-      <c r="U100" s="126"/>
-      <c r="V100" s="126"/>
-      <c r="W100" s="126"/>
-      <c r="X100" s="126"/>
-      <c r="Y100" s="126"/>
-      <c r="Z100" s="126"/>
-      <c r="AA100" s="126"/>
-      <c r="AB100" s="126"/>
-      <c r="AC100" s="126"/>
-      <c r="AD100" s="126"/>
-      <c r="AE100" s="126"/>
-      <c r="AF100" s="126"/>
+      <c r="F100" s="123"/>
+      <c r="G100" s="123"/>
+      <c r="H100" s="123"/>
+      <c r="I100" s="123"/>
+      <c r="J100" s="124"/>
+      <c r="K100" s="124"/>
+      <c r="L100" s="124"/>
+      <c r="M100" s="124"/>
+      <c r="N100" s="124"/>
+      <c r="O100" s="124"/>
+      <c r="P100" s="124"/>
+      <c r="Q100" s="124"/>
+      <c r="R100" s="124"/>
+      <c r="S100" s="124"/>
+      <c r="T100" s="124"/>
+      <c r="U100" s="124"/>
+      <c r="V100" s="124"/>
+      <c r="W100" s="124"/>
+      <c r="X100" s="124"/>
+      <c r="Y100" s="124"/>
+      <c r="Z100" s="124"/>
+      <c r="AA100" s="124"/>
+      <c r="AB100" s="124"/>
+      <c r="AC100" s="124"/>
+      <c r="AD100" s="124"/>
+      <c r="AE100" s="124"/>
+      <c r="AF100" s="124"/>
     </row>
     <row r="101" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F101" s="125"/>
-      <c r="G101" s="125"/>
-      <c r="H101" s="125"/>
-      <c r="I101" s="125"/>
-      <c r="J101" s="126"/>
-      <c r="K101" s="126"/>
-      <c r="L101" s="126"/>
-      <c r="M101" s="126"/>
-      <c r="N101" s="126"/>
-      <c r="O101" s="126"/>
-      <c r="P101" s="126"/>
-      <c r="Q101" s="126"/>
-      <c r="R101" s="126"/>
-      <c r="S101" s="126"/>
-      <c r="T101" s="126"/>
-      <c r="U101" s="126"/>
-      <c r="V101" s="126"/>
-      <c r="W101" s="126"/>
-      <c r="X101" s="126"/>
-      <c r="Y101" s="126"/>
-      <c r="Z101" s="126"/>
-      <c r="AA101" s="126"/>
-      <c r="AB101" s="126"/>
-      <c r="AC101" s="126"/>
-      <c r="AD101" s="126"/>
-      <c r="AE101" s="126"/>
-      <c r="AF101" s="126"/>
+      <c r="F101" s="123"/>
+      <c r="G101" s="123"/>
+      <c r="H101" s="123"/>
+      <c r="I101" s="123"/>
+      <c r="J101" s="124"/>
+      <c r="K101" s="124"/>
+      <c r="L101" s="124"/>
+      <c r="M101" s="124"/>
+      <c r="N101" s="124"/>
+      <c r="O101" s="124"/>
+      <c r="P101" s="124"/>
+      <c r="Q101" s="124"/>
+      <c r="R101" s="124"/>
+      <c r="S101" s="124"/>
+      <c r="T101" s="124"/>
+      <c r="U101" s="124"/>
+      <c r="V101" s="124"/>
+      <c r="W101" s="124"/>
+      <c r="X101" s="124"/>
+      <c r="Y101" s="124"/>
+      <c r="Z101" s="124"/>
+      <c r="AA101" s="124"/>
+      <c r="AB101" s="124"/>
+      <c r="AC101" s="124"/>
+      <c r="AD101" s="124"/>
+      <c r="AE101" s="124"/>
+      <c r="AF101" s="124"/>
     </row>
     <row r="102" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F102" s="125"/>
-      <c r="G102" s="125"/>
-      <c r="H102" s="125"/>
-      <c r="I102" s="125"/>
-      <c r="J102" s="126"/>
-      <c r="K102" s="126"/>
-      <c r="L102" s="126"/>
-      <c r="M102" s="126"/>
-      <c r="N102" s="126"/>
-      <c r="O102" s="126"/>
-      <c r="P102" s="126"/>
-      <c r="Q102" s="126"/>
-      <c r="R102" s="126"/>
-      <c r="S102" s="126"/>
-      <c r="T102" s="126"/>
-      <c r="U102" s="126"/>
-      <c r="V102" s="126"/>
-      <c r="W102" s="126"/>
-      <c r="X102" s="126"/>
-      <c r="Y102" s="126"/>
-      <c r="Z102" s="126"/>
-      <c r="AA102" s="126"/>
-      <c r="AB102" s="126"/>
-      <c r="AC102" s="126"/>
-      <c r="AD102" s="126"/>
-      <c r="AE102" s="126"/>
-      <c r="AF102" s="126"/>
+      <c r="F102" s="123"/>
+      <c r="G102" s="123"/>
+      <c r="H102" s="123"/>
+      <c r="I102" s="123"/>
+      <c r="J102" s="124"/>
+      <c r="K102" s="124"/>
+      <c r="L102" s="124"/>
+      <c r="M102" s="124"/>
+      <c r="N102" s="124"/>
+      <c r="O102" s="124"/>
+      <c r="P102" s="124"/>
+      <c r="Q102" s="124"/>
+      <c r="R102" s="124"/>
+      <c r="S102" s="124"/>
+      <c r="T102" s="124"/>
+      <c r="U102" s="124"/>
+      <c r="V102" s="124"/>
+      <c r="W102" s="124"/>
+      <c r="X102" s="124"/>
+      <c r="Y102" s="124"/>
+      <c r="Z102" s="124"/>
+      <c r="AA102" s="124"/>
+      <c r="AB102" s="124"/>
+      <c r="AC102" s="124"/>
+      <c r="AD102" s="124"/>
+      <c r="AE102" s="124"/>
+      <c r="AF102" s="124"/>
     </row>
     <row r="103" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F103" s="125"/>
-      <c r="G103" s="125"/>
-      <c r="H103" s="125"/>
-      <c r="I103" s="125"/>
-      <c r="J103" s="126"/>
-      <c r="K103" s="126"/>
-      <c r="L103" s="126"/>
-      <c r="M103" s="126"/>
-      <c r="N103" s="126"/>
-      <c r="O103" s="126"/>
-      <c r="P103" s="126"/>
-      <c r="Q103" s="126"/>
-      <c r="R103" s="126"/>
-      <c r="S103" s="126"/>
-      <c r="T103" s="126"/>
-      <c r="U103" s="126"/>
-      <c r="V103" s="126"/>
-      <c r="W103" s="126"/>
-      <c r="X103" s="126"/>
-      <c r="Y103" s="126"/>
-      <c r="Z103" s="126"/>
-      <c r="AA103" s="126"/>
-      <c r="AB103" s="126"/>
-      <c r="AC103" s="126"/>
-      <c r="AD103" s="126"/>
-      <c r="AE103" s="126"/>
-      <c r="AF103" s="126"/>
+      <c r="F103" s="123"/>
+      <c r="G103" s="123"/>
+      <c r="H103" s="123"/>
+      <c r="I103" s="123"/>
+      <c r="J103" s="124"/>
+      <c r="K103" s="124"/>
+      <c r="L103" s="124"/>
+      <c r="M103" s="124"/>
+      <c r="N103" s="124"/>
+      <c r="O103" s="124"/>
+      <c r="P103" s="124"/>
+      <c r="Q103" s="124"/>
+      <c r="R103" s="124"/>
+      <c r="S103" s="124"/>
+      <c r="T103" s="124"/>
+      <c r="U103" s="124"/>
+      <c r="V103" s="124"/>
+      <c r="W103" s="124"/>
+      <c r="X103" s="124"/>
+      <c r="Y103" s="124"/>
+      <c r="Z103" s="124"/>
+      <c r="AA103" s="124"/>
+      <c r="AB103" s="124"/>
+      <c r="AC103" s="124"/>
+      <c r="AD103" s="124"/>
+      <c r="AE103" s="124"/>
+      <c r="AF103" s="124"/>
     </row>
     <row r="104" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F104" s="125"/>
-      <c r="G104" s="125"/>
-      <c r="H104" s="125"/>
-      <c r="I104" s="125"/>
-      <c r="J104" s="126"/>
-      <c r="K104" s="126"/>
-      <c r="L104" s="126"/>
-      <c r="M104" s="126"/>
-      <c r="N104" s="126"/>
-      <c r="O104" s="126"/>
-      <c r="P104" s="126"/>
-      <c r="Q104" s="126"/>
-      <c r="R104" s="126"/>
-      <c r="S104" s="126"/>
-      <c r="T104" s="126"/>
-      <c r="U104" s="126"/>
-      <c r="V104" s="126"/>
-      <c r="W104" s="126"/>
-      <c r="X104" s="126"/>
-      <c r="Y104" s="126"/>
-      <c r="Z104" s="126"/>
-      <c r="AA104" s="126"/>
-      <c r="AB104" s="126"/>
-      <c r="AC104" s="126"/>
-      <c r="AD104" s="126"/>
-      <c r="AE104" s="126"/>
-      <c r="AF104" s="126"/>
+      <c r="F104" s="123"/>
+      <c r="G104" s="123"/>
+      <c r="H104" s="123"/>
+      <c r="I104" s="123"/>
+      <c r="J104" s="124"/>
+      <c r="K104" s="124"/>
+      <c r="L104" s="124"/>
+      <c r="M104" s="124"/>
+      <c r="N104" s="124"/>
+      <c r="O104" s="124"/>
+      <c r="P104" s="124"/>
+      <c r="Q104" s="124"/>
+      <c r="R104" s="124"/>
+      <c r="S104" s="124"/>
+      <c r="T104" s="124"/>
+      <c r="U104" s="124"/>
+      <c r="V104" s="124"/>
+      <c r="W104" s="124"/>
+      <c r="X104" s="124"/>
+      <c r="Y104" s="124"/>
+      <c r="Z104" s="124"/>
+      <c r="AA104" s="124"/>
+      <c r="AB104" s="124"/>
+      <c r="AC104" s="124"/>
+      <c r="AD104" s="124"/>
+      <c r="AE104" s="124"/>
+      <c r="AF104" s="124"/>
     </row>
     <row r="105" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F105" s="125"/>
-      <c r="G105" s="125"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="125"/>
-      <c r="J105" s="126"/>
-      <c r="K105" s="126"/>
-      <c r="L105" s="126"/>
-      <c r="M105" s="126"/>
-      <c r="N105" s="126"/>
-      <c r="O105" s="126"/>
-      <c r="P105" s="126"/>
-      <c r="Q105" s="126"/>
-      <c r="R105" s="126"/>
-      <c r="S105" s="126"/>
-      <c r="T105" s="126"/>
-      <c r="U105" s="126"/>
-      <c r="V105" s="126"/>
-      <c r="W105" s="126"/>
-      <c r="X105" s="126"/>
-      <c r="Y105" s="126"/>
-      <c r="Z105" s="126"/>
-      <c r="AA105" s="126"/>
-      <c r="AB105" s="126"/>
-      <c r="AC105" s="126"/>
-      <c r="AD105" s="126"/>
-      <c r="AE105" s="126"/>
-      <c r="AF105" s="126"/>
+      <c r="F105" s="123"/>
+      <c r="G105" s="123"/>
+      <c r="H105" s="123"/>
+      <c r="I105" s="123"/>
+      <c r="J105" s="124"/>
+      <c r="K105" s="124"/>
+      <c r="L105" s="124"/>
+      <c r="M105" s="124"/>
+      <c r="N105" s="124"/>
+      <c r="O105" s="124"/>
+      <c r="P105" s="124"/>
+      <c r="Q105" s="124"/>
+      <c r="R105" s="124"/>
+      <c r="S105" s="124"/>
+      <c r="T105" s="124"/>
+      <c r="U105" s="124"/>
+      <c r="V105" s="124"/>
+      <c r="W105" s="124"/>
+      <c r="X105" s="124"/>
+      <c r="Y105" s="124"/>
+      <c r="Z105" s="124"/>
+      <c r="AA105" s="124"/>
+      <c r="AB105" s="124"/>
+      <c r="AC105" s="124"/>
+      <c r="AD105" s="124"/>
+      <c r="AE105" s="124"/>
+      <c r="AF105" s="124"/>
     </row>
     <row r="106" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F106" s="125"/>
-      <c r="G106" s="125"/>
-      <c r="H106" s="125"/>
-      <c r="I106" s="125"/>
-      <c r="J106" s="126"/>
-      <c r="K106" s="126"/>
-      <c r="L106" s="126"/>
-      <c r="M106" s="126"/>
-      <c r="N106" s="126"/>
-      <c r="O106" s="126"/>
-      <c r="P106" s="126"/>
-      <c r="Q106" s="126"/>
-      <c r="R106" s="126"/>
-      <c r="S106" s="126"/>
-      <c r="T106" s="126"/>
-      <c r="U106" s="126"/>
-      <c r="V106" s="126"/>
-      <c r="W106" s="126"/>
-      <c r="X106" s="126"/>
-      <c r="Y106" s="126"/>
-      <c r="Z106" s="126"/>
-      <c r="AA106" s="126"/>
-      <c r="AB106" s="126"/>
-      <c r="AC106" s="126"/>
-      <c r="AD106" s="126"/>
-      <c r="AE106" s="126"/>
-      <c r="AF106" s="126"/>
+      <c r="F106" s="123"/>
+      <c r="G106" s="123"/>
+      <c r="H106" s="123"/>
+      <c r="I106" s="123"/>
+      <c r="J106" s="124"/>
+      <c r="K106" s="124"/>
+      <c r="L106" s="124"/>
+      <c r="M106" s="124"/>
+      <c r="N106" s="124"/>
+      <c r="O106" s="124"/>
+      <c r="P106" s="124"/>
+      <c r="Q106" s="124"/>
+      <c r="R106" s="124"/>
+      <c r="S106" s="124"/>
+      <c r="T106" s="124"/>
+      <c r="U106" s="124"/>
+      <c r="V106" s="124"/>
+      <c r="W106" s="124"/>
+      <c r="X106" s="124"/>
+      <c r="Y106" s="124"/>
+      <c r="Z106" s="124"/>
+      <c r="AA106" s="124"/>
+      <c r="AB106" s="124"/>
+      <c r="AC106" s="124"/>
+      <c r="AD106" s="124"/>
+      <c r="AE106" s="124"/>
+      <c r="AF106" s="124"/>
     </row>
     <row r="107" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F107" s="125"/>
-      <c r="G107" s="125"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="125"/>
-      <c r="J107" s="126"/>
-      <c r="K107" s="126"/>
-      <c r="L107" s="126"/>
-      <c r="M107" s="126"/>
-      <c r="N107" s="126"/>
-      <c r="O107" s="126"/>
-      <c r="P107" s="126"/>
-      <c r="Q107" s="126"/>
-      <c r="R107" s="126"/>
-      <c r="S107" s="126"/>
-      <c r="T107" s="126"/>
-      <c r="U107" s="126"/>
-      <c r="V107" s="126"/>
-      <c r="W107" s="126"/>
-      <c r="X107" s="126"/>
-      <c r="Y107" s="126"/>
-      <c r="Z107" s="126"/>
-      <c r="AA107" s="126"/>
-      <c r="AB107" s="126"/>
-      <c r="AC107" s="126"/>
-      <c r="AD107" s="126"/>
-      <c r="AE107" s="126"/>
-      <c r="AF107" s="126"/>
+      <c r="F107" s="123"/>
+      <c r="G107" s="123"/>
+      <c r="H107" s="123"/>
+      <c r="I107" s="123"/>
+      <c r="J107" s="124"/>
+      <c r="K107" s="124"/>
+      <c r="L107" s="124"/>
+      <c r="M107" s="124"/>
+      <c r="N107" s="124"/>
+      <c r="O107" s="124"/>
+      <c r="P107" s="124"/>
+      <c r="Q107" s="124"/>
+      <c r="R107" s="124"/>
+      <c r="S107" s="124"/>
+      <c r="T107" s="124"/>
+      <c r="U107" s="124"/>
+      <c r="V107" s="124"/>
+      <c r="W107" s="124"/>
+      <c r="X107" s="124"/>
+      <c r="Y107" s="124"/>
+      <c r="Z107" s="124"/>
+      <c r="AA107" s="124"/>
+      <c r="AB107" s="124"/>
+      <c r="AC107" s="124"/>
+      <c r="AD107" s="124"/>
+      <c r="AE107" s="124"/>
+      <c r="AF107" s="124"/>
     </row>
     <row r="108" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F108" s="125"/>
-      <c r="G108" s="125"/>
-      <c r="H108" s="125"/>
-      <c r="I108" s="125"/>
-      <c r="J108" s="126"/>
-      <c r="K108" s="126"/>
-      <c r="L108" s="126"/>
-      <c r="M108" s="126"/>
-      <c r="N108" s="126"/>
-      <c r="O108" s="126"/>
-      <c r="P108" s="126"/>
-      <c r="Q108" s="126"/>
-      <c r="R108" s="126"/>
-      <c r="S108" s="126"/>
-      <c r="T108" s="126"/>
-      <c r="U108" s="126"/>
-      <c r="V108" s="126"/>
-      <c r="W108" s="126"/>
-      <c r="X108" s="126"/>
-      <c r="Y108" s="126"/>
-      <c r="Z108" s="126"/>
-      <c r="AA108" s="126"/>
-      <c r="AB108" s="126"/>
-      <c r="AC108" s="126"/>
-      <c r="AD108" s="126"/>
-      <c r="AE108" s="126"/>
-      <c r="AF108" s="126"/>
+      <c r="F108" s="123"/>
+      <c r="G108" s="123"/>
+      <c r="H108" s="123"/>
+      <c r="I108" s="123"/>
+      <c r="J108" s="124"/>
+      <c r="K108" s="124"/>
+      <c r="L108" s="124"/>
+      <c r="M108" s="124"/>
+      <c r="N108" s="124"/>
+      <c r="O108" s="124"/>
+      <c r="P108" s="124"/>
+      <c r="Q108" s="124"/>
+      <c r="R108" s="124"/>
+      <c r="S108" s="124"/>
+      <c r="T108" s="124"/>
+      <c r="U108" s="124"/>
+      <c r="V108" s="124"/>
+      <c r="W108" s="124"/>
+      <c r="X108" s="124"/>
+      <c r="Y108" s="124"/>
+      <c r="Z108" s="124"/>
+      <c r="AA108" s="124"/>
+      <c r="AB108" s="124"/>
+      <c r="AC108" s="124"/>
+      <c r="AD108" s="124"/>
+      <c r="AE108" s="124"/>
+      <c r="AF108" s="124"/>
     </row>
     <row r="109" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F109" s="125"/>
-      <c r="G109" s="125"/>
-      <c r="H109" s="125"/>
-      <c r="I109" s="125"/>
-      <c r="J109" s="126"/>
-      <c r="K109" s="126"/>
-      <c r="L109" s="126"/>
-      <c r="M109" s="126"/>
-      <c r="N109" s="126"/>
-      <c r="O109" s="126"/>
-      <c r="P109" s="126"/>
-      <c r="Q109" s="126"/>
-      <c r="R109" s="126"/>
-      <c r="S109" s="126"/>
-      <c r="T109" s="126"/>
-      <c r="U109" s="126"/>
-      <c r="V109" s="126"/>
-      <c r="W109" s="126"/>
-      <c r="X109" s="126"/>
-      <c r="Y109" s="126"/>
-      <c r="Z109" s="126"/>
-      <c r="AA109" s="126"/>
-      <c r="AB109" s="126"/>
-      <c r="AC109" s="126"/>
-      <c r="AD109" s="126"/>
-      <c r="AE109" s="126"/>
-      <c r="AF109" s="126"/>
+      <c r="F109" s="123"/>
+      <c r="G109" s="123"/>
+      <c r="H109" s="123"/>
+      <c r="I109" s="123"/>
+      <c r="J109" s="124"/>
+      <c r="K109" s="124"/>
+      <c r="L109" s="124"/>
+      <c r="M109" s="124"/>
+      <c r="N109" s="124"/>
+      <c r="O109" s="124"/>
+      <c r="P109" s="124"/>
+      <c r="Q109" s="124"/>
+      <c r="R109" s="124"/>
+      <c r="S109" s="124"/>
+      <c r="T109" s="124"/>
+      <c r="U109" s="124"/>
+      <c r="V109" s="124"/>
+      <c r="W109" s="124"/>
+      <c r="X109" s="124"/>
+      <c r="Y109" s="124"/>
+      <c r="Z109" s="124"/>
+      <c r="AA109" s="124"/>
+      <c r="AB109" s="124"/>
+      <c r="AC109" s="124"/>
+      <c r="AD109" s="124"/>
+      <c r="AE109" s="124"/>
+      <c r="AF109" s="124"/>
     </row>
     <row r="110" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F110" s="125"/>
-      <c r="G110" s="125"/>
-      <c r="H110" s="125"/>
-      <c r="I110" s="125"/>
-      <c r="J110" s="126"/>
-      <c r="K110" s="126"/>
-      <c r="L110" s="126"/>
-      <c r="M110" s="126"/>
-      <c r="N110" s="126"/>
-      <c r="O110" s="126"/>
-      <c r="P110" s="126"/>
-      <c r="Q110" s="126"/>
-      <c r="R110" s="126"/>
-      <c r="S110" s="126"/>
-      <c r="T110" s="126"/>
-      <c r="U110" s="126"/>
-      <c r="V110" s="126"/>
-      <c r="W110" s="126"/>
-      <c r="X110" s="126"/>
-      <c r="Y110" s="126"/>
-      <c r="Z110" s="126"/>
-      <c r="AA110" s="126"/>
-      <c r="AB110" s="126"/>
-      <c r="AC110" s="126"/>
-      <c r="AD110" s="126"/>
-      <c r="AE110" s="126"/>
-      <c r="AF110" s="126"/>
+      <c r="F110" s="123"/>
+      <c r="G110" s="123"/>
+      <c r="H110" s="123"/>
+      <c r="I110" s="123"/>
+      <c r="J110" s="124"/>
+      <c r="K110" s="124"/>
+      <c r="L110" s="124"/>
+      <c r="M110" s="124"/>
+      <c r="N110" s="124"/>
+      <c r="O110" s="124"/>
+      <c r="P110" s="124"/>
+      <c r="Q110" s="124"/>
+      <c r="R110" s="124"/>
+      <c r="S110" s="124"/>
+      <c r="T110" s="124"/>
+      <c r="U110" s="124"/>
+      <c r="V110" s="124"/>
+      <c r="W110" s="124"/>
+      <c r="X110" s="124"/>
+      <c r="Y110" s="124"/>
+      <c r="Z110" s="124"/>
+      <c r="AA110" s="124"/>
+      <c r="AB110" s="124"/>
+      <c r="AC110" s="124"/>
+      <c r="AD110" s="124"/>
+      <c r="AE110" s="124"/>
+      <c r="AF110" s="124"/>
     </row>
     <row r="111" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F111" s="125"/>
-      <c r="G111" s="125"/>
-      <c r="H111" s="125"/>
-      <c r="I111" s="125"/>
-      <c r="J111" s="126"/>
-      <c r="K111" s="126"/>
-      <c r="L111" s="126"/>
-      <c r="M111" s="126"/>
-      <c r="N111" s="126"/>
-      <c r="O111" s="126"/>
-      <c r="P111" s="126"/>
-      <c r="Q111" s="126"/>
-      <c r="R111" s="126"/>
-      <c r="S111" s="126"/>
-      <c r="T111" s="126"/>
-      <c r="U111" s="126"/>
-      <c r="V111" s="126"/>
-      <c r="W111" s="126"/>
-      <c r="X111" s="126"/>
-      <c r="Y111" s="126"/>
-      <c r="Z111" s="126"/>
-      <c r="AA111" s="126"/>
-      <c r="AB111" s="126"/>
-      <c r="AC111" s="126"/>
-      <c r="AD111" s="126"/>
-      <c r="AE111" s="126"/>
-      <c r="AF111" s="126"/>
+      <c r="F111" s="123"/>
+      <c r="G111" s="123"/>
+      <c r="H111" s="123"/>
+      <c r="I111" s="123"/>
+      <c r="J111" s="124"/>
+      <c r="K111" s="124"/>
+      <c r="L111" s="124"/>
+      <c r="M111" s="124"/>
+      <c r="N111" s="124"/>
+      <c r="O111" s="124"/>
+      <c r="P111" s="124"/>
+      <c r="Q111" s="124"/>
+      <c r="R111" s="124"/>
+      <c r="S111" s="124"/>
+      <c r="T111" s="124"/>
+      <c r="U111" s="124"/>
+      <c r="V111" s="124"/>
+      <c r="W111" s="124"/>
+      <c r="X111" s="124"/>
+      <c r="Y111" s="124"/>
+      <c r="Z111" s="124"/>
+      <c r="AA111" s="124"/>
+      <c r="AB111" s="124"/>
+      <c r="AC111" s="124"/>
+      <c r="AD111" s="124"/>
+      <c r="AE111" s="124"/>
+      <c r="AF111" s="124"/>
     </row>
     <row r="112" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F112" s="125"/>
-      <c r="G112" s="125"/>
-      <c r="H112" s="125"/>
-      <c r="I112" s="125"/>
-      <c r="J112" s="126"/>
-      <c r="K112" s="126"/>
-      <c r="L112" s="126"/>
-      <c r="M112" s="126"/>
-      <c r="N112" s="126"/>
-      <c r="O112" s="126"/>
-      <c r="P112" s="126"/>
-      <c r="Q112" s="126"/>
-      <c r="R112" s="126"/>
-      <c r="S112" s="126"/>
-      <c r="T112" s="126"/>
-      <c r="U112" s="126"/>
-      <c r="V112" s="126"/>
-      <c r="W112" s="126"/>
-      <c r="X112" s="126"/>
-      <c r="Y112" s="126"/>
-      <c r="Z112" s="126"/>
-      <c r="AA112" s="126"/>
-      <c r="AB112" s="126"/>
-      <c r="AC112" s="126"/>
-      <c r="AD112" s="126"/>
-      <c r="AE112" s="126"/>
-      <c r="AF112" s="126"/>
+      <c r="F112" s="123"/>
+      <c r="G112" s="123"/>
+      <c r="H112" s="123"/>
+      <c r="I112" s="123"/>
+      <c r="J112" s="124"/>
+      <c r="K112" s="124"/>
+      <c r="L112" s="124"/>
+      <c r="M112" s="124"/>
+      <c r="N112" s="124"/>
+      <c r="O112" s="124"/>
+      <c r="P112" s="124"/>
+      <c r="Q112" s="124"/>
+      <c r="R112" s="124"/>
+      <c r="S112" s="124"/>
+      <c r="T112" s="124"/>
+      <c r="U112" s="124"/>
+      <c r="V112" s="124"/>
+      <c r="W112" s="124"/>
+      <c r="X112" s="124"/>
+      <c r="Y112" s="124"/>
+      <c r="Z112" s="124"/>
+      <c r="AA112" s="124"/>
+      <c r="AB112" s="124"/>
+      <c r="AC112" s="124"/>
+      <c r="AD112" s="124"/>
+      <c r="AE112" s="124"/>
+      <c r="AF112" s="124"/>
     </row>
     <row r="113" spans="6:32" x14ac:dyDescent="0.25">
-      <c r="F113" s="125"/>
-      <c r="G113" s="125"/>
-      <c r="H113" s="125"/>
-      <c r="I113" s="125"/>
-      <c r="J113" s="126"/>
-      <c r="K113" s="126"/>
-      <c r="L113" s="126"/>
-      <c r="M113" s="126"/>
-      <c r="N113" s="126"/>
-      <c r="O113" s="126"/>
-      <c r="P113" s="126"/>
-      <c r="Q113" s="126"/>
-      <c r="R113" s="126"/>
-      <c r="S113" s="126"/>
-      <c r="T113" s="126"/>
-      <c r="U113" s="126"/>
-      <c r="V113" s="126"/>
-      <c r="W113" s="126"/>
-      <c r="X113" s="126"/>
-      <c r="Y113" s="126"/>
-      <c r="Z113" s="126"/>
-      <c r="AA113" s="126"/>
-      <c r="AB113" s="126"/>
-      <c r="AC113" s="126"/>
-      <c r="AD113" s="126"/>
-      <c r="AE113" s="126"/>
-      <c r="AF113" s="126"/>
+      <c r="F113" s="123"/>
+      <c r="G113" s="123"/>
+      <c r="H113" s="123"/>
+      <c r="I113" s="123"/>
+      <c r="J113" s="124"/>
+      <c r="K113" s="124"/>
+      <c r="L113" s="124"/>
+      <c r="M113" s="124"/>
+      <c r="N113" s="124"/>
+      <c r="O113" s="124"/>
+      <c r="P113" s="124"/>
+      <c r="Q113" s="124"/>
+      <c r="R113" s="124"/>
+      <c r="S113" s="124"/>
+      <c r="T113" s="124"/>
+      <c r="U113" s="124"/>
+      <c r="V113" s="124"/>
+      <c r="W113" s="124"/>
+      <c r="X113" s="124"/>
+      <c r="Y113" s="124"/>
+      <c r="Z113" s="124"/>
+      <c r="AA113" s="124"/>
+      <c r="AB113" s="124"/>
+      <c r="AC113" s="124"/>
+      <c r="AD113" s="124"/>
+      <c r="AE113" s="124"/>
+      <c r="AF113" s="124"/>
     </row>
     <row r="126" spans="6:32" x14ac:dyDescent="0.25">
       <c r="K126" s="70" t="s">
@@ -7012,10 +7015,10 @@
       <c r="T126" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="U126" s="116" t="s">
+      <c r="U126" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="V126" s="117" t="s">
+      <c r="V126" s="115" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7550,107 +7553,107 @@
       </c>
     </row>
     <row r="137" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J137" s="118" t="s">
+      <c r="J137" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="K137" s="112" t="str">
+      <c r="K137" s="110" t="str">
         <f t="shared" si="9"/>
         <v>ni</v>
       </c>
-      <c r="L137" s="113" t="str">
+      <c r="L137" s="111" t="str">
         <f t="shared" si="9"/>
         <v>ne</v>
       </c>
-      <c r="M137" s="112" t="str">
+      <c r="M137" s="110" t="str">
         <f t="shared" si="9"/>
         <v>ny</v>
       </c>
-      <c r="N137" s="114" t="str">
+      <c r="N137" s="112" t="str">
         <f t="shared" si="9"/>
         <v>nø</v>
       </c>
-      <c r="O137" s="113" t="str">
+      <c r="O137" s="111" t="str">
         <f t="shared" si="9"/>
         <v>nɑ</v>
       </c>
-      <c r="P137" s="113" t="str">
+      <c r="P137" s="111" t="str">
         <f t="shared" si="9"/>
         <v>nɛ</v>
       </c>
-      <c r="Q137" s="114" t="str">
+      <c r="Q137" s="112" t="str">
         <f t="shared" si="9"/>
         <v>na</v>
       </c>
-      <c r="R137" s="113" t="str">
+      <c r="R137" s="111" t="str">
         <f t="shared" si="9"/>
         <v>nɔ</v>
       </c>
-      <c r="S137" s="113" t="str">
+      <c r="S137" s="111" t="str">
         <f t="shared" si="9"/>
         <v>nʉ</v>
       </c>
-      <c r="T137" s="114" t="str">
+      <c r="T137" s="112" t="str">
         <f t="shared" si="9"/>
         <v>nu</v>
       </c>
-      <c r="U137" s="112" t="str">
+      <c r="U137" s="110" t="str">
         <f t="shared" si="9"/>
         <v>nn</v>
       </c>
-      <c r="V137" s="114" t="str">
+      <c r="V137" s="112" t="str">
         <f t="shared" si="9"/>
         <v>nm</v>
       </c>
     </row>
     <row r="138" spans="10:22" x14ac:dyDescent="0.25">
-      <c r="J138" s="119" t="s">
+      <c r="J138" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="K138" s="111" t="str">
+      <c r="K138" s="109" t="str">
         <f t="shared" si="9"/>
         <v>mi</v>
       </c>
-      <c r="L138" s="115" t="str">
+      <c r="L138" s="113" t="str">
         <f t="shared" si="9"/>
         <v>me</v>
       </c>
-      <c r="M138" s="111" t="str">
+      <c r="M138" s="109" t="str">
         <f t="shared" si="9"/>
         <v>my</v>
       </c>
-      <c r="N138" s="109" t="str">
+      <c r="N138" s="108" t="str">
         <f t="shared" si="9"/>
         <v>mø</v>
       </c>
-      <c r="O138" s="115" t="str">
+      <c r="O138" s="113" t="str">
         <f t="shared" si="9"/>
         <v>mɑ</v>
       </c>
-      <c r="P138" s="115" t="str">
+      <c r="P138" s="113" t="str">
         <f t="shared" si="9"/>
         <v>mɛ</v>
       </c>
-      <c r="Q138" s="109" t="str">
+      <c r="Q138" s="108" t="str">
         <f t="shared" si="9"/>
         <v>ma</v>
       </c>
-      <c r="R138" s="115" t="str">
+      <c r="R138" s="113" t="str">
         <f t="shared" si="9"/>
         <v>mɔ</v>
       </c>
-      <c r="S138" s="115" t="str">
+      <c r="S138" s="113" t="str">
         <f t="shared" si="9"/>
         <v>mʉ</v>
       </c>
-      <c r="T138" s="109" t="str">
+      <c r="T138" s="108" t="str">
         <f t="shared" si="9"/>
         <v>mu</v>
       </c>
-      <c r="U138" s="111" t="str">
+      <c r="U138" s="109" t="str">
         <f t="shared" si="9"/>
         <v>mn</v>
       </c>
-      <c r="V138" s="109" t="str">
+      <c r="V138" s="108" t="str">
         <f t="shared" si="9"/>
         <v>mm</v>
       </c>
@@ -7677,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:T96"/>
   <sheetViews>
-    <sheetView topLeftCell="C57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7774,21 +7777,21 @@
       <c r="D26" s="27"/>
       <c r="F26" s="27"/>
       <c r="J26" s="97"/>
-      <c r="K26" s="101" t="s">
+      <c r="K26" s="100" t="s">
         <v>221</v>
       </c>
-      <c r="L26" s="102"/>
-      <c r="M26" s="101" t="s">
+      <c r="L26" s="101"/>
+      <c r="M26" s="100" t="s">
         <v>222</v>
       </c>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="101" t="s">
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
@@ -7802,7 +7805,7 @@
         <v>147</v>
       </c>
       <c r="L27" s="33"/>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="134" t="s">
         <v>223</v>
       </c>
       <c r="N27" s="40"/>
@@ -7826,7 +7829,7 @@
         <v>149</v>
       </c>
       <c r="L28" s="33"/>
-      <c r="M28" s="40" t="s">
+      <c r="M28" s="134" t="s">
         <v>224</v>
       </c>
       <c r="N28" s="40"/>
@@ -7850,7 +7853,7 @@
         <v>150</v>
       </c>
       <c r="L29" s="33"/>
-      <c r="M29" s="40" t="s">
+      <c r="M29" s="134" t="s">
         <v>225</v>
       </c>
       <c r="N29" s="40"/>
@@ -7874,7 +7877,7 @@
         <v>176</v>
       </c>
       <c r="L30" s="33"/>
-      <c r="M30" s="40" t="s">
+      <c r="M30" s="134" t="s">
         <v>226</v>
       </c>
       <c r="N30" s="40"/>
@@ -7898,7 +7901,7 @@
         <v>148</v>
       </c>
       <c r="L31" s="33"/>
-      <c r="M31" s="40" t="s">
+      <c r="M31" s="134" t="s">
         <v>227</v>
       </c>
       <c r="N31" s="40"/>
@@ -7922,7 +7925,7 @@
         <v>177</v>
       </c>
       <c r="L32" s="33"/>
-      <c r="M32" s="40" t="s">
+      <c r="M32" s="134" t="s">
         <v>228</v>
       </c>
       <c r="N32" s="40"/>
@@ -7943,7 +7946,7 @@
         <v>178</v>
       </c>
       <c r="L33" s="33"/>
-      <c r="M33" s="40" t="s">
+      <c r="M33" s="134" t="s">
         <v>231</v>
       </c>
       <c r="N33" s="40"/>
@@ -7964,7 +7967,7 @@
         <v>179</v>
       </c>
       <c r="L34" s="33"/>
-      <c r="M34" s="40" t="s">
+      <c r="M34" s="134" t="s">
         <v>230</v>
       </c>
       <c r="N34" s="40"/>
@@ -7983,7 +7986,7 @@
         <v>151</v>
       </c>
       <c r="L35" s="35"/>
-      <c r="M35" s="41" t="s">
+      <c r="M35" s="135" t="s">
         <v>229</v>
       </c>
       <c r="N35" s="41"/>
@@ -8021,7 +8024,7 @@
     </row>
     <row r="47" spans="4:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E47" s="28"/>
       <c r="F47" s="28"/>
@@ -8029,7 +8032,7 @@
         <v>182</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="Q47" s="28"/>
       <c r="R47" s="28"/>
@@ -8050,15 +8053,15 @@
         <v>297</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="4:20" x14ac:dyDescent="0.25">
       <c r="K52" t="s">
+        <v>415</v>
+      </c>
+      <c r="M52" t="s">
         <v>416</v>
-      </c>
-      <c r="M52" t="s">
-        <v>417</v>
       </c>
       <c r="P52" s="27"/>
       <c r="R52" s="26" t="s">
@@ -8176,10 +8179,10 @@
     </row>
     <row r="61" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P61" t="s">
         <v>151</v>
@@ -8190,32 +8193,32 @@
     </row>
     <row r="62" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R64" s="26" t="s">
         <v>156</v>
@@ -8223,10 +8226,10 @@
     </row>
     <row r="65" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P65" t="s">
         <v>147</v>
@@ -8240,10 +8243,10 @@
     </row>
     <row r="66" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P66" t="s">
         <v>149</v>
@@ -8260,7 +8263,7 @@
         <v>318</v>
       </c>
       <c r="F67" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P67" t="s">
         <v>150</v>
@@ -8271,7 +8274,7 @@
     </row>
     <row r="68" spans="4:20" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P68" t="s">
         <v>176</v>
@@ -8285,10 +8288,10 @@
     </row>
     <row r="69" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P69" t="s">
         <v>148</v>
@@ -8302,7 +8305,7 @@
     </row>
     <row r="70" spans="4:20" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P70" t="s">
         <v>177</v>
@@ -8310,7 +8313,7 @@
     </row>
     <row r="71" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F71" t="s">
         <v>291</v>
@@ -8321,10 +8324,10 @@
     </row>
     <row r="72" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P72" t="s">
         <v>179</v>
@@ -8349,10 +8352,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:AP49"/>
+  <dimension ref="C6:AP49"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8407,36 +8410,36 @@
       </c>
       <c r="R13" s="96"/>
       <c r="W13" s="58"/>
-      <c r="X13" s="109"/>
+      <c r="X13" s="108"/>
       <c r="Y13" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="Z13" s="108"/>
+      <c r="Z13" s="107"/>
       <c r="AA13" s="96"/>
       <c r="AB13" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="AC13" s="108"/>
+      <c r="AC13" s="107"/>
       <c r="AD13" s="96"/>
       <c r="AE13" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="AF13" s="108"/>
+      <c r="AF13" s="107"/>
       <c r="AG13" s="96"/>
       <c r="AH13" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="AI13" s="108"/>
+      <c r="AI13" s="107"/>
       <c r="AJ13" s="96"/>
       <c r="AK13" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="AL13" s="108"/>
+      <c r="AL13" s="107"/>
       <c r="AM13" s="96"/>
       <c r="AN13" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="AO13" s="108"/>
+      <c r="AO13" s="107"/>
       <c r="AP13" s="96"/>
     </row>
     <row r="14" spans="4:42" x14ac:dyDescent="0.25">
@@ -8460,7 +8463,7 @@
         <v>59</v>
       </c>
       <c r="N14" s="33"/>
-      <c r="O14" s="107" t="s">
+      <c r="O14" s="106" t="s">
         <v>387</v>
       </c>
       <c r="P14" s="33"/>
@@ -8468,25 +8471,25 @@
         <v>59</v>
       </c>
       <c r="R14" s="33"/>
-      <c r="X14" s="106" t="s">
+      <c r="X14" s="105" t="s">
         <v>353</v>
       </c>
-      <c r="Y14" s="106" t="s">
+      <c r="Y14" s="105" t="s">
         <v>359</v>
       </c>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
-      <c r="AB14" s="103"/>
+      <c r="AB14" s="102"/>
       <c r="AC14" s="35"/>
       <c r="AD14" s="35"/>
-      <c r="AE14" s="103"/>
+      <c r="AE14" s="102"/>
       <c r="AF14" s="35"/>
       <c r="AG14" s="35"/>
       <c r="AH14" s="41"/>
-      <c r="AI14" s="103"/>
+      <c r="AI14" s="102"/>
       <c r="AJ14" s="41"/>
       <c r="AK14" s="34"/>
-      <c r="AL14" s="103"/>
+      <c r="AL14" s="102"/>
       <c r="AM14" s="35"/>
       <c r="AN14" s="35"/>
       <c r="AO14" s="35"/>
@@ -8513,7 +8516,7 @@
         <v>59</v>
       </c>
       <c r="N15" s="33"/>
-      <c r="O15" s="107" t="s">
+      <c r="O15" s="106" t="s">
         <v>387</v>
       </c>
       <c r="P15" s="33"/>
@@ -8521,23 +8524,23 @@
         <v>59</v>
       </c>
       <c r="R15" s="33"/>
-      <c r="X15" s="104" t="s">
+      <c r="X15" s="103" t="s">
         <v>354</v>
       </c>
-      <c r="Y15" s="104"/>
+      <c r="Y15" s="103"/>
       <c r="Z15" s="97"/>
       <c r="AA15" s="97"/>
-      <c r="AB15" s="106"/>
+      <c r="AB15" s="105"/>
       <c r="AC15" s="33"/>
       <c r="AD15" s="33"/>
-      <c r="AE15" s="106"/>
+      <c r="AE15" s="105"/>
       <c r="AF15" s="33"/>
       <c r="AG15" s="33"/>
       <c r="AH15" s="40"/>
-      <c r="AI15" s="106"/>
+      <c r="AI15" s="105"/>
       <c r="AJ15" s="40"/>
       <c r="AK15" s="32"/>
-      <c r="AL15" s="106"/>
+      <c r="AL15" s="105"/>
       <c r="AM15" s="33"/>
       <c r="AN15" s="33"/>
       <c r="AO15" s="33"/>
@@ -8564,7 +8567,7 @@
         <v>59</v>
       </c>
       <c r="N16" s="33"/>
-      <c r="O16" s="107" t="s">
+      <c r="O16" s="106" t="s">
         <v>387</v>
       </c>
       <c r="P16" s="33"/>
@@ -8572,116 +8575,117 @@
         <v>307</v>
       </c>
       <c r="R16" s="33"/>
-      <c r="X16" s="106" t="s">
+      <c r="X16" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="Y16" s="106"/>
+      <c r="Y16" s="105"/>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
-      <c r="AB16" s="104"/>
+      <c r="AB16" s="103"/>
       <c r="AC16" s="97"/>
       <c r="AD16" s="97"/>
-      <c r="AE16" s="104"/>
+      <c r="AE16" s="103"/>
       <c r="AF16" s="97"/>
       <c r="AG16" s="97"/>
       <c r="AH16" s="58"/>
-      <c r="AI16" s="104"/>
+      <c r="AI16" s="103"/>
       <c r="AJ16" s="58"/>
       <c r="AK16" s="57"/>
-      <c r="AL16" s="104"/>
+      <c r="AL16" s="103"/>
       <c r="AM16" s="97"/>
       <c r="AN16" s="97"/>
       <c r="AO16" s="97"/>
       <c r="AP16" s="97"/>
     </row>
-    <row r="17" spans="5:42" x14ac:dyDescent="0.25">
-      <c r="E17" s="110" t="s">
-        <v>389</v>
-      </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="74"/>
-      <c r="X17" s="104" t="s">
+    <row r="17" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>431</v>
+      </c>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="X17" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="Y17" s="104" t="s">
+      <c r="Y17" s="103" t="s">
         <v>359</v>
       </c>
       <c r="Z17" s="97"/>
       <c r="AA17" s="97"/>
-      <c r="AB17" s="106"/>
+      <c r="AB17" s="105"/>
       <c r="AC17" s="33"/>
       <c r="AD17" s="33"/>
-      <c r="AE17" s="106"/>
+      <c r="AE17" s="105"/>
       <c r="AF17" s="33"/>
       <c r="AG17" s="33"/>
       <c r="AH17" s="40"/>
-      <c r="AI17" s="106"/>
+      <c r="AI17" s="105"/>
       <c r="AJ17" s="40"/>
       <c r="AK17" s="32"/>
-      <c r="AL17" s="106"/>
+      <c r="AL17" s="105"/>
       <c r="AM17" s="33"/>
       <c r="AN17" s="33"/>
       <c r="AO17" s="33"/>
       <c r="AP17" s="33"/>
     </row>
-    <row r="18" spans="5:42" x14ac:dyDescent="0.25">
-      <c r="X18" s="106" t="s">
+    <row r="18" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="X18" s="105" t="s">
         <v>357</v>
       </c>
-      <c r="Y18" s="106"/>
+      <c r="Y18" s="105"/>
       <c r="Z18" s="33"/>
       <c r="AA18" s="33"/>
-      <c r="AB18" s="106"/>
+      <c r="AB18" s="105"/>
       <c r="AC18" s="33"/>
       <c r="AD18" s="33"/>
-      <c r="AE18" s="106"/>
+      <c r="AE18" s="105"/>
       <c r="AF18" s="33"/>
       <c r="AG18" s="33"/>
       <c r="AH18" s="40"/>
-      <c r="AI18" s="106"/>
+      <c r="AI18" s="105"/>
       <c r="AJ18" s="40"/>
       <c r="AK18" s="32"/>
-      <c r="AL18" s="106"/>
+      <c r="AL18" s="105"/>
       <c r="AM18" s="33"/>
       <c r="AN18" s="33"/>
       <c r="AO18" s="33"/>
       <c r="AP18" s="33"/>
     </row>
-    <row r="19" spans="5:42" x14ac:dyDescent="0.25">
-      <c r="X19" s="105" t="s">
+    <row r="19" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="X19" s="104" t="s">
         <v>358</v>
       </c>
-      <c r="Y19" s="105"/>
+      <c r="Y19" s="104"/>
       <c r="Z19" s="74"/>
       <c r="AA19" s="74"/>
-      <c r="AB19" s="105"/>
+      <c r="AB19" s="104"/>
       <c r="AC19" s="74"/>
       <c r="AD19" s="74"/>
-      <c r="AE19" s="105"/>
+      <c r="AE19" s="104"/>
       <c r="AF19" s="74"/>
       <c r="AG19" s="74"/>
       <c r="AH19" s="54"/>
-      <c r="AI19" s="105"/>
+      <c r="AI19" s="104"/>
       <c r="AJ19" s="54"/>
       <c r="AK19" s="59"/>
-      <c r="AL19" s="105"/>
+      <c r="AL19" s="104"/>
       <c r="AM19" s="74"/>
       <c r="AN19" s="74"/>
       <c r="AO19" s="74"/>
       <c r="AP19" s="74"/>
     </row>
-    <row r="20" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:42" x14ac:dyDescent="0.25">
       <c r="F20" s="94" t="s">
         <v>386</v>
       </c>
@@ -8710,12 +8714,12 @@
       </c>
       <c r="R20" s="96"/>
     </row>
-    <row r="21" spans="5:42" x14ac:dyDescent="0.25">
-      <c r="F21" s="106" t="s">
+    <row r="21" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F21" s="105" t="s">
         <v>353</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="34"/>
@@ -8729,8 +8733,8 @@
       <c r="Q21" s="41"/>
       <c r="R21" s="35"/>
     </row>
-    <row r="22" spans="5:42" x14ac:dyDescent="0.25">
-      <c r="F22" s="104" t="s">
+    <row r="22" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F22" s="103" t="s">
         <v>354</v>
       </c>
       <c r="G22" s="58"/>
@@ -8746,8 +8750,8 @@
       <c r="Q22" s="40"/>
       <c r="R22" s="33"/>
     </row>
-    <row r="23" spans="5:42" x14ac:dyDescent="0.25">
-      <c r="F23" s="106" t="s">
+    <row r="23" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F23" s="105" t="s">
         <v>355</v>
       </c>
       <c r="G23" s="40"/>
@@ -8763,8 +8767,8 @@
       <c r="Q23" s="58"/>
       <c r="R23" s="97"/>
     </row>
-    <row r="24" spans="5:42" x14ac:dyDescent="0.25">
-      <c r="F24" s="104" t="s">
+    <row r="24" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F24" s="103" t="s">
         <v>356</v>
       </c>
       <c r="G24" s="58" t="s">
@@ -8782,8 +8786,8 @@
       <c r="Q24" s="40"/>
       <c r="R24" s="33"/>
     </row>
-    <row r="25" spans="5:42" x14ac:dyDescent="0.25">
-      <c r="F25" s="106" t="s">
+    <row r="25" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F25" s="105" t="s">
         <v>357</v>
       </c>
       <c r="G25" s="40"/>
@@ -8799,8 +8803,8 @@
       <c r="Q25" s="40"/>
       <c r="R25" s="33"/>
     </row>
-    <row r="26" spans="5:42" x14ac:dyDescent="0.25">
-      <c r="F26" s="105" t="s">
+    <row r="26" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F26" s="104" t="s">
         <v>358</v>
       </c>
       <c r="G26" s="54"/>
@@ -8816,14 +8820,14 @@
       <c r="Q26" s="54"/>
       <c r="R26" s="74"/>
     </row>
-    <row r="32" spans="5:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H35" t="s">
         <v>364</v>
@@ -8897,13 +8901,13 @@
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H49" t="s">
+        <v>419</v>
+      </c>
+      <c r="J49" t="s">
         <v>420</v>
-      </c>
-      <c r="J49" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -8916,7 +8920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -8949,7 +8953,7 @@
         <v>276</v>
       </c>
       <c r="R16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
@@ -8974,7 +8978,7 @@
       </c>
       <c r="P17" s="39"/>
       <c r="R17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8990,11 +8994,11 @@
       </c>
       <c r="N18" s="35"/>
       <c r="O18" s="41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P18" s="35"/>
       <c r="R18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
@@ -9017,7 +9021,7 @@
       <c r="O19" s="45"/>
       <c r="P19" s="46"/>
       <c r="R19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
@@ -9040,7 +9044,7 @@
       <c r="O20" s="32"/>
       <c r="P20" s="48"/>
       <c r="R20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
@@ -9164,12 +9168,12 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D32" s="100" t="s">
-        <v>431</v>
+      <c r="D32" s="99" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/Aia/Lang/Derotic/Drotic.xlsx
+++ b/Aia/Lang/Derotic/Drotic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="569">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -581,9 +581,6 @@
   </si>
   <si>
     <t>Diminuative</t>
-  </si>
-  <si>
-    <t>Battlefield</t>
   </si>
   <si>
     <t>Ghost</t>
@@ -1221,15 +1218,6 @@
     <t>˩˧</t>
   </si>
   <si>
-    <t>˧˥et</t>
-  </si>
-  <si>
-    <t>˥˩et</t>
-  </si>
-  <si>
-    <t>eθ</t>
-  </si>
-  <si>
     <t>θ:ăð</t>
   </si>
   <si>
@@ -1368,9 +1356,6 @@
     <t>FULL</t>
   </si>
   <si>
-    <t>LEXICON OF MORPHEMS</t>
-  </si>
-  <si>
     <t>place</t>
   </si>
   <si>
@@ -1449,9 +1434,6 @@
     <t>stream</t>
   </si>
   <si>
-    <t>dirt river</t>
-  </si>
-  <si>
     <t>nam</t>
   </si>
   <si>
@@ -1498,13 +1480,439 @@
   </si>
   <si>
     <t>a:d</t>
+  </si>
+  <si>
+    <t>Battlefield, graveyard</t>
+  </si>
+  <si>
+    <t>naɔ</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>bush</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>apparatus</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>attraction</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>base, foundation</t>
+  </si>
+  <si>
+    <t>behavior</t>
+  </si>
+  <si>
+    <t>belief</t>
+  </si>
+  <si>
+    <t>creation, birth</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>chalk</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country </t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>harbor</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>WORDS</t>
+  </si>
+  <si>
+    <t>Words</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>insect</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>punishment</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>servant</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>silk</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>dimma</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>bell</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>ðø:</t>
+  </si>
+  <si>
+    <t>organisation;place</t>
+  </si>
+  <si>
+    <t>˥˩iø:ð</t>
+  </si>
+  <si>
+    <t>WORLD NOUNS</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>river;place</t>
+  </si>
+  <si>
+    <t>riverdelta</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>river;abstract</t>
+  </si>
+  <si>
+    <t>war;place</t>
+  </si>
+  <si>
+    <t>river;tool</t>
+  </si>
+  <si>
+    <t>river;animal</t>
+  </si>
+  <si>
+    <t>pure river</t>
+  </si>
+  <si>
+    <t>purity</t>
+  </si>
+  <si>
+    <t>ɾɛiŋ</t>
+  </si>
+  <si>
+    <t>ɾɛiŋa</t>
+  </si>
+  <si>
+    <t>church, place of worchip</t>
+  </si>
+  <si>
+    <t>ɾɛiŋam</t>
+  </si>
+  <si>
+    <t>GRAMATICAL NUMBER</t>
+  </si>
+  <si>
+    <t>()˥˩et</t>
+  </si>
+  <si>
+    <t>()˧˥et</t>
+  </si>
+  <si>
+    <t>()eθ</t>
+  </si>
+  <si>
+    <t>aw ɾɛiŋ</t>
+  </si>
+  <si>
+    <t>pure water</t>
+  </si>
+  <si>
+    <t>purity;tool</t>
+  </si>
+  <si>
+    <t>ɾɛiŋʔr</t>
+  </si>
+  <si>
+    <t>DEFFINITIVE (like the)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1635,8 +2043,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1688,6 +2103,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2214,7 +2641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2387,10 +2814,31 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,30 +2859,30 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -2775,15 +3223,15 @@
         <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
@@ -2796,23 +3244,23 @@
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F12" t="s">
         <v>154</v>
@@ -2839,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:V78"/>
   <sheetViews>
-    <sheetView topLeftCell="B59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView topLeftCell="D52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,66 +3306,66 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="136" t="s">
+      <c r="N3" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="147" t="s">
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="147" t="s">
+      <c r="S3" s="137"/>
+      <c r="T3" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="148"/>
+      <c r="U3" s="137"/>
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="147" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="147" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="140" t="s">
+      <c r="K4" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="140" t="s">
+      <c r="L4" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="136" t="s">
+      <c r="N4" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="137"/>
-      <c r="P4" s="136" t="s">
+      <c r="O4" s="141"/>
+      <c r="P4" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="150"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="139"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="141"/>
+      <c r="G5" s="148"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="148"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -2945,10 +3393,10 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="137"/>
+      <c r="H6" s="141"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2984,7 +3432,7 @@
       </c>
     </row>
     <row r="7" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="147" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -3001,19 +3449,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="144" t="s">
+      <c r="O7" s="142" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="144" t="s">
+      <c r="Q7" s="142" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="144" t="s">
+      <c r="S7" s="142" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -3023,28 +3471,28 @@
       </c>
     </row>
     <row r="8" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="141"/>
+      <c r="G8" s="148"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="142" t="s">
+      <c r="I8" s="149" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="142" t="s">
+      <c r="K8" s="149" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
       <c r="N8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="146"/>
+      <c r="O8" s="143"/>
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="146"/>
+      <c r="Q8" s="143"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="146"/>
+      <c r="S8" s="143"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
         <v>57</v>
@@ -3052,25 +3500,25 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="136" t="s">
+      <c r="G9" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="142" t="s">
+      <c r="H9" s="141"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="143"/>
-      <c r="L9" s="144" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="142" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="138"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="138"/>
-      <c r="R9" s="139"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="146"/>
       <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
@@ -3081,19 +3529,19 @@
       </c>
     </row>
     <row r="10" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="147" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="143"/>
+      <c r="J10" s="150"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="145"/>
+      <c r="L10" s="151"/>
     </row>
     <row r="11" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="141"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3104,26 +3552,26 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="145"/>
+      <c r="L11" s="151"/>
     </row>
     <row r="12" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="137"/>
+      <c r="H12" s="141"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="146"/>
+      <c r="L12" s="143"/>
       <c r="O12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="137"/>
+      <c r="H13" s="141"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
@@ -3131,15 +3579,15 @@
       </c>
       <c r="L13" s="3"/>
       <c r="O13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="7:22" x14ac:dyDescent="0.25">
       <c r="O14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="7:22" x14ac:dyDescent="0.25">
@@ -3150,10 +3598,10 @@
         <v>57</v>
       </c>
       <c r="P15" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="7:22" x14ac:dyDescent="0.25">
@@ -3167,13 +3615,13 @@
         <v>69</v>
       </c>
       <c r="O16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
@@ -3190,13 +3638,13 @@
         <v>68</v>
       </c>
       <c r="O17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="7:20" x14ac:dyDescent="0.25">
@@ -3213,13 +3661,13 @@
         <v>27</v>
       </c>
       <c r="O18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T18" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="7:20" x14ac:dyDescent="0.25">
@@ -3239,10 +3687,10 @@
         <v>50</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T19" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="7:20" x14ac:dyDescent="0.25">
@@ -3259,13 +3707,13 @@
         <v>71</v>
       </c>
       <c r="O20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="7:20" x14ac:dyDescent="0.25">
@@ -3282,10 +3730,10 @@
         <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P21" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="7:20" x14ac:dyDescent="0.25">
@@ -3302,7 +3750,7 @@
         <v>59</v>
       </c>
       <c r="P22" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="7:20" x14ac:dyDescent="0.25">
@@ -3310,10 +3758,10 @@
         <v>117</v>
       </c>
       <c r="O23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="7:20" x14ac:dyDescent="0.25">
@@ -3321,10 +3769,10 @@
         <v>108</v>
       </c>
       <c r="O24" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P24" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="7:20" x14ac:dyDescent="0.25">
@@ -3592,7 +4040,7 @@
     </row>
     <row r="52" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="7:19" x14ac:dyDescent="0.25">
@@ -3600,7 +4048,7 @@
         <v>67</v>
       </c>
       <c r="N54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="7:19" x14ac:dyDescent="0.25">
@@ -3614,24 +4062,24 @@
         <v>69</v>
       </c>
       <c r="N55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>6</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="152" t="s">
         <v>61</v>
       </c>
       <c r="L56" t="s">
         <v>27</v>
       </c>
       <c r="N56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="7:19" x14ac:dyDescent="0.25">
@@ -3646,45 +4094,45 @@
         <v>70</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O57" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G58" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="H58" s="27" t="s">
         <v>24</v>
       </c>
       <c r="J58" t="s">
         <v>65</v>
       </c>
       <c r="N58" s="54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O58" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P58" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q58" s="55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="7:19" x14ac:dyDescent="0.25">
@@ -3698,19 +4146,19 @@
         <v>72</v>
       </c>
       <c r="N59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P59" t="s">
         <v>57</v>
       </c>
       <c r="Q59" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="7:19" x14ac:dyDescent="0.25">
@@ -3720,7 +4168,7 @@
       <c r="H60" t="s">
         <v>23</v>
       </c>
-      <c r="J60" s="30" t="s">
+      <c r="J60" s="152" t="s">
         <v>115</v>
       </c>
       <c r="L60" t="s">
@@ -3730,16 +4178,16 @@
         <v>50</v>
       </c>
       <c r="O60" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q60" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S60" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="7:19" x14ac:dyDescent="0.25">
@@ -3756,21 +4204,24 @@
         <v>59</v>
       </c>
       <c r="O61" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q61" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S61" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>8</v>
+      </c>
       <c r="S62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="5:21" x14ac:dyDescent="0.25">
@@ -3789,109 +4240,101 @@
         <v>121</v>
       </c>
       <c r="S66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G67" s="133" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G68" s="30" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S68" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="U68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G69" s="30" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H69" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="S69" t="s">
         <v>40</v>
       </c>
       <c r="U69" s="99" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="5:21" x14ac:dyDescent="0.25">
       <c r="S70" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="U70" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G74" t="s">
+        <v>334</v>
+      </c>
+      <c r="J74" t="s">
         <v>335</v>
-      </c>
-      <c r="J74" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="75" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G75" t="s">
+        <v>329</v>
+      </c>
+      <c r="J75" t="s">
         <v>330</v>
-      </c>
-      <c r="J75" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="76" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J77" t="s">
+        <v>336</v>
+      </c>
+      <c r="K77" t="s">
         <v>337</v>
-      </c>
-      <c r="K77" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="78" spans="5:21" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -3908,6 +4351,14 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant"/>
@@ -3959,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF138"/>
   <sheetViews>
-    <sheetView topLeftCell="H120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M131" sqref="M131"/>
+    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,7 +4532,7 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
@@ -4109,14 +4560,14 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G22" t="s">
         <v>134</v>
@@ -4149,53 +4600,53 @@
     </row>
     <row r="34" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="28"/>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="6:31" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="6:31" x14ac:dyDescent="0.25">
@@ -4206,19 +4657,19 @@
     </row>
     <row r="58" spans="6:31" x14ac:dyDescent="0.25">
       <c r="T58" s="54" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="U58" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AB58" s="58"/>
       <c r="AE58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="6:31" x14ac:dyDescent="0.25">
       <c r="J59" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K59" s="63" t="s">
         <v>116</v>
@@ -4248,7 +4699,7 @@
         <v>61</v>
       </c>
       <c r="T59" s="128" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="U59" s="72" t="s">
         <v>6</v>
@@ -4275,7 +4726,7 @@
         <v>119</v>
       </c>
       <c r="AC59" s="60" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AD59" s="62" t="s">
         <v>73</v>
@@ -4283,12 +4734,12 @@
     </row>
     <row r="60" spans="6:31" x14ac:dyDescent="0.25">
       <c r="F60" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G60" s="61"/>
       <c r="H60" s="40"/>
       <c r="I60" s="70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J60" s="75" t="str">
         <f>$I60&amp;J$59</f>
@@ -5210,7 +5661,7 @@
     <row r="70" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E70" s="97"/>
       <c r="I70" s="65" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J70" s="82" t="str">
         <f t="shared" si="2"/>
@@ -5303,7 +5754,7 @@
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I71" s="67" t="s">
         <v>6</v>
@@ -5397,7 +5848,7 @@
       <c r="F72" s="59"/>
       <c r="G72" s="54"/>
       <c r="H72" s="54" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I72" s="68" t="s">
         <v>7</v>
@@ -6046,7 +6497,7 @@
       <c r="G79" s="58"/>
       <c r="H79" s="58"/>
       <c r="I79" s="68" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J79" s="88" t="str">
         <f t="shared" si="5"/>
@@ -6135,7 +6586,7 @@
     </row>
     <row r="80" spans="5:30" x14ac:dyDescent="0.25">
       <c r="F80" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -6229,7 +6680,7 @@
     </row>
     <row r="81" spans="6:32" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="6:32" x14ac:dyDescent="0.25">
@@ -6986,19 +7437,19 @@
     </row>
     <row r="126" spans="6:32" x14ac:dyDescent="0.25">
       <c r="K126" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="L126" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="L126" s="56" t="s">
+      <c r="M126" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="N126" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="O126" s="73" t="s">
         <v>198</v>
-      </c>
-      <c r="M126" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="N126" s="60" t="s">
-        <v>194</v>
-      </c>
-      <c r="O126" s="73" t="s">
-        <v>199</v>
       </c>
       <c r="P126" s="73" t="s">
         <v>50</v>
@@ -7010,10 +7461,10 @@
         <v>57</v>
       </c>
       <c r="S126" s="71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T126" s="60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U126" s="114" t="s">
         <v>7</v>
@@ -7024,7 +7475,7 @@
     </row>
     <row r="127" spans="6:32" x14ac:dyDescent="0.25">
       <c r="J127" s="98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K127" s="34" t="str">
         <f>$J127&amp;K$126</f>
@@ -7077,7 +7528,7 @@
     </row>
     <row r="128" spans="6:32" x14ac:dyDescent="0.25">
       <c r="J128" s="66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K128" s="57" t="str">
         <f t="shared" ref="K128:V138" si="9">$J128&amp;K$126</f>
@@ -7130,7 +7581,7 @@
     </row>
     <row r="129" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J129" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K129" s="34" t="str">
         <f t="shared" si="9"/>
@@ -7183,7 +7634,7 @@
     </row>
     <row r="130" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J130" s="68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K130" s="59" t="str">
         <f t="shared" si="9"/>
@@ -7236,7 +7687,7 @@
     </row>
     <row r="131" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J131" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K131" s="57" t="str">
         <f t="shared" si="9"/>
@@ -7448,7 +7899,7 @@
     </row>
     <row r="135" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J135" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K135" s="57" t="str">
         <f t="shared" si="9"/>
@@ -7501,7 +7952,7 @@
     </row>
     <row r="136" spans="10:22" x14ac:dyDescent="0.25">
       <c r="J136" s="68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K136" s="59" t="str">
         <f t="shared" si="9"/>
@@ -7678,10 +8129,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:T96"/>
+  <dimension ref="C5:AC164"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7754,23 +8205,23 @@
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.25">
@@ -7778,17 +8229,17 @@
       <c r="F26" s="27"/>
       <c r="J26" s="97"/>
       <c r="K26" s="100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L26" s="101"/>
       <c r="M26" s="100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N26" s="101"/>
       <c r="O26" s="101"/>
       <c r="P26" s="101"/>
       <c r="Q26" s="100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R26" s="101"/>
       <c r="S26" s="101"/>
@@ -7798,7 +8249,7 @@
         <v>147</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J27" s="97"/>
       <c r="K27" s="40" t="s">
@@ -7806,13 +8257,13 @@
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="134" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
       <c r="P27" s="33"/>
       <c r="Q27" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R27" s="40"/>
       <c r="S27" s="40"/>
@@ -7822,7 +8273,7 @@
         <v>149</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J28" s="97"/>
       <c r="K28" s="40" t="s">
@@ -7830,13 +8281,13 @@
       </c>
       <c r="L28" s="33"/>
       <c r="M28" s="134" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
       <c r="P28" s="33"/>
       <c r="Q28" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R28" s="40"/>
       <c r="S28" s="40"/>
@@ -7846,7 +8297,7 @@
         <v>150</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J29" s="97"/>
       <c r="K29" s="40" t="s">
@@ -7854,13 +8305,13 @@
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N29" s="40"/>
       <c r="O29" s="40"/>
       <c r="P29" s="33"/>
       <c r="Q29" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
@@ -7870,7 +8321,7 @@
         <v>176</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J30" s="97"/>
       <c r="K30" s="40" t="s">
@@ -7878,13 +8329,13 @@
       </c>
       <c r="L30" s="33"/>
       <c r="M30" s="134" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N30" s="40"/>
       <c r="O30" s="40"/>
       <c r="P30" s="33"/>
       <c r="Q30" s="40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R30" s="40"/>
       <c r="S30" s="40"/>
@@ -7894,7 +8345,7 @@
         <v>148</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J31" s="97"/>
       <c r="K31" s="40" t="s">
@@ -7902,13 +8353,13 @@
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="134" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N31" s="40"/>
       <c r="O31" s="40"/>
       <c r="P31" s="33"/>
       <c r="Q31" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R31" s="40"/>
       <c r="S31" s="40"/>
@@ -7918,7 +8369,7 @@
         <v>177</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J32" s="97"/>
       <c r="K32" s="40" t="s">
@@ -7926,18 +8377,18 @@
       </c>
       <c r="L32" s="33"/>
       <c r="M32" s="134" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N32" s="40"/>
       <c r="O32" s="40"/>
       <c r="P32" s="33"/>
       <c r="Q32" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R32" s="40"/>
       <c r="S32" s="40"/>
     </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>178</v>
       </c>
@@ -7947,18 +8398,18 @@
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N33" s="40"/>
       <c r="O33" s="40"/>
       <c r="P33" s="33"/>
       <c r="Q33" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R33" s="40"/>
       <c r="S33" s="40"/>
     </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>179</v>
       </c>
@@ -7968,7 +8419,7 @@
       </c>
       <c r="L34" s="33"/>
       <c r="M34" s="134" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N34" s="40"/>
       <c r="O34" s="40"/>
@@ -7977,7 +8428,7 @@
       <c r="R34" s="40"/>
       <c r="S34" s="40"/>
     </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>151</v>
       </c>
@@ -7987,364 +8438,1059 @@
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="135" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N35" s="41"/>
       <c r="O35" s="41"/>
       <c r="P35" s="35"/>
       <c r="Q35" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R35" s="41"/>
       <c r="S35" s="41"/>
     </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D39" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="40" spans="3:28" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="41" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>247</v>
       </c>
-      <c r="E40" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="41" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>562</v>
+      </c>
+      <c r="G41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>248</v>
       </c>
-      <c r="E41" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>249</v>
-      </c>
       <c r="E42" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="47" spans="4:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="I47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-    </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D51" s="26" t="s">
-        <v>385</v>
+        <v>563</v>
+      </c>
+      <c r="G42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="L47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
+      <c r="AA47" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB47" s="28"/>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C51" s="26" t="s">
+        <v>483</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="I51" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="M51" s="26" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="52" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="K52" t="s">
-        <v>415</v>
-      </c>
-      <c r="M52" t="s">
-        <v>416</v>
-      </c>
-      <c r="P52" s="27"/>
-      <c r="R52" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="AA51" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB51" s="26"/>
+      <c r="AC51" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>435</v>
+      </c>
+      <c r="F52" t="s">
+        <v>388</v>
+      </c>
+      <c r="H52" t="s">
+        <v>386</v>
+      </c>
+      <c r="L52" t="s">
+        <v>395</v>
+      </c>
+      <c r="N52" t="s">
+        <v>396</v>
+      </c>
+      <c r="S52" s="27"/>
+      <c r="U52" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>351</v>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>388</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
-      </c>
-      <c r="P53" t="s">
+        <v>437</v>
+      </c>
+      <c r="H53" t="s">
+        <v>540</v>
+      </c>
+      <c r="S53" t="s">
         <v>147</v>
       </c>
-      <c r="R53" t="s">
+      <c r="U53" t="s">
         <v>155</v>
       </c>
-      <c r="T53" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>313</v>
+      <c r="W53" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>436</v>
       </c>
       <c r="F54" t="s">
         <v>311</v>
       </c>
-      <c r="P54" t="s">
+      <c r="H54" t="s">
+        <v>317</v>
+      </c>
+      <c r="S54" t="s">
         <v>149</v>
       </c>
-      <c r="R54" t="s">
+      <c r="U54" t="s">
+        <v>293</v>
+      </c>
+      <c r="W54" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>441</v>
+      </c>
+      <c r="F55" t="s">
+        <v>427</v>
+      </c>
+      <c r="H55" t="s">
+        <v>158</v>
+      </c>
+      <c r="J55" t="s">
+        <v>551</v>
+      </c>
+      <c r="S55" t="s">
+        <v>150</v>
+      </c>
+      <c r="U55" t="s">
         <v>294</v>
       </c>
-      <c r="T54" t="s">
+      <c r="W55" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
+      <c r="F56" t="s">
+        <v>548</v>
+      </c>
+      <c r="H56" t="s">
+        <v>155</v>
+      </c>
+      <c r="J56" t="s">
+        <v>553</v>
+      </c>
+      <c r="S56" t="s">
+        <v>176</v>
+      </c>
+      <c r="U56" t="s">
+        <v>295</v>
+      </c>
+      <c r="W56" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>439</v>
+      </c>
+      <c r="F57" t="s">
+        <v>416</v>
+      </c>
+      <c r="H57" t="s">
+        <v>417</v>
+      </c>
+      <c r="S57" t="s">
+        <v>148</v>
+      </c>
+      <c r="U57" t="s">
+        <v>155</v>
+      </c>
+      <c r="W57" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>533</v>
+      </c>
+      <c r="F58" t="s">
+        <v>454</v>
+      </c>
+      <c r="J58" t="s">
+        <v>541</v>
+      </c>
+      <c r="S58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>440</v>
+      </c>
+      <c r="F59" t="s">
+        <v>315</v>
+      </c>
+      <c r="H59" t="s">
+        <v>348</v>
+      </c>
+      <c r="S59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>534</v>
+      </c>
+      <c r="F60" t="s">
+        <v>400</v>
+      </c>
+      <c r="H60" t="s">
+        <v>317</v>
+      </c>
+      <c r="S60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>442</v>
+      </c>
+      <c r="F61" t="s">
+        <v>448</v>
+      </c>
+      <c r="S61" t="s">
+        <v>151</v>
+      </c>
+      <c r="U61" t="s">
+        <v>182</v>
+      </c>
+      <c r="W61" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>535</v>
+      </c>
+      <c r="F62" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>443</v>
+      </c>
+      <c r="F63" t="s">
+        <v>313</v>
+      </c>
+      <c r="H63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>444</v>
+      </c>
+      <c r="F64" t="s">
+        <v>310</v>
+      </c>
+      <c r="H64" t="s">
+        <v>312</v>
+      </c>
+      <c r="U64" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>536</v>
+      </c>
+      <c r="F65" t="s">
+        <v>397</v>
+      </c>
+      <c r="H65" t="s">
+        <v>406</v>
+      </c>
+      <c r="S65" t="s">
+        <v>147</v>
+      </c>
+      <c r="U65" t="s">
+        <v>157</v>
+      </c>
+      <c r="W65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>539</v>
+      </c>
+      <c r="F66" t="s">
+        <v>544</v>
+      </c>
+      <c r="S66" t="s">
+        <v>149</v>
+      </c>
+      <c r="U66" t="s">
+        <v>158</v>
+      </c>
+      <c r="W66" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>446</v>
+      </c>
+      <c r="F67" t="s">
+        <v>314</v>
+      </c>
+      <c r="H67" t="s">
+        <v>342</v>
+      </c>
+      <c r="S67" t="s">
+        <v>150</v>
+      </c>
+      <c r="U67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>447</v>
+      </c>
+      <c r="F68" t="s">
+        <v>547</v>
+      </c>
+      <c r="H68" t="s">
+        <v>295</v>
+      </c>
+      <c r="J68" t="s">
+        <v>552</v>
+      </c>
+      <c r="S68" t="s">
+        <v>176</v>
+      </c>
+      <c r="U68" t="s">
+        <v>325</v>
+      </c>
+      <c r="W68" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>537</v>
+      </c>
+      <c r="F69" t="s">
+        <v>502</v>
+      </c>
+      <c r="H69" t="s">
+        <v>542</v>
+      </c>
+      <c r="S69" t="s">
+        <v>148</v>
+      </c>
+      <c r="U69" t="s">
+        <v>326</v>
+      </c>
+      <c r="W69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>538</v>
+      </c>
+      <c r="F70" t="s">
+        <v>385</v>
+      </c>
+      <c r="H70" t="s">
+        <v>404</v>
+      </c>
+      <c r="S70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>430</v>
+      </c>
+      <c r="F71" t="s">
+        <v>555</v>
+      </c>
+      <c r="H71" t="s">
+        <v>556</v>
+      </c>
+      <c r="S71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>449</v>
+      </c>
+      <c r="F72" t="s">
+        <v>290</v>
+      </c>
+      <c r="H72" t="s">
+        <v>411</v>
+      </c>
+      <c r="S72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>450</v>
+      </c>
+      <c r="F73" t="s">
+        <v>291</v>
+      </c>
+      <c r="H73" t="s">
+        <v>293</v>
+      </c>
+      <c r="J73" t="s">
+        <v>545</v>
+      </c>
+      <c r="S73" t="s">
+        <v>151</v>
+      </c>
+      <c r="U73" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>452</v>
+      </c>
+      <c r="F74" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>318</v>
-      </c>
-      <c r="F55" t="s">
-        <v>312</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="H74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>453</v>
+      </c>
+      <c r="F75" t="s">
+        <v>399</v>
+      </c>
+      <c r="H75" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>480</v>
+      </c>
+      <c r="F76" t="s">
+        <v>402</v>
+      </c>
+      <c r="H76" t="s">
+        <v>403</v>
+      </c>
+      <c r="U76" s="26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>478</v>
+      </c>
+      <c r="F77" t="s">
+        <v>309</v>
+      </c>
+      <c r="H77" t="s">
+        <v>347</v>
+      </c>
+      <c r="S77" t="s">
+        <v>147</v>
+      </c>
+      <c r="U77" t="s">
+        <v>556</v>
+      </c>
+      <c r="W77" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>445</v>
+      </c>
+      <c r="F78" t="s">
+        <v>410</v>
+      </c>
+      <c r="H78" t="s">
+        <v>559</v>
+      </c>
+      <c r="J78" t="s">
+        <v>554</v>
+      </c>
+      <c r="S78" t="s">
+        <v>149</v>
+      </c>
+      <c r="U78" t="s">
+        <v>557</v>
+      </c>
+      <c r="W78" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>455</v>
+      </c>
+      <c r="F79" t="s">
+        <v>549</v>
+      </c>
+      <c r="H79" t="s">
+        <v>182</v>
+      </c>
+      <c r="J79" t="s">
+        <v>550</v>
+      </c>
+      <c r="S79" t="s">
         <v>150</v>
       </c>
-      <c r="R55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>343</v>
-      </c>
-      <c r="F56" t="s">
+    </row>
+    <row r="80" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>457</v>
+      </c>
+      <c r="F80" t="s">
+        <v>387</v>
+      </c>
+      <c r="H80" t="s">
+        <v>389</v>
+      </c>
+      <c r="S80" t="s">
+        <v>176</v>
+      </c>
+      <c r="U80" t="s">
+        <v>564</v>
+      </c>
+      <c r="W80" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>456</v>
+      </c>
+      <c r="F81" t="s">
+        <v>398</v>
+      </c>
+      <c r="H81" t="s">
+        <v>407</v>
+      </c>
+      <c r="S81" t="s">
+        <v>148</v>
+      </c>
+      <c r="U81" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>458</v>
+      </c>
+      <c r="F82" t="s">
+        <v>175</v>
+      </c>
+      <c r="H82" t="s">
+        <v>157</v>
+      </c>
+      <c r="S82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>523</v>
+      </c>
+      <c r="F83" t="s">
+        <v>401</v>
+      </c>
+      <c r="H83" t="s">
+        <v>428</v>
+      </c>
+      <c r="S83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>459</v>
+      </c>
+      <c r="F84" t="s">
+        <v>565</v>
+      </c>
+      <c r="H84" t="s">
+        <v>564</v>
+      </c>
+      <c r="J84" t="s">
+        <v>566</v>
+      </c>
+      <c r="S84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>460</v>
+      </c>
+      <c r="S85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>470</v>
+      </c>
+      <c r="F96" s="26"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
         <v>314</v>
       </c>
-      <c r="P56" t="s">
-        <v>176</v>
-      </c>
-      <c r="R56" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>346</v>
-      </c>
-      <c r="F57" t="s">
-        <v>315</v>
-      </c>
-      <c r="P57" t="s">
-        <v>148</v>
-      </c>
-      <c r="R57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>352</v>
-      </c>
-      <c r="F58" t="s">
-        <v>316</v>
-      </c>
-      <c r="P58" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>220</v>
-      </c>
-      <c r="F59" t="s">
-        <v>293</v>
-      </c>
-      <c r="P59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>157</v>
-      </c>
-      <c r="F60" t="s">
-        <v>175</v>
-      </c>
-      <c r="P60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>409</v>
-      </c>
-      <c r="F61" t="s">
-        <v>390</v>
-      </c>
-      <c r="P61" t="s">
-        <v>151</v>
-      </c>
-      <c r="R61" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>391</v>
-      </c>
-      <c r="F62" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="63" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>394</v>
-      </c>
-      <c r="F63" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="64" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>410</v>
-      </c>
-      <c r="F64" t="s">
-        <v>404</v>
-      </c>
-      <c r="I64" t="s">
-        <v>401</v>
-      </c>
-      <c r="K64" t="s">
-        <v>400</v>
-      </c>
-      <c r="R64" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>411</v>
-      </c>
-      <c r="F65" t="s">
-        <v>402</v>
-      </c>
-      <c r="P65" t="s">
-        <v>147</v>
-      </c>
-      <c r="R65" t="s">
-        <v>157</v>
-      </c>
-      <c r="T65" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>412</v>
-      </c>
-      <c r="F66" t="s">
-        <v>403</v>
-      </c>
-      <c r="P66" t="s">
-        <v>149</v>
-      </c>
-      <c r="R66" t="s">
-        <v>158</v>
-      </c>
-      <c r="T66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>318</v>
-      </c>
-      <c r="F67" t="s">
-        <v>405</v>
-      </c>
-      <c r="P67" t="s">
-        <v>150</v>
-      </c>
-      <c r="R67" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F68" t="s">
-        <v>406</v>
-      </c>
-      <c r="P68" t="s">
-        <v>176</v>
-      </c>
-      <c r="R68" t="s">
-        <v>326</v>
-      </c>
-      <c r="T68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>408</v>
-      </c>
-      <c r="F69" t="s">
-        <v>407</v>
-      </c>
-      <c r="P69" t="s">
-        <v>148</v>
-      </c>
-      <c r="R69" t="s">
-        <v>327</v>
-      </c>
-      <c r="T69" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="F70" t="s">
-        <v>413</v>
-      </c>
-      <c r="P70" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="71" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>417</v>
-      </c>
-      <c r="F71" t="s">
-        <v>291</v>
-      </c>
-      <c r="P71" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>423</v>
-      </c>
-      <c r="F72" t="s">
-        <v>422</v>
-      </c>
-      <c r="P72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="P73" t="s">
-        <v>151</v>
-      </c>
-      <c r="R73" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="26"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>461</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="F52:J83">
+    <sortCondition ref="F83"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
@@ -8354,8 +9500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:AP49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8365,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:42" x14ac:dyDescent="0.25">
@@ -8373,12 +9519,12 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="4:42" x14ac:dyDescent="0.25">
       <c r="X11" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="4:42" x14ac:dyDescent="0.25">
@@ -8386,73 +9532,73 @@
     </row>
     <row r="13" spans="4:42" x14ac:dyDescent="0.25">
       <c r="G13" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H13" s="96"/>
       <c r="I13" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J13" s="96"/>
       <c r="K13" s="95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L13" s="96"/>
       <c r="M13" s="95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N13" s="96"/>
       <c r="O13" s="95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P13" s="96"/>
       <c r="Q13" s="95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R13" s="96"/>
       <c r="W13" s="58"/>
       <c r="X13" s="108"/>
       <c r="Y13" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Z13" s="107"/>
       <c r="AA13" s="96"/>
       <c r="AB13" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC13" s="107"/>
       <c r="AD13" s="96"/>
       <c r="AE13" s="95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF13" s="107"/>
       <c r="AG13" s="96"/>
       <c r="AH13" s="95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AI13" s="107"/>
       <c r="AJ13" s="96"/>
       <c r="AK13" s="95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL13" s="107"/>
       <c r="AM13" s="96"/>
       <c r="AN13" s="95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AO13" s="107"/>
       <c r="AP13" s="96"/>
     </row>
     <row r="14" spans="4:42" x14ac:dyDescent="0.25">
       <c r="E14" s="70" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F14" s="56"/>
       <c r="G14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="32" t="s">
@@ -8464,7 +9610,7 @@
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="106" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P14" s="33"/>
       <c r="Q14" s="32" t="s">
@@ -8472,10 +9618,10 @@
       </c>
       <c r="R14" s="33"/>
       <c r="X14" s="105" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Y14" s="105" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
@@ -8497,15 +9643,15 @@
     </row>
     <row r="15" spans="4:42" x14ac:dyDescent="0.25">
       <c r="E15" s="70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="32" t="s">
@@ -8517,7 +9663,7 @@
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="106" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P15" s="33"/>
       <c r="Q15" s="40" t="s">
@@ -8525,7 +9671,7 @@
       </c>
       <c r="R15" s="33"/>
       <c r="X15" s="103" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Y15" s="103"/>
       <c r="Z15" s="97"/>
@@ -8548,15 +9694,15 @@
     </row>
     <row r="16" spans="4:42" x14ac:dyDescent="0.25">
       <c r="E16" s="70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="32" t="s">
@@ -8568,15 +9714,15 @@
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="106" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="P16" s="33"/>
       <c r="Q16" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R16" s="33"/>
       <c r="X16" s="105" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Y16" s="105"/>
       <c r="Z16" s="33"/>
@@ -8599,7 +9745,7 @@
     </row>
     <row r="17" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E17" s="123"/>
       <c r="F17" s="123"/>
@@ -8616,10 +9762,10 @@
       <c r="Q17" s="123"/>
       <c r="R17" s="123"/>
       <c r="X17" s="103" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Y17" s="103" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Z17" s="97"/>
       <c r="AA17" s="97"/>
@@ -8641,7 +9787,7 @@
     </row>
     <row r="18" spans="3:42" x14ac:dyDescent="0.25">
       <c r="X18" s="105" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Y18" s="105"/>
       <c r="Z18" s="33"/>
@@ -8664,7 +9810,7 @@
     </row>
     <row r="19" spans="3:42" x14ac:dyDescent="0.25">
       <c r="X19" s="104" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Y19" s="104"/>
       <c r="Z19" s="74"/>
@@ -8687,227 +9833,235 @@
     </row>
     <row r="20" spans="3:42" x14ac:dyDescent="0.25">
       <c r="F20" s="94" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G20" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H20" s="96"/>
       <c r="I20" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J20" s="96"/>
       <c r="K20" s="95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L20" s="96"/>
       <c r="M20" s="95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N20" s="96"/>
       <c r="O20" s="95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P20" s="96"/>
       <c r="Q20" s="95" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R20" s="96"/>
     </row>
     <row r="21" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="153" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" s="154" t="s">
+        <v>426</v>
+      </c>
+      <c r="H21" s="155"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="157"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="157"/>
+    </row>
+    <row r="22" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F22" s="161" t="s">
+        <v>350</v>
+      </c>
+      <c r="G22" s="162"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="164"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="160"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="160"/>
+    </row>
+    <row r="23" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F23" s="153" t="s">
+        <v>351</v>
+      </c>
+      <c r="G23" s="154"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="166"/>
+    </row>
+    <row r="24" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F24" s="161" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" s="162" t="s">
+        <v>355</v>
+      </c>
+      <c r="H24" s="163"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="164"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="159"/>
+      <c r="N24" s="159"/>
+      <c r="O24" s="164"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="159"/>
+      <c r="R24" s="160"/>
+    </row>
+    <row r="25" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F25" s="153" t="s">
         <v>353</v>
       </c>
-      <c r="G21" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="35"/>
-    </row>
-    <row r="22" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F22" s="103" t="s">
+      <c r="G25" s="154"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="155"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="155"/>
+    </row>
+    <row r="26" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="F26" s="169" t="s">
         <v>354</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="33"/>
-    </row>
-    <row r="23" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F23" s="105" t="s">
-        <v>355</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="97"/>
-    </row>
-    <row r="24" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F24" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>359</v>
-      </c>
-      <c r="H24" s="97"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="33"/>
-    </row>
-    <row r="25" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F25" s="105" t="s">
-        <v>357</v>
-      </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="33"/>
-    </row>
-    <row r="26" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F26" s="104" t="s">
-        <v>358</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="74"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="170"/>
+      <c r="R26" s="171"/>
     </row>
     <row r="32" spans="3:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="H35" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H36" t="s">
-        <v>365</v>
+      <c r="F36" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
+        <v>358</v>
+      </c>
+      <c r="H38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
         <v>363</v>
       </c>
-      <c r="H38" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H39" t="s">
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H40" t="s">
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H41" t="s">
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H42" t="s">
+    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H43" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H44" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H45" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="47" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H48" t="s">
-        <v>375</v>
+      <c r="F48" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H49" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J49" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -8928,57 +10082,57 @@
   <sheetData>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" s="93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" t="s">
         <v>271</v>
       </c>
-      <c r="I16" t="s">
-        <v>272</v>
-      </c>
       <c r="K16" t="s">
+        <v>273</v>
+      </c>
+      <c r="M16" t="s">
         <v>274</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>275</v>
       </c>
-      <c r="O16" t="s">
-        <v>276</v>
-      </c>
       <c r="R16" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G17" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J17" s="39"/>
       <c r="K17" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L17" s="39"/>
       <c r="M17" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N17" s="39"/>
       <c r="O17" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P17" s="39"/>
       <c r="R17" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8990,23 +10144,23 @@
       <c r="K18" s="41"/>
       <c r="L18" s="35"/>
       <c r="M18" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N18" s="35"/>
       <c r="O18" s="41" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P18" s="35"/>
       <c r="R18" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E19" s="91"/>
       <c r="F19" s="48"/>
@@ -9021,15 +10175,15 @@
       <c r="O19" s="45"/>
       <c r="P19" s="46"/>
       <c r="R19" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="48"/>
@@ -9044,12 +10198,12 @@
       <c r="O20" s="32"/>
       <c r="P20" s="48"/>
       <c r="R20" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D21" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="48"/>
@@ -9066,7 +10220,7 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D22" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="48"/>
@@ -9083,7 +10237,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D23" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="48"/>
@@ -9100,7 +10254,7 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D24" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="48"/>
@@ -9117,7 +10271,7 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D25" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E25" s="91"/>
       <c r="F25" s="48"/>
@@ -9134,7 +10288,7 @@
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D26" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E26" s="91"/>
       <c r="F26" s="48"/>
@@ -9151,7 +10305,7 @@
     </row>
     <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" s="92"/>
       <c r="F27" s="90"/>
@@ -9168,12 +10322,12 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D32" s="99" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/Aia/Lang/Derotic/Drotic.xlsx
+++ b/Aia/Lang/Derotic/Drotic.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FD1A0-CFD9-48B1-BB18-FAD3362180CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
@@ -19,17 +20,23 @@
     <sheet name="Pronouns" sheetId="5" r:id="rId10"/>
     <sheet name="Prepositions" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="648">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -1077,9 +1084,6 @@
     <t>riverbank</t>
   </si>
   <si>
-    <t>rune</t>
-  </si>
-  <si>
     <t>namra</t>
   </si>
   <si>
@@ -1407,9 +1411,6 @@
     <t>water</t>
   </si>
   <si>
-    <t>soil</t>
-  </si>
-  <si>
     <t>ʁRai:r</t>
   </si>
   <si>
@@ -1906,13 +1907,268 @@
   </si>
   <si>
     <t>DEFFINITIVE (like the)</t>
+  </si>
+  <si>
+    <t>nominative</t>
+  </si>
+  <si>
+    <t>instrumentum</t>
+  </si>
+  <si>
+    <t>vocative</t>
+  </si>
+  <si>
+    <t>locative</t>
+  </si>
+  <si>
+    <t>autonomous</t>
+  </si>
+  <si>
+    <t>iør</t>
+  </si>
+  <si>
+    <t>iørt</t>
+  </si>
+  <si>
+    <t>iøro</t>
+  </si>
+  <si>
+    <t>aw *iø</t>
+  </si>
+  <si>
+    <t>taRe*iø</t>
+  </si>
+  <si>
+    <t>animate</t>
+  </si>
+  <si>
+    <t>iar</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>iart</t>
+  </si>
+  <si>
+    <t>aw *ia</t>
+  </si>
+  <si>
+    <t>taRe*ia</t>
+  </si>
+  <si>
+    <t>/ɛt/ suffix</t>
+  </si>
+  <si>
+    <t>dead, unchangeable, unmoveable</t>
+  </si>
+  <si>
+    <t>ɛt</t>
+  </si>
+  <si>
+    <t>ɛtet</t>
+  </si>
+  <si>
+    <t>ɛto</t>
+  </si>
+  <si>
+    <t>aw *ɛt</t>
+  </si>
+  <si>
+    <t>taRe*ɛt</t>
+  </si>
+  <si>
+    <t>ɛta</t>
+  </si>
+  <si>
+    <t>other ending</t>
+  </si>
+  <si>
+    <t>MY NUMERUS</t>
+  </si>
+  <si>
+    <t>indef. Accusative</t>
+  </si>
+  <si>
+    <t>identical</t>
+  </si>
+  <si>
+    <t>prolative</t>
+  </si>
+  <si>
+    <t>orientative</t>
+  </si>
+  <si>
+    <t>dual</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>revertive</t>
+  </si>
+  <si>
+    <t>paucal</t>
+  </si>
+  <si>
+    <t>terminative</t>
+  </si>
+  <si>
+    <t>translative</t>
+  </si>
+  <si>
+    <t>indef. Allative</t>
+  </si>
+  <si>
+    <t>indef. Locative</t>
+  </si>
+  <si>
+    <t>indef. Ablative</t>
+  </si>
+  <si>
+    <t>distributive</t>
+  </si>
+  <si>
+    <t>formal</t>
+  </si>
+  <si>
+    <t>LEXICON OF THE BODY</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>chin</t>
+  </si>
+  <si>
+    <t>cheek</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>eyebrow</t>
+  </si>
+  <si>
+    <t>forehead</t>
+  </si>
+  <si>
+    <t>tinning {svenska}</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>shoulder</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>elbow</t>
+  </si>
+  <si>
+    <t>finger</t>
+  </si>
+  <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>/the desciber in a composit word is in front</t>
+  </si>
+  <si>
+    <t>i:ɾɛðiar</t>
+  </si>
+  <si>
+    <t>spirit air</t>
+  </si>
+  <si>
+    <t>ɾnai:ɾɛðiar</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>wind bottle</t>
+  </si>
+  <si>
+    <r>
+      <t>Bitð</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ø:ʁ</t>
+    </r>
+  </si>
+  <si>
+    <t>ground fire</t>
+  </si>
+  <si>
+    <t>i:ɾɛra</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>aw ba</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>ðiar</t>
+  </si>
+  <si>
+    <t>soul;place</t>
+  </si>
+  <si>
+    <t>soil/source</t>
+  </si>
+  <si>
+    <t>rune/symbol</t>
+  </si>
+  <si>
+    <t>˥˩iø:ðra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2046,6 +2302,21 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2641,7 +2912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2814,54 +3085,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2883,6 +3106,57 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -3169,36 +3443,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:4">
       <c r="D7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:4">
       <c r="D8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:4">
       <c r="D9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:4">
       <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:4">
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -3209,32 +3483,32 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="D7:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:6">
       <c r="D7" t="s">
         <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6">
       <c r="D8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" t="s">
         <v>374</v>
       </c>
-      <c r="F8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="4:6">
       <c r="D9" t="s">
         <v>153</v>
       </c>
@@ -3242,25 +3516,25 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6">
       <c r="D10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
+      <c r="D11" t="s">
         <v>377</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>378</v>
-      </c>
-      <c r="F11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6">
       <c r="D12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
         <v>154</v>
@@ -3272,100 +3546,100 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E1:V78"/>
   <sheetViews>
-    <sheetView topLeftCell="D52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView topLeftCell="D49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="7:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="7:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="7:22" ht="15" customHeight="1"/>
+    <row r="2" spans="7:22" ht="30" customHeight="1" thickBot="1">
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="7:22" ht="15.75" thickBot="1">
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="136" t="s">
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="137"/>
-      <c r="T3" s="136" t="s">
+      <c r="S3" s="169"/>
+      <c r="T3" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="137"/>
+      <c r="U3" s="169"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="147" t="s">
+    <row r="4" spans="7:22" ht="30.75" thickBot="1">
+      <c r="G4" s="161" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="147" t="s">
+      <c r="I4" s="161" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="147" t="s">
+      <c r="L4" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="140" t="s">
+      <c r="N4" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="141"/>
-      <c r="P4" s="140" t="s">
+      <c r="O4" s="158"/>
+      <c r="P4" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="139"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="171"/>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="148"/>
+    <row r="5" spans="7:22" ht="30.75" thickBot="1">
+      <c r="G5" s="162"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="148"/>
+      <c r="I5" s="162"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -3392,11 +3666,11 @@
       </c>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="140" t="s">
+    <row r="6" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G6" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="141"/>
+      <c r="H6" s="158"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3431,8 +3705,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="147" t="s">
+    <row r="7" spans="7:22" ht="30.75" thickBot="1">
+      <c r="G7" s="161" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -3449,19 +3723,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="142" t="s">
+      <c r="O7" s="165" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="142" t="s">
+      <c r="Q7" s="165" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="142" t="s">
+      <c r="S7" s="165" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -3470,55 +3744,55 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="7:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="148"/>
+    <row r="8" spans="7:22" ht="30.75" thickBot="1">
+      <c r="G8" s="162"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="149" t="s">
+      <c r="I8" s="163" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="149" t="s">
+      <c r="K8" s="163" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
       <c r="N8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="143"/>
+      <c r="O8" s="167"/>
       <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="143"/>
+      <c r="Q8" s="167"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="143"/>
+      <c r="S8" s="167"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="140" t="s">
+    <row r="9" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G9" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="149" t="s">
+      <c r="H9" s="158"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="142" t="s">
+      <c r="K9" s="164"/>
+      <c r="L9" s="165" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="145"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="146"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="160"/>
       <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
@@ -3528,20 +3802,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="147" t="s">
+    <row r="10" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G10" s="161" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="150"/>
+      <c r="J10" s="164"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="151"/>
-    </row>
-    <row r="11" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="148"/>
+      <c r="L10" s="166"/>
+    </row>
+    <row r="11" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G11" s="162"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3552,26 +3826,26 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="151"/>
-    </row>
-    <row r="12" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="140" t="s">
+      <c r="L11" s="166"/>
+    </row>
+    <row r="12" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G12" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="141"/>
+      <c r="H12" s="158"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="143"/>
+      <c r="L12" s="167"/>
       <c r="O12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="140" t="s">
+    <row r="13" spans="7:22" ht="15.75" thickBot="1">
+      <c r="G13" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="141"/>
+      <c r="H13" s="158"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
@@ -3585,12 +3859,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:22">
       <c r="O14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:22">
       <c r="G15" t="s">
         <v>67</v>
       </c>
@@ -3604,7 +3878,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:22">
       <c r="G16" t="s">
         <v>62</v>
       </c>
@@ -3624,7 +3898,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:20">
       <c r="G17" t="s">
         <v>6</v>
       </c>
@@ -3647,7 +3921,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:20">
       <c r="G18" t="s">
         <v>7</v>
       </c>
@@ -3670,7 +3944,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20">
       <c r="G19" t="s">
         <v>26</v>
       </c>
@@ -3693,7 +3967,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:20">
       <c r="G20" t="s">
         <v>27</v>
       </c>
@@ -3716,7 +3990,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:20">
       <c r="G21" t="s">
         <v>20</v>
       </c>
@@ -3736,7 +4010,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:20">
       <c r="G22" t="s">
         <v>21</v>
       </c>
@@ -3753,7 +4027,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20">
       <c r="L23" t="s">
         <v>117</v>
       </c>
@@ -3764,7 +4038,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:20">
       <c r="L24" t="s">
         <v>108</v>
       </c>
@@ -3775,7 +4049,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:20">
       <c r="G26" t="s">
         <v>118</v>
       </c>
@@ -3783,7 +4057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20">
       <c r="G27" t="s">
         <v>119</v>
       </c>
@@ -3791,8 +4065,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="7:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="7:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:18" ht="15.75" thickBot="1"/>
+    <row r="38" spans="7:18" ht="23.25" thickBot="1">
       <c r="G38" s="12"/>
       <c r="H38" s="12" t="s">
         <v>9</v>
@@ -3828,7 +4102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:18" ht="27" thickBot="1">
       <c r="G39" s="13" t="s">
         <v>18</v>
       </c>
@@ -3858,7 +4132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:18" ht="27" thickBot="1">
       <c r="G40" s="13" t="s">
         <v>17</v>
       </c>
@@ -3888,7 +4162,7 @@
       <c r="Q40" s="16"/>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="7:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:18" ht="30" customHeight="1" thickBot="1">
       <c r="G41" s="13" t="s">
         <v>31</v>
       </c>
@@ -3910,7 +4184,7 @@
       <c r="Q41" s="14"/>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:18" ht="27" thickBot="1">
       <c r="G42" s="13" t="s">
         <v>93</v>
       </c>
@@ -3932,7 +4206,7 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:18" ht="27" thickBot="1">
       <c r="G43" s="13" t="s">
         <v>28</v>
       </c>
@@ -3970,7 +4244,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:18" ht="27" thickBot="1">
       <c r="G44" s="13" t="s">
         <v>105</v>
       </c>
@@ -3988,7 +4262,7 @@
       <c r="Q44" s="16"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="7:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:18" ht="27" thickBot="1">
       <c r="G45" s="13" t="s">
         <v>25</v>
       </c>
@@ -4014,7 +4288,7 @@
       <c r="Q45" s="14"/>
       <c r="R45" s="16"/>
     </row>
-    <row r="46" spans="7:18" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:18" ht="34.5" thickBot="1">
       <c r="G46" s="17" t="s">
         <v>111</v>
       </c>
@@ -4038,12 +4312,12 @@
       <c r="Q46" s="18"/>
       <c r="R46" s="20"/>
     </row>
-    <row r="52" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:19">
       <c r="G52" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:19">
       <c r="G54" t="s">
         <v>67</v>
       </c>
@@ -4051,7 +4325,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:19">
       <c r="G55" t="s">
         <v>62</v>
       </c>
@@ -4068,11 +4342,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="56" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:19">
       <c r="G56" t="s">
         <v>6</v>
       </c>
-      <c r="J56" s="152" t="s">
+      <c r="J56" s="136" t="s">
         <v>61</v>
       </c>
       <c r="L56" t="s">
@@ -4082,7 +4356,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:19">
       <c r="G57" t="s">
         <v>7</v>
       </c>
@@ -4109,7 +4383,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:19">
       <c r="G58" s="30" t="s">
         <v>26</v>
       </c>
@@ -4135,7 +4409,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:19">
       <c r="H59" t="s">
         <v>33</v>
       </c>
@@ -4161,14 +4435,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:19">
       <c r="G60" s="30" t="s">
         <v>20</v>
       </c>
       <c r="H60" t="s">
         <v>23</v>
       </c>
-      <c r="J60" s="152" t="s">
+      <c r="J60" s="136" t="s">
         <v>115</v>
       </c>
       <c r="L60" t="s">
@@ -4190,7 +4464,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:19">
       <c r="G61" t="s">
         <v>21</v>
       </c>
@@ -4216,7 +4490,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="62" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:19">
       <c r="J62" t="s">
         <v>8</v>
       </c>
@@ -4224,7 +4498,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:21">
       <c r="G65" t="s">
         <v>118</v>
       </c>
@@ -4232,7 +4506,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:21">
       <c r="G66" s="30" t="s">
         <v>119</v>
       </c>
@@ -4243,7 +4517,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:21">
       <c r="G67" s="133" t="s">
         <v>278</v>
       </c>
@@ -4251,90 +4525,98 @@
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:21">
       <c r="G68" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="U68" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:21">
       <c r="G69" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S69" t="s">
         <v>40</v>
       </c>
       <c r="U69" s="99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="5:21">
+      <c r="S70" t="s">
+        <v>343</v>
+      </c>
+      <c r="U70" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="S70" t="s">
-        <v>344</v>
-      </c>
-      <c r="U70" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:21">
       <c r="E74" t="s">
+        <v>339</v>
+      </c>
+      <c r="G74" t="s">
+        <v>333</v>
+      </c>
+      <c r="J74" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="5:21">
+      <c r="E75" t="s">
         <v>340</v>
       </c>
-      <c r="G74" t="s">
-        <v>334</v>
-      </c>
-      <c r="J74" t="s">
+      <c r="G75" t="s">
+        <v>328</v>
+      </c>
+      <c r="J75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="5:21">
+      <c r="G76" t="s">
+        <v>330</v>
+      </c>
+      <c r="J76" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="77" spans="5:21">
+      <c r="G77" t="s">
+        <v>331</v>
+      </c>
+      <c r="J77" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
-        <v>341</v>
-      </c>
-      <c r="G75" t="s">
-        <v>329</v>
-      </c>
-      <c r="J75" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="G76" t="s">
-        <v>331</v>
-      </c>
-      <c r="J76" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="G77" t="s">
+      <c r="K77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="5:21">
+      <c r="G78" t="s">
         <v>332</v>
-      </c>
-      <c r="J77" t="s">
-        <v>336</v>
-      </c>
-      <c r="K77" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="G78" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -4351,55 +4633,47 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant"/>
-    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
-    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant"/>
-    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant"/>
-    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant"/>
-    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant"/>
-    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant"/>
-    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant"/>
-    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant"/>
-    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal"/>
-    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar"/>
-    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant"/>
-    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
-    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop"/>
-    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
-    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
-    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop"/>
-    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar"/>
-    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant"/>
-    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative"/>
-    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant"/>
-    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)"/>
-    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness"/>
-    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative"/>
-    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant"/>
-    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant"/>
-    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant"/>
-    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar"/>
-    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel"/>
-    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel"/>
-    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel"/>
-    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
-    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness"/>
-    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel"/>
-    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel"/>
-    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel"/>
-    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel"/>
-    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel"/>
-    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel"/>
+    <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" tooltip="Labiodental consonant" display="https://en.wikipedia.org/wiki/Labiodental_consonant" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I4" r:id="rId4" tooltip="Dental consonant" display="https://en.wikipedia.org/wiki/Dental_consonant" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" tooltip="Retroflex consonant" display="https://en.wikipedia.org/wiki/Retroflex_consonant" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="J5" r:id="rId6" tooltip="Alveolar consonant" display="https://en.wikipedia.org/wiki/Alveolar_consonant" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="K4" r:id="rId7" tooltip="Palatal consonant" display="https://en.wikipedia.org/wiki/Palatal_consonant" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="L4" r:id="rId8" tooltip="Velar consonant" display="https://en.wikipedia.org/wiki/Velar_consonant" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" tooltip="Nasal consonant" display="https://en.wikipedia.org/wiki/Nasal_consonant" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" tooltip="Bilabial nasal" display="https://en.wikipedia.org/wiki/Bilabial_nasal" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="K6" r:id="rId11" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar nasals" display="Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="G7" r:id="rId12" tooltip="Stop consonant" display="https://en.wikipedia.org/wiki/Stop_consonant" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="H7" r:id="rId13" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="I7" r:id="rId14" tooltip="Voiceless bilabial stop" display="https://en.wikipedia.org/wiki/Voiceless_bilabial_stop" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="K7" r:id="rId15" location="Dental_or_denti-alveolar" tooltip="Voiceless dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiceless_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="H8" r:id="rId16" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="I8" r:id="rId17" tooltip="Voiced bilabial stop" display="https://en.wikipedia.org/wiki/Voiced_bilabial_stop" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="K8" r:id="rId18" location="Dental_or_denti-alveolar" tooltip="Voiced dental and alveolar stops" display="https://en.wikipedia.org/wiki/Voiced_dental_and_alveolar_stops - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="G9" r:id="rId19" tooltip="Approximant consonant" display="https://en.wikipedia.org/wiki/Approximant_consonant" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J9" r:id="rId20" tooltip="Voiced labiodental fricative" display="https://en.wikipedia.org/wiki/Voiced_labiodental_fricative" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="G10" r:id="rId21" tooltip="Fricative consonant" display="https://en.wikipedia.org/wiki/Fricative_consonant" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="H10" r:id="rId22" tooltip="Voice (phonetics)" display="https://en.wikipedia.org/wiki/Voice_(phonetics)" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="H11" r:id="rId23" tooltip="Voicelessness" display="https://en.wikipedia.org/wiki/Voicelessness" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J11" r:id="rId24" tooltip="Voiceless labiodental fricative" display="https://en.wikipedia.org/wiki/Voiceless_labiodental_fricative" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="K11" r:id="rId25" location="Voiceless_dental_sibilant" tooltip="Voiceless alveolar fricative" display="https://en.wikipedia.org/wiki/Voiceless_alveolar_fricative - Voiceless_dental_sibilant" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G12" r:id="rId26" tooltip="Trill consonant" display="https://en.wikipedia.org/wiki/Trill_consonant" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="G13" r:id="rId27" tooltip="Lateral consonant" display="https://en.wikipedia.org/wiki/Lateral_consonant" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="K13" r:id="rId28" location="Dental_or_denti-alveolar" tooltip="Dental, alveolar and postalveolar lateral approximants" display="https://en.wikipedia.org/wiki/Dental,_alveolar_and_postalveolar_lateral_approximants - Dental_or_denti-alveolar" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="N3" r:id="rId29" tooltip="Front vowel" display="https://en.wikipedia.org/wiki/Front_vowel" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="R3" r:id="rId30" tooltip="Central vowel" display="https://en.wikipedia.org/wiki/Central_vowel" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="T3" r:id="rId31" tooltip="Back vowel" display="https://en.wikipedia.org/wiki/Back_vowel" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="N4" r:id="rId32" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="P4" r:id="rId33" tooltip="Roundedness" display="https://en.wikipedia.org/wiki/Roundedness" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="N5" r:id="rId34" tooltip="Short vowel" display="https://en.wikipedia.org/wiki/Short_vowel" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="O5" r:id="rId35" tooltip="Long vowel" display="https://en.wikipedia.org/wiki/Long_vowel" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="N6" r:id="rId36" tooltip="Close vowel" display="https://en.wikipedia.org/wiki/Close_vowel" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="N7" r:id="rId37" tooltip="Close-mid vowel" display="https://en.wikipedia.org/wiki/Close-mid_vowel" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="N8" r:id="rId38" tooltip="Open-mid vowel" display="https://en.wikipedia.org/wiki/Open-mid_vowel" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="N9" r:id="rId39" tooltip="Open vowel" display="https://en.wikipedia.org/wiki/Open_vowel" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId40"/>
@@ -4407,19 +4681,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AF138"/>
   <sheetViews>
     <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="30" customHeight="1">
       <c r="B1" s="23"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="I7" s="22" t="s">
         <v>122</v>
       </c>
@@ -4427,7 +4701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="I8" s="22" t="s">
         <v>124</v>
       </c>
@@ -4435,7 +4709,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="I9" s="22" t="s">
         <v>123</v>
       </c>
@@ -4443,7 +4717,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="C10" t="s">
         <v>132</v>
       </c>
@@ -4468,7 +4742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="G11" s="22" t="s">
         <v>126</v>
       </c>
@@ -4491,7 +4765,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18">
       <c r="O12" s="24" t="s">
         <v>124</v>
       </c>
@@ -4502,7 +4776,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18">
       <c r="G13" s="25" t="s">
         <v>129</v>
       </c>
@@ -4524,7 +4798,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18">
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
@@ -4535,7 +4809,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18">
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25" t="s">
@@ -4544,7 +4818,7 @@
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18">
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25" t="s">
@@ -4556,7 +4830,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11">
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25" t="s">
@@ -4565,7 +4839,7 @@
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11">
       <c r="C22" t="s">
         <v>185</v>
       </c>
@@ -4573,38 +4847,38 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11">
       <c r="G23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11">
       <c r="G24" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11">
       <c r="G25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11">
       <c r="G26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11">
       <c r="G27" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" ht="30" customHeight="1">
       <c r="C34" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D34" s="28"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="D38" t="s">
         <v>187</v>
       </c>
@@ -4612,7 +4886,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5">
       <c r="D39" t="s">
         <v>188</v>
       </c>
@@ -4620,7 +4894,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="D40" t="s">
         <v>210</v>
       </c>
@@ -4628,7 +4902,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="D41" t="s">
         <v>211</v>
       </c>
@@ -4636,7 +4910,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5">
       <c r="D42" t="s">
         <v>251</v>
       </c>
@@ -4644,30 +4918,30 @@
         <v>189</v>
       </c>
     </row>
-    <row r="55" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:31">
       <c r="I55" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="56" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:31">
       <c r="AB56" s="58"/>
     </row>
-    <row r="57" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:31">
       <c r="AB57" s="58"/>
     </row>
-    <row r="58" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:31">
       <c r="T58" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AB58" s="58"/>
       <c r="AE58" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:31">
       <c r="J59" s="64" t="s">
         <v>278</v>
       </c>
@@ -4699,7 +4973,7 @@
         <v>61</v>
       </c>
       <c r="T59" s="128" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U59" s="72" t="s">
         <v>6</v>
@@ -4726,13 +5000,13 @@
         <v>119</v>
       </c>
       <c r="AC59" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AD59" s="62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:31">
       <c r="F60" s="32" t="s">
         <v>285</v>
       </c>
@@ -4826,7 +5100,7 @@
         <v>ਨʔ</v>
       </c>
     </row>
-    <row r="61" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:31">
       <c r="F61" s="32" t="s">
         <v>135</v>
       </c>
@@ -4920,7 +5194,7 @@
         <v>wʔ</v>
       </c>
     </row>
-    <row r="62" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:31">
       <c r="F62" s="34" t="s">
         <v>136</v>
       </c>
@@ -5014,7 +5288,7 @@
         <v>lʔ</v>
       </c>
     </row>
-    <row r="63" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:31">
       <c r="F63" s="57"/>
       <c r="G63" s="58"/>
       <c r="H63" s="58"/>
@@ -5106,7 +5380,7 @@
         <v>rʔ</v>
       </c>
     </row>
-    <row r="64" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:31">
       <c r="F64" s="57"/>
       <c r="G64" s="58"/>
       <c r="H64" s="58"/>
@@ -5198,7 +5472,7 @@
         <v>ɾʔ</v>
       </c>
     </row>
-    <row r="65" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:30">
       <c r="F65" s="57"/>
       <c r="G65" s="58"/>
       <c r="H65" s="58"/>
@@ -5290,7 +5564,7 @@
         <v>ɹʔ</v>
       </c>
     </row>
-    <row r="66" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:30">
       <c r="F66" s="57"/>
       <c r="G66" s="58"/>
       <c r="H66" s="58"/>
@@ -5382,7 +5656,7 @@
         <v>ʀʔ</v>
       </c>
     </row>
-    <row r="67" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:30">
       <c r="F67" s="57"/>
       <c r="G67" s="58"/>
       <c r="H67" s="58"/>
@@ -5474,7 +5748,7 @@
         <v>ʁʔ</v>
       </c>
     </row>
-    <row r="68" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:30">
       <c r="F68" s="57"/>
       <c r="G68" s="58"/>
       <c r="H68" s="58"/>
@@ -5566,7 +5840,7 @@
         <v>ɣʔ</v>
       </c>
     </row>
-    <row r="69" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:30">
       <c r="F69" s="57"/>
       <c r="G69" s="58"/>
       <c r="H69" s="58"/>
@@ -5658,10 +5932,10 @@
         <v>ʙʔ</v>
       </c>
     </row>
-    <row r="70" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:30">
       <c r="E70" s="97"/>
       <c r="I70" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J70" s="82" t="str">
         <f t="shared" si="2"/>
@@ -5748,13 +6022,13 @@
         <v>Ȝʔ</v>
       </c>
     </row>
-    <row r="71" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:30">
       <c r="F71" s="34" t="s">
         <v>137</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I71" s="67" t="s">
         <v>6</v>
@@ -5844,11 +6118,11 @@
         <v>mʔ</v>
       </c>
     </row>
-    <row r="72" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:30">
       <c r="F72" s="59"/>
       <c r="G72" s="54"/>
       <c r="H72" s="54" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I72" s="68" t="s">
         <v>7</v>
@@ -5938,7 +6212,7 @@
         <v>nʔ</v>
       </c>
     </row>
-    <row r="73" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:30">
       <c r="F73" s="34" t="s">
         <v>138</v>
       </c>
@@ -6032,7 +6306,7 @@
         <v>θʔ</v>
       </c>
     </row>
-    <row r="74" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:30">
       <c r="F74" s="57"/>
       <c r="G74" s="58"/>
       <c r="H74" s="58"/>
@@ -6124,7 +6398,7 @@
         <v>ðʔ</v>
       </c>
     </row>
-    <row r="75" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:30">
       <c r="F75" s="57"/>
       <c r="G75" s="58"/>
       <c r="H75" s="58"/>
@@ -6216,7 +6490,7 @@
         <v>ʍʔ</v>
       </c>
     </row>
-    <row r="76" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:30">
       <c r="F76" s="34" t="s">
         <v>139</v>
       </c>
@@ -6310,7 +6584,7 @@
         <v>tʔ</v>
       </c>
     </row>
-    <row r="77" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:30">
       <c r="F77" s="57"/>
       <c r="G77" s="58"/>
       <c r="H77" s="97"/>
@@ -6402,7 +6676,7 @@
         <v>bʔ</v>
       </c>
     </row>
-    <row r="78" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:30">
       <c r="F78" s="57"/>
       <c r="I78" s="69" t="s">
         <v>119</v>
@@ -6492,12 +6766,12 @@
         <v>Ћʔ</v>
       </c>
     </row>
-    <row r="79" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:30">
       <c r="F79" s="59"/>
       <c r="G79" s="58"/>
       <c r="H79" s="58"/>
       <c r="I79" s="68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J79" s="88" t="str">
         <f t="shared" si="5"/>
@@ -6584,7 +6858,7 @@
         <v>ƿʔ</v>
       </c>
     </row>
-    <row r="80" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:30">
       <c r="F80" s="32" t="s">
         <v>284</v>
       </c>
@@ -6678,12 +6952,12 @@
         <v>ʔʔ</v>
       </c>
     </row>
-    <row r="81" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:32">
       <c r="H81" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:32">
       <c r="F82" s="58"/>
       <c r="G82" s="58"/>
       <c r="H82" s="58"/>
@@ -6711,7 +6985,7 @@
       <c r="AE82" s="58"/>
       <c r="AF82" s="58"/>
     </row>
-    <row r="83" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:32">
       <c r="F83" s="58"/>
       <c r="G83" s="58"/>
       <c r="H83" s="58"/>
@@ -6739,7 +7013,7 @@
       <c r="AE83" s="58"/>
       <c r="AF83" s="58"/>
     </row>
-    <row r="90" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:32">
       <c r="F90" s="123"/>
       <c r="G90" s="123"/>
       <c r="H90" s="123"/>
@@ -6768,7 +7042,7 @@
       <c r="AE90" s="123"/>
       <c r="AF90" s="123"/>
     </row>
-    <row r="91" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:32">
       <c r="F91" s="123"/>
       <c r="G91" s="123"/>
       <c r="H91" s="123"/>
@@ -6797,7 +7071,7 @@
       <c r="AE91" s="124"/>
       <c r="AF91" s="124"/>
     </row>
-    <row r="92" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:32">
       <c r="F92" s="123"/>
       <c r="G92" s="123"/>
       <c r="H92" s="123"/>
@@ -6826,7 +7100,7 @@
       <c r="AE92" s="124"/>
       <c r="AF92" s="124"/>
     </row>
-    <row r="93" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:32">
       <c r="F93" s="123"/>
       <c r="G93" s="123"/>
       <c r="H93" s="123"/>
@@ -6855,7 +7129,7 @@
       <c r="AE93" s="124"/>
       <c r="AF93" s="124"/>
     </row>
-    <row r="94" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:32">
       <c r="F94" s="123"/>
       <c r="G94" s="123"/>
       <c r="H94" s="123"/>
@@ -6884,7 +7158,7 @@
       <c r="AE94" s="124"/>
       <c r="AF94" s="124"/>
     </row>
-    <row r="95" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:32">
       <c r="F95" s="123"/>
       <c r="G95" s="123"/>
       <c r="H95" s="123"/>
@@ -6913,7 +7187,7 @@
       <c r="AE95" s="124"/>
       <c r="AF95" s="124"/>
     </row>
-    <row r="96" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:32">
       <c r="F96" s="123"/>
       <c r="G96" s="123"/>
       <c r="H96" s="123"/>
@@ -6942,7 +7216,7 @@
       <c r="AE96" s="124"/>
       <c r="AF96" s="124"/>
     </row>
-    <row r="97" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:32">
       <c r="F97" s="123"/>
       <c r="G97" s="123"/>
       <c r="H97" s="123"/>
@@ -6971,7 +7245,7 @@
       <c r="AE97" s="124"/>
       <c r="AF97" s="124"/>
     </row>
-    <row r="98" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:32">
       <c r="F98" s="123"/>
       <c r="G98" s="123"/>
       <c r="H98" s="123"/>
@@ -7000,7 +7274,7 @@
       <c r="AE98" s="124"/>
       <c r="AF98" s="124"/>
     </row>
-    <row r="99" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:32">
       <c r="F99" s="123"/>
       <c r="G99" s="123"/>
       <c r="H99" s="123"/>
@@ -7029,7 +7303,7 @@
       <c r="AE99" s="124"/>
       <c r="AF99" s="124"/>
     </row>
-    <row r="100" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:32">
       <c r="F100" s="123"/>
       <c r="G100" s="123"/>
       <c r="H100" s="123"/>
@@ -7058,7 +7332,7 @@
       <c r="AE100" s="124"/>
       <c r="AF100" s="124"/>
     </row>
-    <row r="101" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:32">
       <c r="F101" s="123"/>
       <c r="G101" s="123"/>
       <c r="H101" s="123"/>
@@ -7087,7 +7361,7 @@
       <c r="AE101" s="124"/>
       <c r="AF101" s="124"/>
     </row>
-    <row r="102" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:32">
       <c r="F102" s="123"/>
       <c r="G102" s="123"/>
       <c r="H102" s="123"/>
@@ -7116,7 +7390,7 @@
       <c r="AE102" s="124"/>
       <c r="AF102" s="124"/>
     </row>
-    <row r="103" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:32">
       <c r="F103" s="123"/>
       <c r="G103" s="123"/>
       <c r="H103" s="123"/>
@@ -7145,7 +7419,7 @@
       <c r="AE103" s="124"/>
       <c r="AF103" s="124"/>
     </row>
-    <row r="104" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:32">
       <c r="F104" s="123"/>
       <c r="G104" s="123"/>
       <c r="H104" s="123"/>
@@ -7174,7 +7448,7 @@
       <c r="AE104" s="124"/>
       <c r="AF104" s="124"/>
     </row>
-    <row r="105" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:32">
       <c r="F105" s="123"/>
       <c r="G105" s="123"/>
       <c r="H105" s="123"/>
@@ -7203,7 +7477,7 @@
       <c r="AE105" s="124"/>
       <c r="AF105" s="124"/>
     </row>
-    <row r="106" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:32">
       <c r="F106" s="123"/>
       <c r="G106" s="123"/>
       <c r="H106" s="123"/>
@@ -7232,7 +7506,7 @@
       <c r="AE106" s="124"/>
       <c r="AF106" s="124"/>
     </row>
-    <row r="107" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:32">
       <c r="F107" s="123"/>
       <c r="G107" s="123"/>
       <c r="H107" s="123"/>
@@ -7261,7 +7535,7 @@
       <c r="AE107" s="124"/>
       <c r="AF107" s="124"/>
     </row>
-    <row r="108" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:32">
       <c r="F108" s="123"/>
       <c r="G108" s="123"/>
       <c r="H108" s="123"/>
@@ -7290,7 +7564,7 @@
       <c r="AE108" s="124"/>
       <c r="AF108" s="124"/>
     </row>
-    <row r="109" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:32">
       <c r="F109" s="123"/>
       <c r="G109" s="123"/>
       <c r="H109" s="123"/>
@@ -7319,7 +7593,7 @@
       <c r="AE109" s="124"/>
       <c r="AF109" s="124"/>
     </row>
-    <row r="110" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:32">
       <c r="F110" s="123"/>
       <c r="G110" s="123"/>
       <c r="H110" s="123"/>
@@ -7348,7 +7622,7 @@
       <c r="AE110" s="124"/>
       <c r="AF110" s="124"/>
     </row>
-    <row r="111" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:32">
       <c r="F111" s="123"/>
       <c r="G111" s="123"/>
       <c r="H111" s="123"/>
@@ -7377,7 +7651,7 @@
       <c r="AE111" s="124"/>
       <c r="AF111" s="124"/>
     </row>
-    <row r="112" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:32">
       <c r="F112" s="123"/>
       <c r="G112" s="123"/>
       <c r="H112" s="123"/>
@@ -7406,7 +7680,7 @@
       <c r="AE112" s="124"/>
       <c r="AF112" s="124"/>
     </row>
-    <row r="113" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:32">
       <c r="F113" s="123"/>
       <c r="G113" s="123"/>
       <c r="H113" s="123"/>
@@ -7435,7 +7709,7 @@
       <c r="AE113" s="124"/>
       <c r="AF113" s="124"/>
     </row>
-    <row r="126" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:32">
       <c r="K126" s="70" t="s">
         <v>196</v>
       </c>
@@ -7473,7 +7747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:32">
       <c r="J127" s="98" t="s">
         <v>196</v>
       </c>
@@ -7526,7 +7800,7 @@
         <v>im</v>
       </c>
     </row>
-    <row r="128" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:32">
       <c r="J128" s="66" t="s">
         <v>197</v>
       </c>
@@ -7579,7 +7853,7 @@
         <v>em</v>
       </c>
     </row>
-    <row r="129" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:22">
       <c r="J129" s="69" t="s">
         <v>199</v>
       </c>
@@ -7632,7 +7906,7 @@
         <v>ym</v>
       </c>
     </row>
-    <row r="130" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:22">
       <c r="J130" s="68" t="s">
         <v>193</v>
       </c>
@@ -7685,7 +7959,7 @@
         <v>øm</v>
       </c>
     </row>
-    <row r="131" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:22">
       <c r="J131" s="64" t="s">
         <v>198</v>
       </c>
@@ -7738,7 +8012,7 @@
         <v>ɑm</v>
       </c>
     </row>
-    <row r="132" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:22">
       <c r="J132" s="65" t="s">
         <v>50</v>
       </c>
@@ -7791,7 +8065,7 @@
         <v>ɛm</v>
       </c>
     </row>
-    <row r="133" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:22">
       <c r="J133" s="66" t="s">
         <v>59</v>
       </c>
@@ -7844,7 +8118,7 @@
         <v>am</v>
       </c>
     </row>
-    <row r="134" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:22">
       <c r="J134" s="69" t="s">
         <v>57</v>
       </c>
@@ -7897,7 +8171,7 @@
         <v>ɔm</v>
       </c>
     </row>
-    <row r="135" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:22">
       <c r="J135" s="69" t="s">
         <v>195</v>
       </c>
@@ -7950,7 +8224,7 @@
         <v>ʉm</v>
       </c>
     </row>
-    <row r="136" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:22">
       <c r="J136" s="68" t="s">
         <v>194</v>
       </c>
@@ -8003,7 +8277,7 @@
         <v>um</v>
       </c>
     </row>
-    <row r="137" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:22">
       <c r="J137" s="116" t="s">
         <v>7</v>
       </c>
@@ -8056,7 +8330,7 @@
         <v>nm</v>
       </c>
     </row>
-    <row r="138" spans="10:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:22">
       <c r="J138" s="117" t="s">
         <v>6</v>
       </c>
@@ -8116,71 +8390,182 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:AC164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="C5:AH164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:30">
       <c r="D5" t="s">
         <v>159</v>
       </c>
       <c r="F5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>236</v>
+      </c>
+      <c r="R5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T5" t="s">
+        <v>567</v>
+      </c>
+      <c r="V5" t="s">
+        <v>299</v>
+      </c>
+      <c r="X5" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="4:30">
       <c r="D6" t="s">
         <v>160</v>
       </c>
       <c r="F6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>234</v>
+      </c>
+      <c r="M6" t="s">
+        <v>571</v>
+      </c>
+      <c r="R6" t="s">
+        <v>572</v>
+      </c>
+      <c r="T6" t="s">
+        <v>217</v>
+      </c>
+      <c r="V6" t="s">
+        <v>573</v>
+      </c>
+      <c r="X6" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>575</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="4:30">
       <c r="D7" t="s">
         <v>161</v>
       </c>
       <c r="F7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M7" t="s">
+        <v>577</v>
+      </c>
+      <c r="R7" t="s">
+        <v>578</v>
+      </c>
+      <c r="T7" t="s">
+        <v>579</v>
+      </c>
+      <c r="V7" t="s">
+        <v>580</v>
+      </c>
+      <c r="X7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="8" spans="4:30">
       <c r="D8" t="s">
         <v>162</v>
       </c>
       <c r="F8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>583</v>
+      </c>
+      <c r="M8" t="s">
+        <v>584</v>
+      </c>
+      <c r="R8" t="s">
+        <v>585</v>
+      </c>
+      <c r="T8" t="s">
+        <v>585</v>
+      </c>
+      <c r="V8" t="s">
+        <v>586</v>
+      </c>
+      <c r="X8" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>588</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>589</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="4:30">
       <c r="D9" t="s">
         <v>163</v>
       </c>
       <c r="F9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>591</v>
+      </c>
+      <c r="R9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="4:30">
       <c r="D10" t="s">
         <v>169</v>
       </c>
@@ -8188,43 +8573,123 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:30">
       <c r="D11" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:30">
       <c r="D12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:30">
       <c r="D13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:30">
+      <c r="J15" t="s">
+        <v>592</v>
+      </c>
+      <c r="N15" s="173" t="s">
+        <v>593</v>
+      </c>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="4:30">
+      <c r="J16" t="s">
+        <v>246</v>
+      </c>
+      <c r="N16" s="173" t="s">
+        <v>595</v>
+      </c>
+      <c r="O16" s="173"/>
+      <c r="P16" s="173" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17" spans="4:19">
       <c r="D17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" t="s">
+        <v>301</v>
+      </c>
+      <c r="J17" t="s">
+        <v>597</v>
+      </c>
+      <c r="N17" s="173" t="s">
+        <v>598</v>
+      </c>
+      <c r="O17" s="173"/>
+      <c r="P17" s="173" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="4:19">
+      <c r="D18" t="s">
         <v>299</v>
       </c>
-      <c r="F17" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="18" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="J18" t="s">
+        <v>600</v>
+      </c>
+      <c r="N18" s="173" t="s">
+        <v>601</v>
+      </c>
+      <c r="O18" s="173"/>
+      <c r="P18" s="173" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="19" spans="4:19">
+      <c r="D19" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>301</v>
-      </c>
       <c r="F19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="J19" t="s">
+        <v>248</v>
+      </c>
+      <c r="N19" s="173" t="s">
+        <v>603</v>
+      </c>
+      <c r="O19" s="173"/>
+      <c r="P19" s="173"/>
+    </row>
+    <row r="20" spans="4:19">
+      <c r="N20" s="173" t="s">
+        <v>604</v>
+      </c>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+    </row>
+    <row r="21" spans="4:19">
+      <c r="N21" s="173" t="s">
+        <v>605</v>
+      </c>
+      <c r="O21" s="173"/>
+      <c r="P21" s="173"/>
+    </row>
+    <row r="22" spans="4:19">
+      <c r="N22" s="173" t="s">
+        <v>606</v>
+      </c>
+      <c r="O22" s="173"/>
+      <c r="P22" s="173"/>
+    </row>
+    <row r="23" spans="4:19">
+      <c r="N23" s="173" t="s">
+        <v>607</v>
+      </c>
+      <c r="O23" s="173"/>
+      <c r="P23" s="173"/>
+    </row>
+    <row r="26" spans="4:19">
       <c r="D26" s="27"/>
       <c r="F26" s="27"/>
       <c r="J26" s="97"/>
@@ -8244,7 +8709,7 @@
       <c r="R26" s="101"/>
       <c r="S26" s="101"/>
     </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:19">
       <c r="D27" t="s">
         <v>147</v>
       </c>
@@ -8268,7 +8733,7 @@
       <c r="R27" s="40"/>
       <c r="S27" s="40"/>
     </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:19">
       <c r="D28" t="s">
         <v>149</v>
       </c>
@@ -8292,7 +8757,7 @@
       <c r="R28" s="40"/>
       <c r="S28" s="40"/>
     </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:19">
       <c r="D29" t="s">
         <v>150</v>
       </c>
@@ -8316,7 +8781,7 @@
       <c r="R29" s="40"/>
       <c r="S29" s="40"/>
     </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:19">
       <c r="D30" t="s">
         <v>176</v>
       </c>
@@ -8340,7 +8805,7 @@
       <c r="R30" s="40"/>
       <c r="S30" s="40"/>
     </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:19">
       <c r="D31" t="s">
         <v>148</v>
       </c>
@@ -8364,7 +8829,7 @@
       <c r="R31" s="40"/>
       <c r="S31" s="40"/>
     </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:19">
       <c r="D32" t="s">
         <v>177</v>
       </c>
@@ -8388,7 +8853,7 @@
       <c r="R32" s="40"/>
       <c r="S32" s="40"/>
     </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:34">
       <c r="D33" t="s">
         <v>178</v>
       </c>
@@ -8409,7 +8874,7 @@
       <c r="R33" s="40"/>
       <c r="S33" s="40"/>
     </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:34">
       <c r="D34" t="s">
         <v>179</v>
       </c>
@@ -8428,7 +8893,7 @@
       <c r="R34" s="40"/>
       <c r="S34" s="40"/>
     </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:34">
       <c r="D35" t="s">
         <v>151</v>
       </c>
@@ -8449,15 +8914,15 @@
       <c r="R35" s="41"/>
       <c r="S35" s="41"/>
     </row>
-    <row r="39" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:34">
       <c r="D39" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="40" spans="3:28" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40" spans="3:34">
       <c r="D40" t="s">
         <v>246</v>
       </c>
@@ -8465,108 +8930,127 @@
         <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="41" spans="3:28" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="3:34">
       <c r="D41" t="s">
         <v>247</v>
       </c>
       <c r="E41" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G41" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="42" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:34">
       <c r="D42" t="s">
         <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G42" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="47" spans="3:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:34">
+      <c r="L43" t="s">
+        <v>394</v>
+      </c>
+      <c r="N43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="3:34">
+      <c r="F45" s="174" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="47" spans="3:34" ht="30" customHeight="1">
       <c r="C47" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>181</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
-      <c r="L47" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="L47" s="175"/>
       <c r="S47" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T47" s="28"/>
       <c r="U47" s="28"/>
       <c r="V47" s="28"/>
       <c r="AA47" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AB47" s="28"/>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AF47" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AG47" s="28"/>
+      <c r="AH47" s="28"/>
+    </row>
+    <row r="51" spans="3:34">
       <c r="C51" s="26" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K51" s="26"/>
       <c r="M51" s="26"/>
       <c r="O51" s="26"/>
       <c r="AA51" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AB51" s="26"/>
       <c r="AC51" s="26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="AF51" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH51" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" spans="3:34">
       <c r="C52" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="H52" t="s">
-        <v>386</v>
-      </c>
-      <c r="L52" t="s">
-        <v>395</v>
-      </c>
-      <c r="N52" t="s">
-        <v>396</v>
+        <v>643</v>
       </c>
       <c r="S52" s="27"/>
       <c r="U52" s="26" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AF52" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="53" spans="3:34">
       <c r="C53" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F53" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="H53" t="s">
-        <v>540</v>
+        <v>385</v>
       </c>
       <c r="S53" t="s">
         <v>147</v>
@@ -8577,82 +9061,94 @@
       <c r="W53" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AF53" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="54" spans="3:34">
       <c r="C54" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F54" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
       <c r="H54" t="s">
-        <v>317</v>
+        <v>538</v>
       </c>
       <c r="S54" t="s">
         <v>149</v>
       </c>
       <c r="U54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W54" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AF54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="55" spans="3:34">
       <c r="C55" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F55" t="s">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="H55" t="s">
-        <v>158</v>
-      </c>
-      <c r="J55" t="s">
-        <v>551</v>
+        <v>316</v>
       </c>
       <c r="S55" t="s">
         <v>150</v>
       </c>
       <c r="U55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W55" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="56" spans="3:34">
       <c r="C56" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F56" t="s">
-        <v>548</v>
+        <v>425</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J56" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="S56" t="s">
         <v>176</v>
       </c>
       <c r="U56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W56" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="57" spans="3:34">
       <c r="C57" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F57" t="s">
-        <v>416</v>
+        <v>546</v>
       </c>
       <c r="H57" t="s">
-        <v>417</v>
+        <v>155</v>
+      </c>
+      <c r="J57" t="s">
+        <v>551</v>
       </c>
       <c r="S57" t="s">
         <v>148</v>
@@ -8661,57 +9157,75 @@
         <v>155</v>
       </c>
       <c r="W57" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="58" spans="3:34">
       <c r="C58" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F58" t="s">
-        <v>454</v>
-      </c>
-      <c r="J58" t="s">
-        <v>541</v>
+        <v>414</v>
+      </c>
+      <c r="H58" t="s">
+        <v>415</v>
       </c>
       <c r="S58" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AF58" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="59" spans="3:34">
       <c r="C59" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F59" t="s">
-        <v>315</v>
+        <v>642</v>
       </c>
       <c r="H59" t="s">
-        <v>348</v>
+        <v>641</v>
       </c>
       <c r="S59" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AF59" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="60" spans="3:34">
       <c r="C60" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="H60" t="s">
-        <v>317</v>
+        <v>647</v>
+      </c>
+      <c r="J60" t="s">
+        <v>539</v>
       </c>
       <c r="S60" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="AF60" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="61" spans="3:34">
       <c r="C61" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F61" t="s">
-        <v>448</v>
+        <v>314</v>
+      </c>
+      <c r="H61" t="s">
+        <v>347</v>
       </c>
       <c r="S61" t="s">
         <v>151</v>
@@ -8720,51 +9234,63 @@
         <v>182</v>
       </c>
       <c r="W61" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="62" spans="3:34">
       <c r="C62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F62" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="H62" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="3:34">
       <c r="C63" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F63" t="s">
-        <v>313</v>
-      </c>
-      <c r="H63" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="64" spans="3:34">
       <c r="C64" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F64" t="s">
-        <v>310</v>
+        <v>406</v>
       </c>
       <c r="H64" t="s">
-        <v>312</v>
+        <v>635</v>
+      </c>
+      <c r="J64" t="s">
+        <v>636</v>
       </c>
       <c r="U64" s="26" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="AF64" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="3:32">
       <c r="C65" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F65" t="s">
-        <v>397</v>
+        <v>312</v>
       </c>
       <c r="H65" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
       <c r="S65" t="s">
         <v>147</v>
@@ -8775,13 +9301,19 @@
       <c r="W65" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="AF65" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="66" spans="3:32">
       <c r="C66" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F66" t="s">
-        <v>544</v>
+        <v>309</v>
+      </c>
+      <c r="H66" t="s">
+        <v>311</v>
       </c>
       <c r="S66" t="s">
         <v>149</v>
@@ -8790,18 +9322,21 @@
         <v>158</v>
       </c>
       <c r="W66" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="67" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="67" spans="3:32" ht="15" customHeight="1">
       <c r="C67" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F67" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="H67" t="s">
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="S67" t="s">
         <v>150</v>
@@ -8809,687 +9344,749 @@
       <c r="U67" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="AF67" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="68" spans="3:32">
       <c r="C68" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F68" t="s">
-        <v>547</v>
-      </c>
-      <c r="H68" t="s">
-        <v>295</v>
-      </c>
-      <c r="J68" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="S68" t="s">
         <v>176</v>
       </c>
       <c r="U68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W68" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="69" spans="3:32">
       <c r="C69" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F69" t="s">
-        <v>502</v>
+        <v>640</v>
       </c>
       <c r="H69" t="s">
-        <v>542</v>
+        <v>639</v>
       </c>
       <c r="S69" t="s">
         <v>148</v>
       </c>
       <c r="U69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="W69" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="70" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="AF69" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="70" spans="3:32">
       <c r="C70" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F70" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="H70" t="s">
-        <v>404</v>
+        <v>341</v>
       </c>
       <c r="S70" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="AF70" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="71" spans="3:32">
       <c r="C71" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F71" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="H71" t="s">
-        <v>556</v>
+        <v>294</v>
+      </c>
+      <c r="J71" t="s">
+        <v>550</v>
       </c>
       <c r="S71" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>449</v>
-      </c>
+      <c r="AF71" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="72" spans="3:32">
       <c r="F72" t="s">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="H72" t="s">
-        <v>411</v>
+        <v>540</v>
       </c>
       <c r="S72" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="AF72" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="73" spans="3:32">
       <c r="C73" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F73" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="H73" t="s">
-        <v>293</v>
-      </c>
-      <c r="J73" t="s">
-        <v>545</v>
+        <v>402</v>
       </c>
       <c r="S73" t="s">
         <v>151</v>
       </c>
       <c r="U73" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="3:32">
       <c r="C74" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F74" t="s">
+        <v>563</v>
+      </c>
+      <c r="H74" t="s">
+        <v>562</v>
+      </c>
+      <c r="J74" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="75" spans="3:32">
+      <c r="C75" t="s">
+        <v>451</v>
+      </c>
+      <c r="F75" t="s">
+        <v>553</v>
+      </c>
+      <c r="H75" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="76" spans="3:32">
+      <c r="C76" t="s">
+        <v>478</v>
+      </c>
+      <c r="F76" t="s">
+        <v>290</v>
+      </c>
+      <c r="H76" t="s">
+        <v>409</v>
+      </c>
+      <c r="U76" s="26" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="77" spans="3:32">
+      <c r="C77" t="s">
+        <v>476</v>
+      </c>
+      <c r="F77" t="s">
+        <v>291</v>
+      </c>
+      <c r="H77" t="s">
         <v>292</v>
       </c>
-      <c r="H74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>453</v>
-      </c>
-      <c r="F75" t="s">
-        <v>399</v>
-      </c>
-      <c r="H75" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>480</v>
-      </c>
-      <c r="F76" t="s">
-        <v>402</v>
-      </c>
-      <c r="H76" t="s">
-        <v>403</v>
-      </c>
-      <c r="U76" s="26" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>478</v>
-      </c>
-      <c r="F77" t="s">
-        <v>309</v>
-      </c>
-      <c r="H77" t="s">
-        <v>347</v>
+      <c r="J77" t="s">
+        <v>543</v>
       </c>
       <c r="S77" t="s">
         <v>147</v>
       </c>
       <c r="U77" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="W77" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="78" spans="3:23" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="78" spans="3:32">
       <c r="C78" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F78" t="s">
-        <v>410</v>
+        <v>646</v>
       </c>
       <c r="H78" t="s">
-        <v>559</v>
-      </c>
-      <c r="J78" t="s">
-        <v>554</v>
+        <v>219</v>
       </c>
       <c r="S78" t="s">
         <v>149</v>
       </c>
       <c r="U78" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="W78" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79" spans="3:32">
       <c r="C79" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F79" t="s">
-        <v>549</v>
+        <v>638</v>
       </c>
       <c r="H79" t="s">
-        <v>182</v>
+        <v>637</v>
       </c>
       <c r="J79" t="s">
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="S79" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="80" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:32">
       <c r="C80" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F80" t="s">
-        <v>387</v>
+        <v>633</v>
       </c>
       <c r="H80" t="s">
-        <v>389</v>
+        <v>632</v>
+      </c>
+      <c r="J80" t="s">
+        <v>634</v>
       </c>
       <c r="S80" t="s">
         <v>176</v>
       </c>
       <c r="U80" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="W80" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21">
       <c r="C81" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F81" t="s">
         <v>398</v>
       </c>
       <c r="H81" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="S81" t="s">
         <v>148</v>
       </c>
       <c r="U81" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21">
       <c r="C82" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>645</v>
       </c>
       <c r="H82" t="s">
-        <v>157</v>
+        <v>401</v>
       </c>
       <c r="S82" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:21">
       <c r="C83" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F83" t="s">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="H83" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="S83" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:21">
       <c r="C84" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F84" t="s">
-        <v>565</v>
+        <v>408</v>
       </c>
       <c r="H84" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="J84" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="S84" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:21">
       <c r="C85" t="s">
-        <v>460</v>
+        <v>458</v>
+      </c>
+      <c r="F85" t="s">
+        <v>547</v>
+      </c>
+      <c r="H85" t="s">
+        <v>182</v>
+      </c>
+      <c r="J85" t="s">
+        <v>548</v>
       </c>
       <c r="S85" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:21">
       <c r="C86" t="s">
+        <v>460</v>
+      </c>
+      <c r="F86" t="s">
+        <v>386</v>
+      </c>
+      <c r="H86" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21">
+      <c r="C87" t="s">
+        <v>461</v>
+      </c>
+      <c r="F87" t="s">
+        <v>397</v>
+      </c>
+      <c r="H87" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21">
+      <c r="C88" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+      <c r="F88" t="s">
+        <v>175</v>
+      </c>
+      <c r="H88" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21">
+      <c r="C89" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+      <c r="F89" t="s">
+        <v>400</v>
+      </c>
+      <c r="H89" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21">
+      <c r="C90" t="s">
+        <v>399</v>
+      </c>
+      <c r="F90" t="s">
+        <v>527</v>
+      </c>
+      <c r="H90" t="s">
+        <v>630</v>
+      </c>
+      <c r="J90" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="3:21">
+      <c r="C91" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21">
+      <c r="F92" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21">
+      <c r="C93" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
+    <row r="95" spans="3:21">
+      <c r="C95" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="96" spans="3:21">
+      <c r="C96" t="s">
+        <v>468</v>
+      </c>
+      <c r="F96" s="26"/>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>470</v>
-      </c>
-      <c r="F96" s="26"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+    <row r="118" spans="3:3">
+      <c r="C118" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
+    <row r="157" spans="3:3">
+      <c r="C157" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
+    <row r="158" spans="3:3">
+      <c r="C158" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
+    <row r="161" spans="3:3">
+      <c r="C161" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
+    <row r="162" spans="3:3">
+      <c r="C162" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:3">
       <c r="C163" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
       <c r="C164" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="F52:J83">
-    <sortCondition ref="F83"/>
+  <sortState ref="F52:J90">
+    <sortCondition ref="F90"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -9497,16 +10094,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C6:AP49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="6" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:42">
       <c r="D6">
         <v>1</v>
       </c>
@@ -9514,7 +10111,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:42">
       <c r="D7">
         <v>2</v>
       </c>
@@ -9522,83 +10119,83 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:42">
       <c r="X11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="12" spans="4:42" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="4:42">
       <c r="X12" s="58"/>
     </row>
-    <row r="13" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:42">
       <c r="G13" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H13" s="96"/>
       <c r="I13" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J13" s="96"/>
       <c r="K13" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13" s="96"/>
       <c r="M13" s="95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N13" s="96"/>
       <c r="O13" s="95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P13" s="96"/>
       <c r="Q13" s="95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R13" s="96"/>
       <c r="W13" s="58"/>
       <c r="X13" s="108"/>
       <c r="Y13" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z13" s="107"/>
       <c r="AA13" s="96"/>
       <c r="AB13" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC13" s="107"/>
       <c r="AD13" s="96"/>
       <c r="AE13" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF13" s="107"/>
       <c r="AG13" s="96"/>
       <c r="AH13" s="95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AI13" s="107"/>
       <c r="AJ13" s="96"/>
       <c r="AK13" s="95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL13" s="107"/>
       <c r="AM13" s="96"/>
       <c r="AN13" s="95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AO13" s="107"/>
       <c r="AP13" s="96"/>
     </row>
-    <row r="14" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:42">
       <c r="E14" s="70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F14" s="56"/>
       <c r="G14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="32" t="s">
@@ -9610,7 +10207,7 @@
       </c>
       <c r="N14" s="33"/>
       <c r="O14" s="106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P14" s="33"/>
       <c r="Q14" s="32" t="s">
@@ -9618,10 +10215,10 @@
       </c>
       <c r="R14" s="33"/>
       <c r="X14" s="105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Y14" s="105" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
@@ -9641,17 +10238,17 @@
       <c r="AO14" s="35"/>
       <c r="AP14" s="35"/>
     </row>
-    <row r="15" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:42">
       <c r="E15" s="70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="32" t="s">
@@ -9663,7 +10260,7 @@
       </c>
       <c r="N15" s="33"/>
       <c r="O15" s="106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P15" s="33"/>
       <c r="Q15" s="40" t="s">
@@ -9671,7 +10268,7 @@
       </c>
       <c r="R15" s="33"/>
       <c r="X15" s="103" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Y15" s="103"/>
       <c r="Z15" s="97"/>
@@ -9692,17 +10289,17 @@
       <c r="AO15" s="33"/>
       <c r="AP15" s="33"/>
     </row>
-    <row r="16" spans="4:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:42">
       <c r="E16" s="70" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="32" t="s">
@@ -9714,15 +10311,15 @@
       </c>
       <c r="N16" s="33"/>
       <c r="O16" s="106" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P16" s="33"/>
       <c r="Q16" s="40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R16" s="33"/>
       <c r="X16" s="105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Y16" s="105"/>
       <c r="Z16" s="33"/>
@@ -9743,9 +10340,9 @@
       <c r="AO16" s="97"/>
       <c r="AP16" s="97"/>
     </row>
-    <row r="17" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:42">
       <c r="C17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E17" s="123"/>
       <c r="F17" s="123"/>
@@ -9762,10 +10359,10 @@
       <c r="Q17" s="123"/>
       <c r="R17" s="123"/>
       <c r="X17" s="103" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Y17" s="103" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z17" s="97"/>
       <c r="AA17" s="97"/>
@@ -9785,9 +10382,9 @@
       <c r="AO17" s="33"/>
       <c r="AP17" s="33"/>
     </row>
-    <row r="18" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:42">
       <c r="X18" s="105" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y18" s="105"/>
       <c r="Z18" s="33"/>
@@ -9808,9 +10405,9 @@
       <c r="AO18" s="33"/>
       <c r="AP18" s="33"/>
     </row>
-    <row r="19" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:42">
       <c r="X19" s="104" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Y19" s="104"/>
       <c r="Z19" s="74"/>
@@ -9831,237 +10428,237 @@
       <c r="AO19" s="74"/>
       <c r="AP19" s="74"/>
     </row>
-    <row r="20" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:42">
       <c r="F20" s="94" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G20" s="95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H20" s="96"/>
       <c r="I20" s="95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J20" s="96"/>
       <c r="K20" s="95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L20" s="96"/>
       <c r="M20" s="95" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N20" s="96"/>
       <c r="O20" s="95" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P20" s="96"/>
       <c r="Q20" s="95" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R20" s="96"/>
     </row>
-    <row r="21" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F21" s="153" t="s">
+    <row r="21" spans="3:42">
+      <c r="F21" s="137" t="s">
+        <v>348</v>
+      </c>
+      <c r="G21" s="138" t="s">
+        <v>424</v>
+      </c>
+      <c r="H21" s="139"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="140"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="141"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="141"/>
+    </row>
+    <row r="22" spans="3:42">
+      <c r="F22" s="145" t="s">
         <v>349</v>
       </c>
-      <c r="G21" s="154" t="s">
-        <v>426</v>
-      </c>
-      <c r="H21" s="155"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="157"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="157"/>
-    </row>
-    <row r="22" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F22" s="161" t="s">
+      <c r="G22" s="146"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="148"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="144"/>
+    </row>
+    <row r="23" spans="3:42">
+      <c r="F23" s="137" t="s">
         <v>350</v>
       </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="160"/>
-    </row>
-    <row r="23" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F23" s="153" t="s">
+      <c r="G23" s="138"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="150"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="150"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="150"/>
+    </row>
+    <row r="24" spans="3:42">
+      <c r="F24" s="145" t="s">
         <v>351</v>
       </c>
-      <c r="G23" s="154"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="165"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="165"/>
-      <c r="R23" s="166"/>
-    </row>
-    <row r="24" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F24" s="161" t="s">
+      <c r="G24" s="146" t="s">
+        <v>354</v>
+      </c>
+      <c r="H24" s="147"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="148"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="144"/>
+    </row>
+    <row r="25" spans="3:42">
+      <c r="F25" s="137" t="s">
         <v>352</v>
       </c>
-      <c r="G24" s="162" t="s">
-        <v>355</v>
-      </c>
-      <c r="H24" s="163"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="159"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="164"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="159"/>
-      <c r="R24" s="160"/>
-    </row>
-    <row r="25" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F25" s="153" t="s">
+      <c r="G25" s="138"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="139"/>
+    </row>
+    <row r="26" spans="3:42">
+      <c r="F26" s="153" t="s">
         <v>353</v>
       </c>
-      <c r="G25" s="154"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="167"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="155"/>
-    </row>
-    <row r="26" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="F26" s="169" t="s">
-        <v>354</v>
-      </c>
-      <c r="G26" s="170"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="171"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="171"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="171"/>
-    </row>
-    <row r="32" spans="3:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="154"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="155"/>
+    </row>
+    <row r="32" spans="3:42" ht="30" customHeight="1">
       <c r="F32" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" t="s">
+        <v>359</v>
+      </c>
+      <c r="H35" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>360</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="H38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8">
+      <c r="F42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8">
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8">
+      <c r="F44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8">
+      <c r="F45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8">
+      <c r="F46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8">
+      <c r="F47" t="s">
+        <v>371</v>
+      </c>
+      <c r="H47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8">
+      <c r="F48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10">
+      <c r="F49" t="s">
+        <v>411</v>
+      </c>
+      <c r="H49" t="s">
+        <v>413</v>
+      </c>
+      <c r="J49" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>358</v>
-      </c>
-      <c r="H38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>372</v>
-      </c>
-      <c r="H47" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>413</v>
-      </c>
-      <c r="H49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J49" t="s">
-        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -10071,26 +10668,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B5:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18">
       <c r="D5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:18">
       <c r="D6" s="93" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:18">
       <c r="G16" t="s">
         <v>270</v>
       </c>
@@ -10107,10 +10704,10 @@
         <v>275</v>
       </c>
       <c r="R16" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
       <c r="G17" s="38" t="s">
         <v>256</v>
       </c>
@@ -10132,10 +10729,10 @@
       </c>
       <c r="P17" s="39"/>
       <c r="R17" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" thickBot="1">
       <c r="F18" s="74"/>
       <c r="G18" s="34"/>
       <c r="H18" s="35"/>
@@ -10144,18 +10741,18 @@
       <c r="K18" s="41"/>
       <c r="L18" s="35"/>
       <c r="M18" s="41" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N18" s="35"/>
       <c r="O18" s="41" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P18" s="35"/>
       <c r="R18" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19" t="s">
         <v>276</v>
       </c>
@@ -10175,10 +10772,10 @@
       <c r="O19" s="45"/>
       <c r="P19" s="46"/>
       <c r="R19" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20" t="s">
         <v>277</v>
       </c>
@@ -10198,10 +10795,10 @@
       <c r="O20" s="32"/>
       <c r="P20" s="48"/>
       <c r="R20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
       <c r="D21" s="36" t="s">
         <v>263</v>
       </c>
@@ -10218,7 +10815,7 @@
       <c r="O21" s="32"/>
       <c r="P21" s="48"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18">
       <c r="D22" s="36" t="s">
         <v>264</v>
       </c>
@@ -10235,7 +10832,7 @@
       <c r="O22" s="32"/>
       <c r="P22" s="48"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18">
       <c r="D23" s="36" t="s">
         <v>265</v>
       </c>
@@ -10252,7 +10849,7 @@
       <c r="O23" s="32"/>
       <c r="P23" s="48"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18">
       <c r="D24" s="36" t="s">
         <v>266</v>
       </c>
@@ -10269,7 +10866,7 @@
       <c r="O24" s="32"/>
       <c r="P24" s="48"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18">
       <c r="D25" s="36" t="s">
         <v>267</v>
       </c>
@@ -10286,7 +10883,7 @@
       <c r="O25" s="32"/>
       <c r="P25" s="48"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18">
       <c r="D26" s="36" t="s">
         <v>268</v>
       </c>
@@ -10303,7 +10900,7 @@
       <c r="O26" s="32"/>
       <c r="P26" s="48"/>
     </row>
-    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" ht="15.75" thickBot="1">
       <c r="D27" s="37" t="s">
         <v>269</v>
       </c>
@@ -10320,19 +10917,19 @@
       <c r="O27" s="52"/>
       <c r="P27" s="53"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18">
       <c r="D31" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18">
       <c r="D32" s="99" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
@@ -10340,26 +10937,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Aia/Lang/Derotic/Drotic.xlsx
+++ b/Aia/Lang/Derotic/Drotic.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29FD1A0-CFD9-48B1-BB18-FAD3362180CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B420F866-EAFA-4450-90EC-F7E28FCF280C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="606" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="META" sheetId="8" r:id="rId1"/>
     <sheet name="Sounds" sheetId="7" r:id="rId2"/>
     <sheet name="Phonotactics" sheetId="9" r:id="rId3"/>
     <sheet name="Orthography" sheetId="11" r:id="rId4"/>
-    <sheet name="Nouns" sheetId="1" r:id="rId5"/>
-    <sheet name="Verbs" sheetId="2" r:id="rId6"/>
-    <sheet name="Correlative" sheetId="10" r:id="rId7"/>
-    <sheet name="Adjectives" sheetId="3" r:id="rId8"/>
-    <sheet name="Adverbs" sheetId="4" r:id="rId9"/>
-    <sheet name="Pronouns" sheetId="5" r:id="rId10"/>
-    <sheet name="Prepositions" sheetId="6" r:id="rId11"/>
+    <sheet name="Grammar OW" sheetId="12" r:id="rId5"/>
+    <sheet name="Nouns" sheetId="1" r:id="rId6"/>
+    <sheet name="Verbs" sheetId="2" r:id="rId7"/>
+    <sheet name="Correlative" sheetId="10" r:id="rId8"/>
+    <sheet name="Adjectives" sheetId="3" r:id="rId9"/>
+    <sheet name="Adverbs" sheetId="4" r:id="rId10"/>
+    <sheet name="Pronouns" sheetId="5" r:id="rId11"/>
+    <sheet name="Prepositions" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="649">
   <si>
     <t>1.Sounds</t>
   </si>
@@ -2162,6 +2163,9 @@
   </si>
   <si>
     <t>˥˩iø:ðra</t>
+  </si>
+  <si>
+    <t>ergative-absolutive in certain places</t>
   </si>
 </sst>
 </file>
@@ -3106,10 +3110,34 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3130,33 +3158,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -3483,6 +3487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="D7:F12"/>
   <sheetViews>
@@ -3545,7 +3563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3580,66 +3598,66 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="9"/>
-      <c r="N3" s="157" t="s">
+      <c r="N3" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="168" t="s">
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="169"/>
-      <c r="T3" s="168" t="s">
+      <c r="S3" s="161"/>
+      <c r="T3" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="169"/>
+      <c r="U3" s="161"/>
       <c r="V3" s="9"/>
     </row>
     <row r="4" spans="7:22" ht="30.75" thickBot="1">
-      <c r="G4" s="161" t="s">
+      <c r="G4" s="171" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="161" t="s">
+      <c r="I4" s="171" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="161" t="s">
+      <c r="K4" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="161" t="s">
+      <c r="L4" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="157" t="s">
+      <c r="N4" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="158"/>
-      <c r="P4" s="157" t="s">
+      <c r="O4" s="165"/>
+      <c r="P4" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="171"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="162"/>
+      <c r="U4" s="163"/>
       <c r="V4" s="11"/>
     </row>
     <row r="5" spans="7:22" ht="30.75" thickBot="1">
-      <c r="G5" s="162"/>
+      <c r="G5" s="172"/>
       <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="162"/>
+      <c r="I5" s="172"/>
       <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
+      <c r="K5" s="172"/>
+      <c r="L5" s="172"/>
       <c r="N5" s="6" t="s">
         <v>39</v>
       </c>
@@ -3667,10 +3685,10 @@
       <c r="V5" s="11"/>
     </row>
     <row r="6" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G6" s="157" t="s">
+      <c r="G6" s="164" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="158"/>
+      <c r="H6" s="165"/>
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3706,7 +3724,7 @@
       </c>
     </row>
     <row r="7" spans="7:22" ht="30.75" thickBot="1">
-      <c r="G7" s="161" t="s">
+      <c r="G7" s="171" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -3723,19 +3741,19 @@
       <c r="N7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O7" s="165" t="s">
+      <c r="O7" s="166" t="s">
         <v>50</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="165" t="s">
+      <c r="Q7" s="166" t="s">
         <v>52</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="S7" s="165" t="s">
+      <c r="S7" s="166" t="s">
         <v>54</v>
       </c>
       <c r="T7" s="3"/>
@@ -3745,15 +3763,15 @@
       </c>
     </row>
     <row r="8" spans="7:22" ht="30.75" thickBot="1">
-      <c r="G8" s="162"/>
+      <c r="G8" s="172"/>
       <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="163" t="s">
+      <c r="I8" s="173" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="163" t="s">
+      <c r="K8" s="173" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="3"/>
@@ -3774,25 +3792,25 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G9" s="157" t="s">
+      <c r="G9" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="158"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="163" t="s">
+      <c r="H9" s="165"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="164"/>
-      <c r="L9" s="165" t="s">
+      <c r="K9" s="174"/>
+      <c r="L9" s="166" t="s">
         <v>27</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="159"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="160"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="170"/>
       <c r="S9" s="3" t="s">
         <v>59</v>
       </c>
@@ -3803,19 +3821,19 @@
       </c>
     </row>
     <row r="10" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G10" s="161" t="s">
+      <c r="G10" s="171" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="164"/>
+      <c r="J10" s="174"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="166"/>
+      <c r="L10" s="175"/>
     </row>
     <row r="11" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G11" s="162"/>
+      <c r="G11" s="172"/>
       <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3826,13 +3844,13 @@
       <c r="K11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="166"/>
+      <c r="L11" s="175"/>
     </row>
     <row r="12" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G12" s="157" t="s">
+      <c r="G12" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="158"/>
+      <c r="H12" s="165"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -3842,10 +3860,10 @@
       </c>
     </row>
     <row r="13" spans="7:22" ht="15.75" thickBot="1">
-      <c r="G13" s="157" t="s">
+      <c r="G13" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="158"/>
+      <c r="H13" s="165"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
@@ -4609,14 +4627,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="T3:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="R3:S4"/>
-    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
@@ -4633,6 +4643,14 @@
     <mergeCell ref="L9:L12"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="T3:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="R3:S4"/>
+    <mergeCell ref="N3:Q3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" tooltip="Bilabial consonant" display="https://en.wikipedia.org/wiki/Bilabial_consonant" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4684,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AF138"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8402,10 +8420,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF438955-EB63-4AF9-9AB4-4B32B7EB2435}">
+  <dimension ref="G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6" spans="7:7">
+      <c r="G6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5:AH164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
@@ -8592,11 +8630,11 @@
       <c r="J15" t="s">
         <v>592</v>
       </c>
-      <c r="N15" s="173" t="s">
+      <c r="N15" s="157" t="s">
         <v>593</v>
       </c>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173" t="s">
+      <c r="O15" s="157"/>
+      <c r="P15" s="157" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8604,11 +8642,11 @@
       <c r="J16" t="s">
         <v>246</v>
       </c>
-      <c r="N16" s="173" t="s">
+      <c r="N16" s="157" t="s">
         <v>595</v>
       </c>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173" t="s">
+      <c r="O16" s="157"/>
+      <c r="P16" s="157" t="s">
         <v>596</v>
       </c>
     </row>
@@ -8622,11 +8660,11 @@
       <c r="J17" t="s">
         <v>597</v>
       </c>
-      <c r="N17" s="173" t="s">
+      <c r="N17" s="157" t="s">
         <v>598</v>
       </c>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173" t="s">
+      <c r="O17" s="157"/>
+      <c r="P17" s="157" t="s">
         <v>599</v>
       </c>
     </row>
@@ -8637,11 +8675,11 @@
       <c r="J18" t="s">
         <v>600</v>
       </c>
-      <c r="N18" s="173" t="s">
+      <c r="N18" s="157" t="s">
         <v>601</v>
       </c>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173" t="s">
+      <c r="O18" s="157"/>
+      <c r="P18" s="157" t="s">
         <v>602</v>
       </c>
     </row>
@@ -8655,39 +8693,39 @@
       <c r="J19" t="s">
         <v>248</v>
       </c>
-      <c r="N19" s="173" t="s">
+      <c r="N19" s="157" t="s">
         <v>603</v>
       </c>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
     </row>
     <row r="20" spans="4:19">
-      <c r="N20" s="173" t="s">
+      <c r="N20" s="157" t="s">
         <v>604</v>
       </c>
-      <c r="O20" s="173"/>
-      <c r="P20" s="173"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
     </row>
     <row r="21" spans="4:19">
-      <c r="N21" s="173" t="s">
+      <c r="N21" s="157" t="s">
         <v>605</v>
       </c>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="157"/>
     </row>
     <row r="22" spans="4:19">
-      <c r="N22" s="173" t="s">
+      <c r="N22" s="157" t="s">
         <v>606</v>
       </c>
-      <c r="O22" s="173"/>
-      <c r="P22" s="173"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
     </row>
     <row r="23" spans="4:19">
-      <c r="N23" s="173" t="s">
+      <c r="N23" s="157" t="s">
         <v>607</v>
       </c>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
     </row>
     <row r="26" spans="4:19">
       <c r="D26" s="27"/>
@@ -8964,7 +9002,7 @@
       </c>
     </row>
     <row r="45" spans="3:34">
-      <c r="F45" s="174" t="s">
+      <c r="F45" s="158" t="s">
         <v>629</v>
       </c>
     </row>
@@ -8977,7 +9015,7 @@
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
-      <c r="L47" s="175"/>
+      <c r="L47" s="159"/>
       <c r="S47" s="1" t="s">
         <v>393</v>
       </c>
@@ -10093,7 +10131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C6:AP49"/>
   <sheetViews>
@@ -10667,7 +10705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B5:R32"/>
   <sheetViews>
@@ -10936,7 +10974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -10946,18 +10984,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>